--- a/data/raw/2024-02-28_water-samples.xlsx
+++ b/data/raw/2024-02-28_water-samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lysbethkoster/Documents/Universiteit/University of Hawai'i/MSc Thesis/Thesis/RQ2/Data Sets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lysbethkoster/Documents/Universiteit/University of Hawai'i/MSc Thesis/Thesis/RQ2/nomilo-fishpond-analysis/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A4FE87-8A7D-114D-83DD-DF9E36029D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7679F0AA-2D11-364C-8E0D-EAC35A1C1058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Overview" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="166">
   <si>
     <t>S-LAB Value</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -427,24 +427,6 @@
     <t>Depth (m)</t>
   </si>
   <si>
-    <t>FCM</t>
-  </si>
-  <si>
-    <t>total [species]</t>
-  </si>
-  <si>
-    <t>big greens</t>
-  </si>
-  <si>
-    <t>small yellow</t>
-  </si>
-  <si>
-    <t>bright red</t>
-  </si>
-  <si>
-    <t>dim reds</t>
-  </si>
-  <si>
     <t>Round</t>
   </si>
   <si>
@@ -455,20 +437,158 @@
   </si>
   <si>
     <t>nomilo_id</t>
+  </si>
+  <si>
+    <t>Heterotrophic bacteria</t>
+  </si>
+  <si>
+    <t>Large Phytoplankton (Eukaryotes)</t>
+  </si>
+  <si>
+    <t>Synechococcus Population 1</t>
+  </si>
+  <si>
+    <t>Synechococcus Population 2</t>
+  </si>
+  <si>
+    <t>Prochlorococcus</t>
+  </si>
+  <si>
+    <t>Lysbeths Mystery Cells Events</t>
+  </si>
+  <si>
+    <t>Tube Name:</t>
+  </si>
+  <si>
+    <t>01-Well-A1</t>
+  </si>
+  <si>
+    <t>01-Well-A2</t>
+  </si>
+  <si>
+    <t>01-Well-A3</t>
+  </si>
+  <si>
+    <t>01-Well-A4</t>
+  </si>
+  <si>
+    <t>01-Well-A5</t>
+  </si>
+  <si>
+    <t>01-Well-A6</t>
+  </si>
+  <si>
+    <t>01-Well-A7</t>
+  </si>
+  <si>
+    <t>01-Well-A8</t>
+  </si>
+  <si>
+    <t>01-Well-A9</t>
+  </si>
+  <si>
+    <t>01-Well-A10</t>
+  </si>
+  <si>
+    <t>01-Well-C1</t>
+  </si>
+  <si>
+    <t>01-Well-C2</t>
+  </si>
+  <si>
+    <t>01-Well-C3</t>
+  </si>
+  <si>
+    <t>01-Well-C4</t>
+  </si>
+  <si>
+    <t>01-Well-C5</t>
+  </si>
+  <si>
+    <t>01-Well-C6</t>
+  </si>
+  <si>
+    <t>01-Well-C7</t>
+  </si>
+  <si>
+    <t>01-Well-C8</t>
+  </si>
+  <si>
+    <t>01-Well-D1</t>
+  </si>
+  <si>
+    <t>01-Well-D2</t>
+  </si>
+  <si>
+    <t>01-Well-D3</t>
+  </si>
+  <si>
+    <t>01-Well-D4</t>
+  </si>
+  <si>
+    <t>01-Well-D5</t>
+  </si>
+  <si>
+    <t>01-Well-D6</t>
+  </si>
+  <si>
+    <t>01-Well-D7</t>
+  </si>
+  <si>
+    <t>01-Well-D8</t>
+  </si>
+  <si>
+    <t>01-Well-E1</t>
+  </si>
+  <si>
+    <t>01-Well-E2</t>
+  </si>
+  <si>
+    <t>01-Well-E3</t>
+  </si>
+  <si>
+    <t>01-Well-E4</t>
+  </si>
+  <si>
+    <t>01-Well-E5</t>
+  </si>
+  <si>
+    <t>01-Well-E6</t>
+  </si>
+  <si>
+    <t>01-Well-E7</t>
+  </si>
+  <si>
+    <t>01-Well-E8</t>
+  </si>
+  <si>
+    <t>back buoy</t>
+  </si>
+  <si>
+    <t>mid buoy</t>
+  </si>
+  <si>
+    <t>production dock</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>auwei</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="185" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="168" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -477,6 +597,7 @@
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -554,6 +675,25 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -600,7 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,7 +1064,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -960,24 +1099,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,7 +1153,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1049,6 +1181,20 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1086,31 +1232,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1563,1190 +1705,2163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="10.83203125" style="85"/>
+    <col min="2" max="3" width="10.83203125" style="68"/>
     <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="7" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="19.5" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:18" s="55" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="Q1" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B2" s="85">
+      <c r="R1" s="83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B2" s="68">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C2" s="85">
+      <c r="C2" s="68">
         <v>1</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="H2" s="81">
+      <c r="G2">
+        <v>2.0399999999999996</v>
+      </c>
+      <c r="H2" s="65">
         <v>0.13600806526893566</v>
       </c>
-      <c r="I2" s="81">
+      <c r="I2" s="65">
         <v>19.532627482997924</v>
       </c>
-      <c r="J2" s="81">
+      <c r="J2" s="65">
         <v>0.35286158068266282</v>
       </c>
-      <c r="K2" s="81">
+      <c r="K2" s="65">
         <v>0.55166376981550902</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B3" s="85">
+      <c r="L2" s="86">
+        <v>6759866.666666667</v>
+      </c>
+      <c r="M2" s="86">
+        <v>45316.666666666672</v>
+      </c>
+      <c r="N2" s="86">
+        <v>1832883.3333333335</v>
+      </c>
+      <c r="O2" s="86">
+        <v>82200</v>
+      </c>
+      <c r="P2" s="86">
+        <v>73166.666666666672</v>
+      </c>
+      <c r="Q2" s="86">
+        <v>16700</v>
+      </c>
+      <c r="R2" s="88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B3" s="68">
         <v>1.2</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="68">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="F3">
         <v>0.5</v>
       </c>
-      <c r="H3" s="81">
+      <c r="G3">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="H3" s="65">
         <v>0.17255381513358103</v>
       </c>
-      <c r="I3" s="81">
+      <c r="I3" s="65">
         <v>27.425803201514771</v>
       </c>
-      <c r="J3" s="81">
+      <c r="J3" s="65">
         <v>1.0698290484267501</v>
       </c>
-      <c r="K3" s="81">
+      <c r="K3" s="65">
         <v>7.5972190228886141E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="85">
+      <c r="L3" s="86">
+        <v>6491183.333333334</v>
+      </c>
+      <c r="M3" s="86">
+        <v>34983.333333333336</v>
+      </c>
+      <c r="N3" s="86">
+        <v>1684616.6666666667</v>
+      </c>
+      <c r="O3" s="86">
+        <v>72350</v>
+      </c>
+      <c r="P3" s="86">
+        <v>54250</v>
+      </c>
+      <c r="Q3" s="86">
+        <v>13266.666666666668</v>
+      </c>
+      <c r="R3" s="88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B4" s="68">
         <v>1.3</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="68">
         <v>1</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E4">
-        <v>2</v>
+      <c r="E4" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F4">
         <v>7.5</v>
       </c>
-      <c r="H4" s="81">
+      <c r="G4">
+        <v>5.5949999999999998</v>
+      </c>
+      <c r="H4" s="65">
         <v>6.973097100610498E-2</v>
       </c>
-      <c r="I4" s="81">
+      <c r="I4" s="65">
         <v>26.235327838239254</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="65">
         <v>0.9459510967963255</v>
       </c>
-      <c r="K4" s="81">
+      <c r="K4" s="65">
         <v>3.2685653257386971</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="85">
+      <c r="L4" s="86">
+        <v>7585816.666666667</v>
+      </c>
+      <c r="M4" s="86">
+        <v>78016.666666666672</v>
+      </c>
+      <c r="N4" s="86">
+        <v>1846716.6666666667</v>
+      </c>
+      <c r="O4" s="86">
+        <v>235600</v>
+      </c>
+      <c r="P4" s="86">
+        <v>197316.66666666669</v>
+      </c>
+      <c r="Q4" s="86">
+        <v>17050</v>
+      </c>
+      <c r="R4" s="88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B5" s="68">
         <v>1.4</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="68">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E5">
-        <v>2</v>
+      <c r="E5" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="H5" s="81">
+      <c r="G5">
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="H5" s="65">
         <v>0.13656815338946662</v>
       </c>
-      <c r="I5" s="81">
+      <c r="I5" s="65">
         <v>19.984887043679919</v>
       </c>
-      <c r="J5" s="81">
+      <c r="J5" s="65">
         <v>0.99998094185359532</v>
       </c>
-      <c r="K5" s="81">
+      <c r="K5" s="65">
         <v>1.0934286851087889</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="85">
+      <c r="L5" s="86">
+        <v>6778516.666666667</v>
+      </c>
+      <c r="M5" s="86">
+        <v>32400</v>
+      </c>
+      <c r="N5" s="86">
+        <v>1813683.3333333335</v>
+      </c>
+      <c r="O5" s="86">
+        <v>78166.666666666672</v>
+      </c>
+      <c r="P5" s="86">
+        <v>63916.666666666672</v>
+      </c>
+      <c r="Q5" s="86">
+        <v>17400</v>
+      </c>
+      <c r="R5" s="88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B6" s="68">
         <v>1.5</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="68">
         <v>1</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E6">
-        <v>2</v>
+      <c r="E6" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F6">
         <v>0.5</v>
       </c>
-      <c r="H6" s="81">
+      <c r="G6">
+        <v>2.58</v>
+      </c>
+      <c r="H6" s="65">
         <v>5.7455706364468014E-2</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="65">
         <v>25.027759200229301</v>
       </c>
-      <c r="J6" s="81">
+      <c r="J6" s="65">
         <v>1.163595128737779</v>
       </c>
-      <c r="K6" s="81">
+      <c r="K6" s="65">
         <v>0.11344208740812095</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="85">
+      <c r="L6" s="86">
+        <v>6064683.333333334</v>
+      </c>
+      <c r="M6" s="86">
+        <v>29983.333333333336</v>
+      </c>
+      <c r="N6" s="86">
+        <v>1564583.3333333335</v>
+      </c>
+      <c r="O6" s="86">
+        <v>66050</v>
+      </c>
+      <c r="P6" s="86">
+        <v>46066.666666666672</v>
+      </c>
+      <c r="Q6" s="86">
+        <v>13716.666666666668</v>
+      </c>
+      <c r="R6" s="88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B7" s="68">
         <v>1.6</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="68">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E7">
-        <v>3</v>
+      <c r="E7" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F7">
         <v>2.75</v>
       </c>
-      <c r="H7" s="81">
+      <c r="G7">
+        <v>2.415</v>
+      </c>
+      <c r="H7" s="65">
         <v>6.1236301178052018E-2</v>
       </c>
-      <c r="I7" s="81">
+      <c r="I7" s="65">
         <v>23.857938210591229</v>
       </c>
-      <c r="J7" s="81">
+      <c r="J7" s="65">
         <v>1.1957081054296659</v>
       </c>
-      <c r="K7" s="81">
+      <c r="K7" s="65">
         <v>0.32313990744037024</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B8" s="85">
+      <c r="L7" s="86">
+        <v>5856783.333333334</v>
+      </c>
+      <c r="M7" s="86">
+        <v>28450</v>
+      </c>
+      <c r="N7" s="86">
+        <v>1384566.6666666667</v>
+      </c>
+      <c r="O7" s="86">
+        <v>60383.333333333336</v>
+      </c>
+      <c r="P7" s="86">
+        <v>45783.333333333336</v>
+      </c>
+      <c r="Q7" s="86">
+        <v>11733.333333333334</v>
+      </c>
+      <c r="R7" s="88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B8" s="68">
         <v>1.7</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="68">
         <v>1</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E8">
-        <v>3</v>
+      <c r="E8" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F8">
         <v>0.5</v>
       </c>
-      <c r="H8" s="81">
+      <c r="G8">
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="H8" s="65">
         <v>8.293971584862686E-2</v>
       </c>
-      <c r="I8" s="81">
+      <c r="I8" s="65">
         <v>24.282421199829763</v>
       </c>
-      <c r="J8" s="81">
+      <c r="J8" s="65">
         <v>1.60907930094719</v>
       </c>
-      <c r="K8" s="81">
+      <c r="K8" s="65">
         <v>0.47799928800284797</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="85">
+      <c r="L8" s="86">
+        <v>5806383.333333334</v>
+      </c>
+      <c r="M8" s="86">
+        <v>20600</v>
+      </c>
+      <c r="N8" s="86">
+        <v>1467483.3333333335</v>
+      </c>
+      <c r="O8" s="86">
+        <v>63850</v>
+      </c>
+      <c r="P8" s="86">
+        <v>38333.333333333336</v>
+      </c>
+      <c r="Q8" s="86">
+        <v>8516.6666666666679</v>
+      </c>
+      <c r="R8" s="88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="68">
         <v>1.8</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="68">
         <v>1</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="83">
+      <c r="E9" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9">
         <v>0.5</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="65">
         <v>6.7691871283983103</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="65">
         <v>791.89286243483036</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J9" s="65">
         <v>388.34916623364353</v>
       </c>
-      <c r="K9" s="81">
+      <c r="K9" s="65">
         <v>10.237966201076372</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="85">
+      <c r="L9" s="87">
+        <v>1522316.6666666667</v>
+      </c>
+      <c r="M9" s="87">
+        <v>403766.66666666669</v>
+      </c>
+      <c r="N9" s="87">
+        <v>65216.666666666672</v>
+      </c>
+      <c r="O9" s="87">
+        <v>6916.666666666667</v>
+      </c>
+      <c r="P9" s="87">
+        <v>93783.333333333343</v>
+      </c>
+      <c r="Q9" s="87">
+        <v>616.66666666666674</v>
+      </c>
+      <c r="R9" s="89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B10" s="68">
         <v>1.9</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="68">
         <v>1</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10" s="83">
+      <c r="E10" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10">
         <v>0.75</v>
       </c>
-      <c r="H10" s="81">
+      <c r="G10">
+        <v>1.7399999999999998</v>
+      </c>
+      <c r="H10" s="65">
         <v>4.9376389960513731E-2</v>
       </c>
-      <c r="I10" s="81">
+      <c r="I10" s="65">
         <v>22.802570972520076</v>
       </c>
-      <c r="J10" s="81">
+      <c r="J10" s="65">
         <v>1.6268727856771694</v>
       </c>
-      <c r="K10" s="81">
+      <c r="K10" s="65">
         <v>0.29314368064819812</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="86">
+      <c r="L10" s="86">
+        <v>5276316.666666667</v>
+      </c>
+      <c r="M10" s="86">
+        <v>28016.666666666668</v>
+      </c>
+      <c r="N10" s="86">
+        <v>1310716.6666666667</v>
+      </c>
+      <c r="O10" s="86">
+        <v>54166.666666666672</v>
+      </c>
+      <c r="P10" s="86">
+        <v>40900</v>
+      </c>
+      <c r="Q10" s="86">
+        <v>11283.333333333334</v>
+      </c>
+      <c r="R10" s="88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B11" s="69">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="68">
         <v>1</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E11">
-        <v>4</v>
+      <c r="E11" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="F11">
         <v>0.5</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="65">
         <v>0.1962642122360585</v>
       </c>
-      <c r="I11" s="81">
+      <c r="I11" s="65">
         <v>12.546107545186871</v>
       </c>
-      <c r="J11" s="81">
+      <c r="J11" s="65">
         <v>1.5739170208305542</v>
       </c>
-      <c r="K11" s="81">
+      <c r="K11" s="65">
         <v>1.1989759805666658</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B12" s="85">
+      <c r="L11" s="86">
+        <v>1542116.6666666667</v>
+      </c>
+      <c r="M11" s="86">
+        <v>11400</v>
+      </c>
+      <c r="N11" s="86">
+        <v>330783.33333333337</v>
+      </c>
+      <c r="O11" s="86">
+        <v>16583.333333333336</v>
+      </c>
+      <c r="P11" s="86">
+        <v>24150</v>
+      </c>
+      <c r="Q11" s="86">
+        <v>2133.3333333333335</v>
+      </c>
+      <c r="R11" s="88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B12" s="68">
         <v>2.1</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="68">
         <v>2</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="E12" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
-      <c r="H12" s="81">
+      <c r="G12">
+        <v>5.7692307692307692</v>
+      </c>
+      <c r="H12" s="65">
         <v>4.8774340496238071E-2</v>
       </c>
-      <c r="I12" s="81">
+      <c r="I12" s="65">
         <v>19.549364647842062</v>
       </c>
-      <c r="J12" s="81">
+      <c r="J12" s="65">
         <v>0.74593585027920173</v>
       </c>
-      <c r="K12" s="81">
+      <c r="K12" s="65">
         <v>0.17575021464620025</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B13" s="85">
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B13" s="68">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="68">
         <v>2</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="E13" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="F13">
         <v>0.5</v>
       </c>
-      <c r="H13" s="81">
+      <c r="G13">
+        <v>4.8239999999999998</v>
+      </c>
+      <c r="H13" s="65">
         <v>0.18384892556428878</v>
       </c>
-      <c r="I13" s="81">
+      <c r="I13" s="65">
         <v>23.090877506883345</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="65">
         <v>1.1846543805149512</v>
       </c>
-      <c r="K13" s="81">
+      <c r="K13" s="65">
         <v>0.50490230980252548</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="85">
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B14" s="68">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="68">
         <v>2</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E14">
-        <v>2</v>
+      <c r="E14" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F14">
         <v>7.5</v>
       </c>
-      <c r="H14" s="81">
+      <c r="G14">
+        <v>5.2714285714285722</v>
+      </c>
+      <c r="H14" s="65">
         <v>0.51486100479808816</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I14" s="65">
         <v>28.899742037469711</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J14" s="65">
         <v>0.92212841379047472</v>
       </c>
-      <c r="K14" s="81">
+      <c r="K14" s="65">
         <v>5.717590517873222</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="85">
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B15" s="68">
         <v>2.4</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="68">
         <v>2</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E15">
-        <v>2</v>
+      <c r="E15" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
-      <c r="H15" s="81">
+      <c r="G15">
+        <v>4.1307692307692312</v>
+      </c>
+      <c r="H15" s="65">
         <v>0.13932191998207719</v>
       </c>
-      <c r="I15" s="81">
+      <c r="I15" s="65">
         <v>19.270174493846248</v>
       </c>
-      <c r="J15" s="81">
+      <c r="J15" s="65">
         <v>0.87181490728211763</v>
       </c>
-      <c r="K15" s="81">
+      <c r="K15" s="65">
         <v>0.1225544217838834</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="85">
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B16" s="68">
         <v>2.5</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="68">
+        <v>2</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E16">
-        <v>2</v>
+      <c r="E16" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F16">
         <v>0.5</v>
       </c>
-      <c r="H16" s="81">
+      <c r="G16">
+        <v>3.6749999999999994</v>
+      </c>
+      <c r="H16" s="65">
         <v>5.7922446464910481E-2</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="65">
         <v>18.968905526651785</v>
       </c>
-      <c r="J16" s="81">
+      <c r="J16" s="65">
         <v>0.7087724647900745</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K16" s="65">
         <v>0.40063032689045719</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="85">
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B17" s="68">
         <v>2.6</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="68">
+        <v>2</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E17">
-        <v>3</v>
+      <c r="E17" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F17">
         <v>2.75</v>
       </c>
-      <c r="H17" s="81">
+      <c r="G17">
+        <v>4.2599999999999989</v>
+      </c>
+      <c r="H17" s="65">
         <v>5.1154715008494674E-2</v>
       </c>
-      <c r="I17" s="81">
+      <c r="I17" s="65">
         <v>17.84252994363041</v>
       </c>
-      <c r="J17" s="81">
+      <c r="J17" s="65">
         <v>0.74803224638371668</v>
       </c>
-      <c r="K17" s="81">
+      <c r="K17" s="65">
         <v>0.22172219546415931</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="85">
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B18" s="68">
         <v>2.7</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="68">
+        <v>2</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E18">
-        <v>3</v>
+      <c r="E18" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F18">
         <v>0.5</v>
       </c>
-      <c r="H18" s="81">
+      <c r="G18">
+        <v>2.4</v>
+      </c>
+      <c r="H18" s="65">
         <v>0.10123592778597165</v>
       </c>
-      <c r="I18" s="81">
+      <c r="I18" s="65">
         <v>24.286694518513372</v>
       </c>
-      <c r="J18" s="81">
+      <c r="J18" s="65">
         <v>1.1875131024756531</v>
       </c>
-      <c r="K18" s="81">
+      <c r="K18" s="65">
         <v>0.46476032919397736</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="85">
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B19" s="68">
         <v>2.8</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="68">
+        <v>2</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19" s="83">
+      <c r="E19" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19">
         <v>0.75</v>
       </c>
-      <c r="H19" s="81">
+      <c r="G19">
+        <v>2.3307692307692309</v>
+      </c>
+      <c r="H19" s="65">
         <v>0.16909993839030674</v>
       </c>
-      <c r="I19" s="81">
+      <c r="I19" s="65">
         <v>23.226555375087941</v>
       </c>
-      <c r="J19" s="81">
+      <c r="J19" s="65">
         <v>1.1661679785024108</v>
       </c>
-      <c r="K19" s="81">
+      <c r="K19" s="65">
         <v>0.54212929030636825</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="85">
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B20" s="68">
         <v>2.9</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="68">
+        <v>2</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E20">
-        <v>4</v>
+      <c r="E20" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="F20">
         <v>0.5</v>
       </c>
-      <c r="H20" s="81">
+      <c r="G20">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="H20" s="65">
         <v>8.1492821537255206E-2</v>
       </c>
-      <c r="I20" s="81">
+      <c r="I20" s="65">
         <v>19.503426471993258</v>
       </c>
-      <c r="J20" s="81">
+      <c r="J20" s="65">
         <v>0.75289207371691025</v>
       </c>
-      <c r="K20" s="81">
+      <c r="K20" s="65">
         <v>0.12759198374971206</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="85">
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B21" s="68">
         <v>3.1</v>
       </c>
-      <c r="D21" s="82">
+      <c r="C21" s="68">
+        <v>3</v>
+      </c>
+      <c r="D21" s="66">
         <v>44074</v>
       </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="E21" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
-      <c r="H21" s="81">
+      <c r="G21">
+        <v>2.5500000000000003</v>
+      </c>
+      <c r="H21" s="65">
         <v>5.1528107088848647E-2</v>
       </c>
-      <c r="I21" s="81">
+      <c r="I21" s="65">
         <v>19.540461900584543</v>
       </c>
-      <c r="J21" s="81">
+      <c r="J21" s="65">
         <v>1.0370490366106992</v>
       </c>
-      <c r="K21" s="90">
+      <c r="K21" s="65">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="85">
+      <c r="L21" s="86">
+        <v>6318600</v>
+      </c>
+      <c r="M21" s="86">
+        <v>67933.333333333343</v>
+      </c>
+      <c r="N21" s="86">
+        <v>1518700</v>
+      </c>
+      <c r="O21" s="86">
+        <v>366416.66666666669</v>
+      </c>
+      <c r="P21" s="86">
+        <v>349666.66666666669</v>
+      </c>
+      <c r="Q21" s="86">
+        <v>12333.333333333334</v>
+      </c>
+      <c r="R21" s="88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B22" s="68">
         <v>3.2</v>
       </c>
-      <c r="D22" s="82">
+      <c r="C22" s="68">
+        <v>3</v>
+      </c>
+      <c r="D22" s="66">
         <v>44074</v>
       </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="E22" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="F22">
         <v>0.5</v>
       </c>
-      <c r="H22" s="81">
+      <c r="G22">
+        <v>3.2700000000000005</v>
+      </c>
+      <c r="H22" s="65">
         <v>5.6848944233892799E-2</v>
       </c>
-      <c r="I22" s="81">
+      <c r="I22" s="65">
         <v>17.418759174172479</v>
       </c>
-      <c r="J22" s="81">
+      <c r="J22" s="65">
         <v>0.79177069238245879</v>
       </c>
-      <c r="K22" s="90">
+      <c r="K22" s="65">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="85">
+      <c r="L22" s="86">
+        <v>6339433.333333334</v>
+      </c>
+      <c r="M22" s="86">
+        <v>50033.333333333336</v>
+      </c>
+      <c r="N22" s="86">
+        <v>1804333.3333333335</v>
+      </c>
+      <c r="O22" s="86">
+        <v>286566.66666666669</v>
+      </c>
+      <c r="P22" s="86">
+        <v>246900</v>
+      </c>
+      <c r="Q22" s="86">
+        <v>19933.333333333336</v>
+      </c>
+      <c r="R22" s="88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B23" s="68">
         <v>3.3</v>
       </c>
-      <c r="D23" s="82">
+      <c r="C23" s="68">
+        <v>3</v>
+      </c>
+      <c r="D23" s="66">
         <v>44074</v>
       </c>
-      <c r="E23">
-        <v>2</v>
+      <c r="E23" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F23">
         <v>7.5</v>
       </c>
-      <c r="H23" s="81">
+      <c r="G23">
+        <v>1.575</v>
+      </c>
+      <c r="H23" s="65">
         <v>0.19509736198495231</v>
       </c>
-      <c r="I23" s="81">
+      <c r="I23" s="65">
         <v>25.409152892741439</v>
       </c>
-      <c r="J23" s="81">
+      <c r="J23" s="65">
         <v>5.6672257056278701</v>
       </c>
-      <c r="K23" s="81">
+      <c r="K23" s="65">
         <v>4.6726237095051619</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="85">
+      <c r="L23" s="86">
+        <v>7871466.666666667</v>
+      </c>
+      <c r="M23" s="86">
+        <v>61950</v>
+      </c>
+      <c r="N23" s="86">
+        <v>946383.33333333337</v>
+      </c>
+      <c r="O23" s="86">
+        <v>328833.33333333337</v>
+      </c>
+      <c r="P23" s="86">
+        <v>192883.33333333334</v>
+      </c>
+      <c r="Q23" s="86">
+        <v>11566.666666666668</v>
+      </c>
+      <c r="R23" s="88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B24" s="68">
         <v>3.4</v>
       </c>
-      <c r="D24" s="82">
+      <c r="C24" s="68">
+        <v>3</v>
+      </c>
+      <c r="D24" s="66">
         <v>44074</v>
       </c>
-      <c r="E24">
-        <v>2</v>
+      <c r="E24" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
-      <c r="H24" s="81">
+      <c r="G24">
+        <v>5.8950000000000005</v>
+      </c>
+      <c r="H24" s="65">
         <v>0.13740828557026305</v>
       </c>
-      <c r="I24" s="81">
+      <c r="I24" s="65">
         <v>22.639686275872251</v>
       </c>
-      <c r="J24" s="81">
+      <c r="J24" s="65">
         <v>1.1984715366583447</v>
       </c>
-      <c r="K24" s="81">
+      <c r="K24" s="65">
         <v>2.610996345854396E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="85">
+      <c r="L24" s="86">
+        <v>7039000</v>
+      </c>
+      <c r="M24" s="86">
+        <v>53650</v>
+      </c>
+      <c r="N24" s="86">
+        <v>1760550</v>
+      </c>
+      <c r="O24" s="86">
+        <v>384266.66666666669</v>
+      </c>
+      <c r="P24" s="86">
+        <v>182800</v>
+      </c>
+      <c r="Q24" s="86">
+        <v>15850</v>
+      </c>
+      <c r="R24" s="88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B25" s="68">
         <v>3.5</v>
       </c>
-      <c r="D25" s="82">
+      <c r="C25" s="68">
+        <v>3</v>
+      </c>
+      <c r="D25" s="66">
         <v>44074</v>
       </c>
-      <c r="E25">
-        <v>2</v>
+      <c r="E25" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F25">
         <v>0.5</v>
       </c>
-      <c r="H25" s="81">
+      <c r="G25">
+        <v>1.4654999999999998</v>
+      </c>
+      <c r="H25" s="65">
         <v>7.1784627448051835E-2</v>
       </c>
-      <c r="I25" s="81">
+      <c r="I25" s="65">
         <v>20.609503791267489</v>
       </c>
-      <c r="J25" s="81">
+      <c r="J25" s="65">
         <v>1.1533990204112747</v>
       </c>
-      <c r="K25" s="81">
+      <c r="K25" s="65">
         <v>0.22190438297070339</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="85">
+      <c r="L25" s="86">
+        <v>6885800</v>
+      </c>
+      <c r="M25" s="86">
+        <v>51916.666666666672</v>
+      </c>
+      <c r="N25" s="86">
+        <v>1897200</v>
+      </c>
+      <c r="O25" s="86">
+        <v>354833.33333333337</v>
+      </c>
+      <c r="P25" s="86">
+        <v>147883.33333333334</v>
+      </c>
+      <c r="Q25" s="86">
+        <v>22000</v>
+      </c>
+      <c r="R25" s="88" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B26" s="68">
         <v>3.6</v>
       </c>
-      <c r="D26" s="82">
+      <c r="C26" s="68">
+        <v>3</v>
+      </c>
+      <c r="D26" s="66">
         <v>44074</v>
       </c>
-      <c r="E26">
-        <v>3</v>
+      <c r="E26" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F26">
         <v>2.75</v>
       </c>
-      <c r="H26" s="81">
+      <c r="G26">
+        <v>2.4599999999999995</v>
+      </c>
+      <c r="H26" s="65">
         <v>6.2076433358848458E-2</v>
       </c>
-      <c r="I26" s="81">
+      <c r="I26" s="65">
         <v>19.427218955468891</v>
       </c>
-      <c r="J26" s="81">
+      <c r="J26" s="65">
         <v>0.92489184501915334</v>
       </c>
-      <c r="K26" s="81">
+      <c r="K26" s="65">
         <v>7.4393231838837351E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="85">
+      <c r="L26" s="86">
+        <v>7084033.333333334</v>
+      </c>
+      <c r="M26" s="86">
+        <v>55450</v>
+      </c>
+      <c r="N26" s="86">
+        <v>1810100</v>
+      </c>
+      <c r="O26" s="86">
+        <v>408900</v>
+      </c>
+      <c r="P26" s="86">
+        <v>92633.333333333343</v>
+      </c>
+      <c r="Q26" s="86">
+        <v>16633.333333333336</v>
+      </c>
+      <c r="R26" s="88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B27" s="68">
         <v>3.7</v>
       </c>
-      <c r="D27" s="82">
+      <c r="C27" s="68">
+        <v>3</v>
+      </c>
+      <c r="D27" s="66">
         <v>44074</v>
       </c>
-      <c r="E27">
-        <v>3</v>
+      <c r="E27" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F27">
         <v>0.5</v>
       </c>
-      <c r="H27" s="81">
+      <c r="G27">
+        <v>3.0600000000000005</v>
+      </c>
+      <c r="H27" s="65">
         <v>6.0442843007299817E-2</v>
       </c>
-      <c r="I27" s="81">
+      <c r="I27" s="65">
         <v>16.942284140950033</v>
       </c>
-      <c r="J27" s="81">
+      <c r="J27" s="65">
         <v>0.897162242000343</v>
       </c>
-      <c r="K27" s="81">
+      <c r="K27" s="65">
         <v>0.15194438045777228</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="85">
+      <c r="L27" s="86">
+        <v>6566066.666666667</v>
+      </c>
+      <c r="M27" s="86">
+        <v>52566.666666666672</v>
+      </c>
+      <c r="N27" s="86">
+        <v>1846866.6666666667</v>
+      </c>
+      <c r="O27" s="86">
+        <v>372216.66666666669</v>
+      </c>
+      <c r="P27" s="86">
+        <v>110083.33333333334</v>
+      </c>
+      <c r="Q27" s="86">
+        <v>21483.333333333336</v>
+      </c>
+      <c r="R27" s="88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B28" s="68">
         <v>3.8</v>
       </c>
-      <c r="D28" s="82">
+      <c r="C28" s="68">
+        <v>3</v>
+      </c>
+      <c r="D28" s="66">
         <v>44074</v>
       </c>
-      <c r="E28">
-        <v>4</v>
+      <c r="E28" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="F28">
         <v>0.5</v>
       </c>
-      <c r="H28" s="81">
+      <c r="G28">
+        <v>3.8222222222222224</v>
+      </c>
+      <c r="H28" s="65">
         <v>6.641711629296343E-2</v>
       </c>
-      <c r="I28" s="81">
+      <c r="I28" s="65">
         <v>22.266483110837033</v>
       </c>
-      <c r="J28" s="81">
+      <c r="J28" s="65">
         <v>1.3468392064187837</v>
       </c>
-      <c r="K28" s="81">
+      <c r="K28" s="65">
         <v>0.18091219399828282</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="85">
+      <c r="L28" s="86">
+        <v>6450033.333333334</v>
+      </c>
+      <c r="M28" s="86">
+        <v>50633.333333333336</v>
+      </c>
+      <c r="N28" s="86">
+        <v>1819600</v>
+      </c>
+      <c r="O28" s="86">
+        <v>367633.33333333337</v>
+      </c>
+      <c r="P28" s="86">
+        <v>109983.33333333334</v>
+      </c>
+      <c r="Q28" s="86">
+        <v>21400</v>
+      </c>
+      <c r="R28" s="88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B29" s="68">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="C29" s="68">
+        <v>4</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="E29" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
-      <c r="H29" s="81">
+      <c r="G29">
+        <v>8.25</v>
+      </c>
+      <c r="H29" s="65">
         <v>8.1268111636240647E-2</v>
       </c>
-      <c r="I29" s="81">
+      <c r="I29" s="65">
         <v>8.1647033884675349</v>
       </c>
-      <c r="J29" s="81">
+      <c r="J29" s="65">
         <v>1.3841096989875561</v>
       </c>
-      <c r="K29" s="81">
+      <c r="K29" s="65">
         <v>1.199121934243226</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="85">
+      <c r="L29" s="86">
+        <v>5190583.333333334</v>
+      </c>
+      <c r="M29" s="86">
+        <v>74183.333333333343</v>
+      </c>
+      <c r="N29" s="86">
+        <v>331850</v>
+      </c>
+      <c r="O29" s="86">
+        <v>73533.333333333343</v>
+      </c>
+      <c r="P29" s="86">
+        <v>92866.666666666672</v>
+      </c>
+      <c r="Q29" s="86">
+        <v>8766.6666666666679</v>
+      </c>
+      <c r="R29" s="88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B30" s="68">
         <v>4.2</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="68">
+        <v>4</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="E30" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="F30">
         <v>0.5</v>
       </c>
-      <c r="H30" s="81">
+      <c r="G30">
+        <v>1.89</v>
+      </c>
+      <c r="H30" s="65">
         <v>2.6812054645304E-2</v>
       </c>
-      <c r="I30" s="81">
+      <c r="I30" s="65">
         <v>0.92567666260810588</v>
       </c>
-      <c r="J30" s="81">
+      <c r="J30" s="65">
         <v>0.79253956256790592</v>
       </c>
-      <c r="K30" s="81">
+      <c r="K30" s="65">
         <v>1.0305939882835331</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="85">
+      <c r="L30" s="86">
+        <v>5011566.666666667</v>
+      </c>
+      <c r="M30" s="86">
+        <v>42950</v>
+      </c>
+      <c r="N30" s="86">
+        <v>492283.33333333337</v>
+      </c>
+      <c r="O30" s="86">
+        <v>111100</v>
+      </c>
+      <c r="P30" s="86">
+        <v>76083.333333333343</v>
+      </c>
+      <c r="Q30" s="86">
+        <v>12883.333333333334</v>
+      </c>
+      <c r="R30" s="88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B31" s="68">
         <v>4.3</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="C31" s="68">
+        <v>4</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E31">
-        <v>2</v>
+      <c r="E31" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F31">
         <v>7.5</v>
       </c>
-      <c r="H31" s="81">
+      <c r="G31">
+        <v>5.6142857142857148</v>
+      </c>
+      <c r="H31" s="65">
         <v>0.20800208777742474</v>
       </c>
-      <c r="I31" s="81">
+      <c r="I31" s="65">
         <v>20.200229592549682</v>
       </c>
-      <c r="J31" s="81">
+      <c r="J31" s="65">
         <v>1.362429495961075</v>
       </c>
-      <c r="K31" s="81">
+      <c r="K31" s="65">
         <v>12.454265177643233</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="85">
+      <c r="L31" s="86">
+        <v>5380016.666666667</v>
+      </c>
+      <c r="M31" s="86">
+        <v>52266.666666666672</v>
+      </c>
+      <c r="N31" s="86">
+        <v>202683.33333333334</v>
+      </c>
+      <c r="O31" s="86">
+        <v>59800</v>
+      </c>
+      <c r="P31" s="86">
+        <v>146466.66666666669</v>
+      </c>
+      <c r="Q31" s="86">
+        <v>5783.3333333333339</v>
+      </c>
+      <c r="R31" s="88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B32" s="68">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="C32" s="68">
+        <v>4</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E32">
-        <v>2</v>
+      <c r="E32" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F32">
         <v>4</v>
       </c>
-      <c r="H32" s="81">
+      <c r="G32">
+        <v>5.1150000000000002</v>
+      </c>
+      <c r="H32" s="65">
         <v>3.8083783415785E-2</v>
       </c>
-      <c r="I32" s="81">
+      <c r="I32" s="65">
         <v>4.1769602769031682</v>
       </c>
-      <c r="J32" s="81">
+      <c r="J32" s="65">
         <v>1.4485932259435967</v>
       </c>
-      <c r="K32" s="81">
+      <c r="K32" s="65">
         <v>1.3698361211623664</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B33" s="85">
+      <c r="L32" s="86">
+        <v>5294200</v>
+      </c>
+      <c r="M32" s="86">
+        <v>43966.666666666672</v>
+      </c>
+      <c r="N32" s="86">
+        <v>408700</v>
+      </c>
+      <c r="O32" s="86">
+        <v>42733.333333333336</v>
+      </c>
+      <c r="P32" s="86">
+        <v>82000</v>
+      </c>
+      <c r="Q32" s="86">
+        <v>10166.666666666668</v>
+      </c>
+      <c r="R32" s="88" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B33" s="68">
         <v>4.5</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="C33" s="68">
+        <v>4</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E33">
-        <v>2</v>
+      <c r="E33" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F33">
         <v>0.5</v>
       </c>
-      <c r="H33" s="81">
+      <c r="G33">
+        <v>0.87450000000000017</v>
+      </c>
+      <c r="H33" s="65">
         <v>3.934598102845728E-2</v>
       </c>
-      <c r="I33" s="81">
+      <c r="I33" s="65">
         <v>1.7472319965745675</v>
       </c>
-      <c r="J33" s="81">
+      <c r="J33" s="65">
         <v>1.3419278189805848</v>
       </c>
-      <c r="K33" s="81">
+      <c r="K33" s="65">
         <v>2.661654672086164</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B34" s="85">
+      <c r="L33" s="86">
+        <v>4841383.333333334</v>
+      </c>
+      <c r="M33" s="86">
+        <v>34216.666666666672</v>
+      </c>
+      <c r="N33" s="86">
+        <v>294966.66666666669</v>
+      </c>
+      <c r="O33" s="86">
+        <v>132900</v>
+      </c>
+      <c r="P33" s="86">
+        <v>64583.333333333336</v>
+      </c>
+      <c r="Q33" s="86">
+        <v>10700</v>
+      </c>
+      <c r="R33" s="88" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B34" s="68">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="C34" s="68">
+        <v>4</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E34">
-        <v>3</v>
+      <c r="E34" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F34">
         <v>2.75</v>
       </c>
-      <c r="H34" s="81">
+      <c r="G34">
+        <v>0.42250000000000004</v>
+      </c>
+      <c r="H34" s="65">
         <v>7.2160395769981359E-2</v>
       </c>
-      <c r="I34" s="81">
+      <c r="I34" s="65">
         <v>5.8934055683312039</v>
       </c>
-      <c r="J34" s="81">
+      <c r="J34" s="65">
         <v>1.349769474231187</v>
       </c>
-      <c r="K34" s="81">
+      <c r="K34" s="65">
         <v>0.4611094503611759</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B35" s="85">
+      <c r="L34" s="86">
+        <v>4522966.666666667</v>
+      </c>
+      <c r="M34" s="86">
+        <v>33083.333333333336</v>
+      </c>
+      <c r="N34" s="86">
+        <v>322566.66666666669</v>
+      </c>
+      <c r="O34" s="86">
+        <v>30566.666666666668</v>
+      </c>
+      <c r="P34" s="86">
+        <v>41483.333333333336</v>
+      </c>
+      <c r="Q34" s="86">
+        <v>7983.3333333333339</v>
+      </c>
+      <c r="R34" s="88" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B35" s="68">
         <v>4.7</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="C35" s="68">
+        <v>4</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E35">
-        <v>3</v>
+      <c r="E35" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F35">
         <v>0.5</v>
       </c>
-      <c r="H35" s="81">
+      <c r="G35">
+        <v>0.11299999999999999</v>
+      </c>
+      <c r="H35" s="65">
         <v>4.4565424590387107E-2</v>
       </c>
-      <c r="I35" s="81">
+      <c r="I35" s="65">
         <v>2.3131539024142018</v>
       </c>
-      <c r="J35" s="81">
+      <c r="J35" s="65">
         <v>1.1483428598422221</v>
       </c>
-      <c r="K35" s="81">
+      <c r="K35" s="65">
         <v>1.0131040606079535</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" s="85">
+      <c r="L35" s="86">
+        <v>4902783.333333334</v>
+      </c>
+      <c r="M35" s="86">
+        <v>35333.333333333336</v>
+      </c>
+      <c r="N35" s="86">
+        <v>292400</v>
+      </c>
+      <c r="O35" s="86">
+        <v>84133.333333333343</v>
+      </c>
+      <c r="P35" s="86">
+        <v>59033.333333333336</v>
+      </c>
+      <c r="Q35" s="86">
+        <v>9233.3333333333339</v>
+      </c>
+      <c r="R35" s="88" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B36" s="68">
         <v>4.8</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="C36" s="68">
+        <v>4</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E36">
-        <v>4</v>
+      <c r="E36" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="F36">
         <v>0.5</v>
       </c>
-      <c r="H36" s="81">
+      <c r="G36">
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="H36" s="65">
         <v>7.1570371715154499E-2</v>
       </c>
-      <c r="I36" s="81">
+      <c r="I36" s="65">
         <v>2.7627432747750293</v>
       </c>
-      <c r="J36" s="81">
+      <c r="J36" s="65">
         <v>1.2424427228494495</v>
       </c>
-      <c r="K36" s="81">
+      <c r="K36" s="65">
         <v>1.835942693716565</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B37" s="85">
+      <c r="L36" s="86">
+        <v>4843850</v>
+      </c>
+      <c r="M36" s="86">
+        <v>37633.333333333336</v>
+      </c>
+      <c r="N36" s="86">
+        <v>112050</v>
+      </c>
+      <c r="O36" s="86">
+        <v>222700</v>
+      </c>
+      <c r="P36" s="86">
+        <v>88600</v>
+      </c>
+      <c r="Q36" s="86">
+        <v>9350</v>
+      </c>
+      <c r="R36" s="88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B37" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="C37" s="68">
+        <v>5</v>
+      </c>
+      <c r="D37" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E37">
-        <v>1</v>
+      <c r="E37" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B38" s="85">
+      <c r="L37" s="86">
+        <v>4884383.333333334</v>
+      </c>
+      <c r="M37" s="86">
+        <v>159716.66666666669</v>
+      </c>
+      <c r="N37" s="86">
+        <v>497833.33333333337</v>
+      </c>
+      <c r="O37" s="86">
+        <v>50833.333333333336</v>
+      </c>
+      <c r="P37" s="86">
+        <v>55983.333333333336</v>
+      </c>
+      <c r="Q37" s="86">
+        <v>57900</v>
+      </c>
+      <c r="R37" s="88" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B38" s="68">
         <v>5.2</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="C38" s="68">
+        <v>5</v>
+      </c>
+      <c r="D38" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E38">
-        <v>1</v>
+      <c r="E38" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="F38">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B39" s="85">
+      <c r="L38" s="86">
+        <v>4640233.333333334</v>
+      </c>
+      <c r="M38" s="86">
+        <v>142633.33333333334</v>
+      </c>
+      <c r="N38" s="86">
+        <v>464333.33333333337</v>
+      </c>
+      <c r="O38" s="86">
+        <v>26983.333333333336</v>
+      </c>
+      <c r="P38" s="86">
+        <v>40183.333333333336</v>
+      </c>
+      <c r="Q38" s="86">
+        <v>53950</v>
+      </c>
+      <c r="R38" s="88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B39" s="68">
         <v>5.3</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="C39" s="68">
+        <v>5</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E39">
-        <v>2</v>
+      <c r="E39" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F39">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B40" s="85">
+      <c r="L39" s="86">
+        <v>4806166.666666667</v>
+      </c>
+      <c r="M39" s="86">
+        <v>161933.33333333334</v>
+      </c>
+      <c r="N39" s="86">
+        <v>503583.33333333337</v>
+      </c>
+      <c r="O39" s="86">
+        <v>53450</v>
+      </c>
+      <c r="P39" s="86">
+        <v>57000</v>
+      </c>
+      <c r="Q39" s="86">
+        <v>75033.333333333343</v>
+      </c>
+      <c r="R39" s="88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B40" s="68">
         <v>5.4</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="C40" s="68">
+        <v>5</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E40">
-        <v>2</v>
+      <c r="E40" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B41" s="85">
+      <c r="L40" s="86">
+        <v>4779266.666666667</v>
+      </c>
+      <c r="M40" s="86">
+        <v>156000</v>
+      </c>
+      <c r="N40" s="86">
+        <v>465766.66666666669</v>
+      </c>
+      <c r="O40" s="86">
+        <v>32750</v>
+      </c>
+      <c r="P40" s="86">
+        <v>49750</v>
+      </c>
+      <c r="Q40" s="86">
+        <v>64750</v>
+      </c>
+      <c r="R40" s="88" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B41" s="68">
         <v>5.5</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="68">
+        <v>5</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E41">
-        <v>2</v>
+      <c r="E41" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="F41">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B42" s="85">
+      <c r="L41" s="86">
+        <v>4518700</v>
+      </c>
+      <c r="M41" s="86">
+        <v>150366.66666666669</v>
+      </c>
+      <c r="N41" s="86">
+        <v>426166.66666666669</v>
+      </c>
+      <c r="O41" s="86">
+        <v>28700</v>
+      </c>
+      <c r="P41" s="86">
+        <v>40833.333333333336</v>
+      </c>
+      <c r="Q41" s="86">
+        <v>55950</v>
+      </c>
+      <c r="R41" s="88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B42" s="68">
         <v>5.6</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="68">
+        <v>5</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E42">
-        <v>3</v>
+      <c r="E42" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F42">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B43" s="85">
+      <c r="L42" s="86">
+        <v>4391250</v>
+      </c>
+      <c r="M42" s="86">
+        <v>122633.33333333334</v>
+      </c>
+      <c r="N42" s="86">
+        <v>395633.33333333337</v>
+      </c>
+      <c r="O42" s="86">
+        <v>26750</v>
+      </c>
+      <c r="P42" s="86">
+        <v>39033.333333333336</v>
+      </c>
+      <c r="Q42" s="86">
+        <v>48166.666666666672</v>
+      </c>
+      <c r="R42" s="88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B43" s="68">
         <v>5.7</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="C43" s="68">
+        <v>5</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E43">
-        <v>3</v>
+      <c r="E43" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="F43">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B44" s="85">
+      <c r="L43" s="86">
+        <v>4476066.666666667</v>
+      </c>
+      <c r="M43" s="86">
+        <v>128250</v>
+      </c>
+      <c r="N43" s="86">
+        <v>403866.66666666669</v>
+      </c>
+      <c r="O43" s="86">
+        <v>27533.333333333336</v>
+      </c>
+      <c r="P43" s="86">
+        <v>36900</v>
+      </c>
+      <c r="Q43" s="86">
+        <v>53116.666666666672</v>
+      </c>
+      <c r="R43" s="88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B44" s="68">
         <v>5.8</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="C44" s="68">
+        <v>5</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E44">
-        <v>4</v>
+      <c r="E44" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="F44">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B48" s="84" t="s">
+      <c r="L44" s="86">
+        <v>4626883.333333334</v>
+      </c>
+      <c r="M44" s="86">
+        <v>134816.66666666669</v>
+      </c>
+      <c r="N44" s="86">
+        <v>443466.66666666669</v>
+      </c>
+      <c r="O44" s="86">
+        <v>25800</v>
+      </c>
+      <c r="P44" s="86">
+        <v>36550</v>
+      </c>
+      <c r="Q44" s="86">
+        <v>52116.666666666672</v>
+      </c>
+      <c r="R44" s="88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B48" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="84"/>
-      <c r="D48" s="21" t="s">
+      <c r="C48" s="67"/>
+      <c r="D48" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="84"/>
+      <c r="C49" s="67"/>
       <c r="D49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50" s="84" t="s">
+      <c r="B50" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="84"/>
+      <c r="C50" s="67"/>
       <c r="D50">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B51" s="84" t="s">
+      <c r="B51" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="84"/>
+      <c r="C51" s="67"/>
       <c r="D51">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B52" s="84" t="s">
+      <c r="B52" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="84"/>
+      <c r="C52" s="67"/>
       <c r="D52">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B53" s="84" t="s">
+      <c r="B53" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="84"/>
+      <c r="C53" s="67"/>
       <c r="D53">
         <v>5</v>
       </c>
@@ -2758,11 +3873,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2777,7 +3892,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2812,1086 +3927,1086 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D10" s="68"/>
+      <c r="D10" s="64"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="73" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="48">
         <f>'Nutrient Final Data umoleL'!H4</f>
         <v>0.13600806526893566</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="48">
         <f>'Nutrient Final Data umoleL'!I4</f>
         <v>19.532627482997924</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="48">
         <f>'Nutrient Final Data umoleL'!J4</f>
         <v>0.35286158068266282</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="48">
         <f>'Nutrient Final Data umoleL'!K4</f>
         <v>0.55166376981550902</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="65">
+      <c r="F15" s="28"/>
+      <c r="G15" s="61">
         <f>'Chlorophyll a'!A10</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="63">
         <f>'Chlorophyll a'!H10</f>
         <v>2.0399999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>1.2</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="48">
         <f>'Nutrient Final Data umoleL'!H5</f>
         <v>0.17255381513358103</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="48">
         <f>'Nutrient Final Data umoleL'!I5</f>
         <v>27.425803201514771</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="48">
         <f>'Nutrient Final Data umoleL'!J5</f>
         <v>1.0698290484267501</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="48">
         <f>'Nutrient Final Data umoleL'!K5</f>
         <v>7.5972190228886141E-2</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="65">
+      <c r="F16" s="28"/>
+      <c r="G16" s="61">
         <f>'Chlorophyll a'!A11</f>
         <v>1.2</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="63">
         <f>'Chlorophyll a'!H11</f>
         <v>0.26750000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>1.3</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="48">
         <f>'Nutrient Final Data umoleL'!H6</f>
         <v>6.973097100610498E-2</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="48">
         <f>'Nutrient Final Data umoleL'!I6</f>
         <v>26.235327838239254</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="48">
         <f>'Nutrient Final Data umoleL'!J6</f>
         <v>0.9459510967963255</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="48">
         <f>'Nutrient Final Data umoleL'!K6</f>
         <v>3.2685653257386971</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="65">
+      <c r="F17" s="28"/>
+      <c r="G17" s="61">
         <f>'Chlorophyll a'!A12</f>
         <v>1.3</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="63">
         <f>'Chlorophyll a'!H12</f>
         <v>5.5949999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22">
+      <c r="A18" s="21">
         <v>1.4</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="48">
         <f>'Nutrient Final Data umoleL'!H7</f>
         <v>0.13656815338946662</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="48">
         <f>'Nutrient Final Data umoleL'!I7</f>
         <v>19.984887043679919</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="48">
         <f>'Nutrient Final Data umoleL'!J7</f>
         <v>0.99998094185359532</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="48">
         <f>'Nutrient Final Data umoleL'!K7</f>
         <v>1.0934286851087889</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="65">
+      <c r="F18" s="28"/>
+      <c r="G18" s="61">
         <f>'Chlorophyll a'!A13</f>
         <v>1.4</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="63">
         <f>'Chlorophyll a'!H13</f>
         <v>3.4499999999999997</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="22">
+      <c r="A19" s="21">
         <v>1.5</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="48">
         <f>'Nutrient Final Data umoleL'!H8</f>
         <v>5.7455706364468014E-2</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="48">
         <f>'Nutrient Final Data umoleL'!I8</f>
         <v>25.027759200229301</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="48">
         <f>'Nutrient Final Data umoleL'!J8</f>
         <v>1.163595128737779</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="48">
         <f>'Nutrient Final Data umoleL'!K8</f>
         <v>0.11344208740812095</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="61">
         <f>'Chlorophyll a'!A14</f>
         <v>1.5</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="63">
         <f>'Chlorophyll a'!H14</f>
         <v>2.58</v>
       </c>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="22">
+      <c r="A20" s="21">
         <v>1.6</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="48">
         <f>'Nutrient Final Data umoleL'!H9</f>
         <v>6.1236301178052018E-2</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="48">
         <f>'Nutrient Final Data umoleL'!I9</f>
         <v>23.857938210591229</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="48">
         <f>'Nutrient Final Data umoleL'!J9</f>
         <v>1.1957081054296659</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="48">
         <f>'Nutrient Final Data umoleL'!K9</f>
         <v>0.32313990744037024</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="61">
         <f>'Chlorophyll a'!A15</f>
         <v>1.6</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="63">
         <f>'Chlorophyll a'!H15</f>
         <v>2.415</v>
       </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="22">
+      <c r="A21" s="21">
         <v>1.7</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="48">
         <f>'Nutrient Final Data umoleL'!H10</f>
         <v>8.293971584862686E-2</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="48">
         <f>'Nutrient Final Data umoleL'!I10</f>
         <v>24.282421199829763</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="48">
         <f>'Nutrient Final Data umoleL'!J10</f>
         <v>1.60907930094719</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="48">
         <f>'Nutrient Final Data umoleL'!K10</f>
         <v>0.47799928800284797</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="61">
         <f>'Chlorophyll a'!A16</f>
         <v>1.7</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="63">
         <f>'Chlorophyll a'!H16</f>
         <v>2.7600000000000002</v>
       </c>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="22">
+      <c r="A22" s="21">
         <v>1.8</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="48">
         <f>'Nutrient Final Data umoleL'!H11</f>
         <v>6.7691871283983103</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="48">
         <f>'Nutrient Final Data umoleL'!I11</f>
         <v>791.89286243483036</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="48">
         <f>'Nutrient Final Data umoleL'!J11</f>
         <v>388.34916623364353</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="48">
         <f>'Nutrient Final Data umoleL'!K11</f>
         <v>10.237966201076372</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="61">
         <f>'Chlorophyll a'!A17</f>
         <v>1.8</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="22">
+      <c r="A23" s="21">
         <v>1.9</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="48">
         <f>'Nutrient Final Data umoleL'!H12</f>
         <v>4.9376389960513731E-2</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="48">
         <f>'Nutrient Final Data umoleL'!I12</f>
         <v>22.802570972520076</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="48">
         <f>'Nutrient Final Data umoleL'!J12</f>
         <v>1.6268727856771694</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="48">
         <f>'Nutrient Final Data umoleL'!K12</f>
         <v>0.29314368064819812</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="61">
         <f>'Chlorophyll a'!A18</f>
         <v>1.9</v>
       </c>
-      <c r="H23" s="67">
+      <c r="H23" s="63">
         <f>'Chlorophyll a'!H18</f>
         <v>1.7399999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B24" s="51">
+      <c r="B24" s="48">
         <f>'Nutrient Final Data umoleL'!H13</f>
         <v>0.1962642122360585</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="48">
         <f>'Nutrient Final Data umoleL'!I13</f>
         <v>12.546107545186871</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="48">
         <f>'Nutrient Final Data umoleL'!J13</f>
         <v>1.5739170208305542</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="48">
         <f>'Nutrient Final Data umoleL'!K13</f>
         <v>1.1989759805666658</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="22">
+      <c r="A25" s="21">
         <v>2.1</v>
       </c>
-      <c r="B25" s="51">
+      <c r="B25" s="48">
         <f>'Nutrient Final Data umoleL'!H14</f>
         <v>4.8774340496238071E-2</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="48">
         <f>'Nutrient Final Data umoleL'!I14</f>
         <v>19.549364647842062</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="48">
         <f>'Nutrient Final Data umoleL'!J14</f>
         <v>0.74593585027920173</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="48">
         <f>'Nutrient Final Data umoleL'!K14</f>
         <v>0.17575021464620025</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="61">
         <f>'Chlorophyll a'!A19</f>
         <v>2.1</v>
       </c>
-      <c r="H25" s="67" t="e">
+      <c r="H25" s="63">
         <f>'Chlorophyll a'!H19</f>
-        <v>#DIV/0!</v>
+        <v>5.7692307692307692</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="22">
+      <c r="A26" s="21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="48">
         <f>'Nutrient Final Data umoleL'!H15</f>
         <v>0.18384892556428878</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="48">
         <f>'Nutrient Final Data umoleL'!I15</f>
         <v>23.090877506883345</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="48">
         <f>'Nutrient Final Data umoleL'!J15</f>
         <v>1.1846543805149512</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="48">
         <f>'Nutrient Final Data umoleL'!K15</f>
         <v>0.50490230980252548</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="61">
         <f>'Chlorophyll a'!A20</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H26" s="67" t="e">
+      <c r="H26" s="63">
         <f>'Chlorophyll a'!H20</f>
-        <v>#DIV/0!</v>
+        <v>4.8239999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B27" s="51">
+      <c r="B27" s="48">
         <f>'Nutrient Final Data umoleL'!H16</f>
         <v>0.51486100479808816</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="48">
         <f>'Nutrient Final Data umoleL'!I16</f>
         <v>28.899742037469711</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="48">
         <f>'Nutrient Final Data umoleL'!J16</f>
         <v>0.92212841379047472</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="48">
         <f>'Nutrient Final Data umoleL'!K16</f>
         <v>5.717590517873222</v>
       </c>
-      <c r="G27" s="65">
+      <c r="G27" s="61">
         <f>'Chlorophyll a'!A21</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="H27" s="67" t="e">
+      <c r="H27" s="63">
         <f>'Chlorophyll a'!H21</f>
-        <v>#DIV/0!</v>
+        <v>5.2714285714285722</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="22">
+      <c r="A28" s="21">
         <v>2.4</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="48">
         <f>'Nutrient Final Data umoleL'!H17</f>
         <v>0.13932191998207719</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="48">
         <f>'Nutrient Final Data umoleL'!I17</f>
         <v>19.270174493846248</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="48">
         <f>'Nutrient Final Data umoleL'!J17</f>
         <v>0.87181490728211763</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="48">
         <f>'Nutrient Final Data umoleL'!K17</f>
         <v>0.1225544217838834</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="61">
         <f>'Chlorophyll a'!A22</f>
         <v>2.4</v>
       </c>
-      <c r="H28" s="67" t="e">
+      <c r="H28" s="63">
         <f>'Chlorophyll a'!H22</f>
-        <v>#DIV/0!</v>
+        <v>4.1307692307692312</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="22">
+      <c r="A29" s="21">
         <v>2.5</v>
       </c>
-      <c r="B29" s="51">
+      <c r="B29" s="48">
         <f>'Nutrient Final Data umoleL'!H18</f>
         <v>5.7922446464910481E-2</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="48">
         <f>'Nutrient Final Data umoleL'!I18</f>
         <v>18.968905526651785</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="48">
         <f>'Nutrient Final Data umoleL'!J18</f>
         <v>0.7087724647900745</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="48">
         <f>'Nutrient Final Data umoleL'!K18</f>
         <v>0.40063032689045719</v>
       </c>
-      <c r="G29" s="65">
+      <c r="G29" s="61">
         <f>'Chlorophyll a'!A23</f>
         <v>2.5</v>
       </c>
-      <c r="H29" s="67" t="e">
+      <c r="H29" s="63">
         <f>'Chlorophyll a'!H23</f>
-        <v>#DIV/0!</v>
+        <v>3.6749999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="22">
+      <c r="A30" s="21">
         <v>2.6</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="48">
         <f>'Nutrient Final Data umoleL'!H19</f>
         <v>5.1154715008494674E-2</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="48">
         <f>'Nutrient Final Data umoleL'!I19</f>
         <v>17.84252994363041</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="48">
         <f>'Nutrient Final Data umoleL'!J19</f>
         <v>0.74803224638371668</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="48">
         <f>'Nutrient Final Data umoleL'!K19</f>
         <v>0.22172219546415931</v>
       </c>
-      <c r="G30" s="65">
+      <c r="G30" s="61">
         <f>'Chlorophyll a'!A24</f>
         <v>2.6</v>
       </c>
-      <c r="H30" s="67" t="e">
+      <c r="H30" s="63">
         <f>'Chlorophyll a'!H24</f>
-        <v>#DIV/0!</v>
+        <v>4.2599999999999989</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="22">
+      <c r="A31" s="21">
         <v>2.7</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="48">
         <f>'Nutrient Final Data umoleL'!H20</f>
         <v>0.10123592778597165</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="48">
         <f>'Nutrient Final Data umoleL'!I20</f>
         <v>24.286694518513372</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="48">
         <f>'Nutrient Final Data umoleL'!J20</f>
         <v>1.1875131024756531</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="48">
         <f>'Nutrient Final Data umoleL'!K20</f>
         <v>0.46476032919397736</v>
       </c>
-      <c r="G31" s="65">
+      <c r="G31" s="61">
         <f>'Chlorophyll a'!A25</f>
         <v>2.7</v>
       </c>
-      <c r="H31" s="67" t="e">
+      <c r="H31" s="63">
         <f>'Chlorophyll a'!H25</f>
-        <v>#DIV/0!</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="22">
+      <c r="A32" s="21">
         <v>2.8</v>
       </c>
-      <c r="B32" s="51">
+      <c r="B32" s="48">
         <f>'Nutrient Final Data umoleL'!H21</f>
         <v>0.16909993839030674</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="48">
         <f>'Nutrient Final Data umoleL'!I21</f>
         <v>23.226555375087941</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="48">
         <f>'Nutrient Final Data umoleL'!J21</f>
         <v>1.1661679785024108</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="48">
         <f>'Nutrient Final Data umoleL'!K21</f>
         <v>0.54212929030636825</v>
       </c>
-      <c r="G32" s="65">
+      <c r="G32" s="61">
         <f>'Chlorophyll a'!A26</f>
         <v>2.8</v>
       </c>
-      <c r="H32" s="67" t="e">
+      <c r="H32" s="63">
         <f>'Chlorophyll a'!H26</f>
-        <v>#DIV/0!</v>
+        <v>2.3307692307692309</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="22">
+      <c r="A33" s="21">
         <v>2.9</v>
       </c>
-      <c r="B33" s="51">
+      <c r="B33" s="48">
         <f>'Nutrient Final Data umoleL'!H22</f>
         <v>8.1492821537255206E-2</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="48">
         <f>'Nutrient Final Data umoleL'!I22</f>
         <v>19.503426471993258</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="48">
         <f>'Nutrient Final Data umoleL'!J22</f>
         <v>0.75289207371691025</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="48">
         <f>'Nutrient Final Data umoleL'!K22</f>
         <v>0.12759198374971206</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="61">
         <f>'Chlorophyll a'!A27</f>
         <v>2.9</v>
       </c>
-      <c r="H33" s="67" t="e">
+      <c r="H33" s="63">
         <f>'Chlorophyll a'!H27</f>
-        <v>#DIV/0!</v>
+        <v>1.4850000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="22">
+      <c r="A34" s="21">
         <v>3.1</v>
       </c>
-      <c r="B34" s="51">
+      <c r="B34" s="48">
         <f>'Nutrient Final Data umoleL'!H23</f>
         <v>5.1528107088848647E-2</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="48">
         <f>'Nutrient Final Data umoleL'!I23</f>
         <v>19.540461900584543</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="48">
         <f>'Nutrient Final Data umoleL'!J23</f>
         <v>1.0370490366106992</v>
       </c>
-      <c r="E34" s="51" t="str">
+      <c r="E34" s="48" t="str">
         <f>'Nutrient Final Data umoleL'!K23</f>
         <v>&lt;0.02</v>
       </c>
-      <c r="G34" s="65">
+      <c r="G34" s="61">
         <f>'Chlorophyll a'!A28</f>
         <v>3.1</v>
       </c>
-      <c r="H34" s="67" t="e">
+      <c r="H34" s="63">
         <f>'Chlorophyll a'!H28</f>
-        <v>#DIV/0!</v>
+        <v>2.5500000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="22">
+      <c r="A35" s="21">
         <v>3.2</v>
       </c>
-      <c r="B35" s="51">
+      <c r="B35" s="48">
         <f>'Nutrient Final Data umoleL'!H24</f>
         <v>5.6848944233892799E-2</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="48">
         <f>'Nutrient Final Data umoleL'!I24</f>
         <v>17.418759174172479</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="48">
         <f>'Nutrient Final Data umoleL'!J24</f>
         <v>0.79177069238245879</v>
       </c>
-      <c r="E35" s="51" t="str">
+      <c r="E35" s="48" t="str">
         <f>'Nutrient Final Data umoleL'!K24</f>
         <v>&lt;0.02</v>
       </c>
-      <c r="G35" s="65">
+      <c r="G35" s="61">
         <f>'Chlorophyll a'!A29</f>
         <v>3.2</v>
       </c>
-      <c r="H35" s="67" t="e">
+      <c r="H35" s="63">
         <f>'Chlorophyll a'!H29</f>
-        <v>#DIV/0!</v>
+        <v>3.2700000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="22">
+      <c r="A36" s="21">
         <v>3.3</v>
       </c>
-      <c r="B36" s="51">
+      <c r="B36" s="48">
         <f>'Nutrient Final Data umoleL'!H25</f>
         <v>0.19509736198495231</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="48">
         <f>'Nutrient Final Data umoleL'!I25</f>
         <v>25.409152892741439</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="48">
         <f>'Nutrient Final Data umoleL'!J25</f>
         <v>5.6672257056278701</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="48">
         <f>'Nutrient Final Data umoleL'!K25</f>
         <v>4.6726237095051619</v>
       </c>
-      <c r="G36" s="65">
+      <c r="G36" s="61">
         <f>'Chlorophyll a'!A30</f>
         <v>3.3</v>
       </c>
-      <c r="H36" s="67" t="e">
+      <c r="H36" s="63">
         <f>'Chlorophyll a'!H30</f>
-        <v>#DIV/0!</v>
+        <v>1.575</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="22">
+      <c r="A37" s="21">
         <v>3.4</v>
       </c>
-      <c r="B37" s="51">
+      <c r="B37" s="48">
         <f>'Nutrient Final Data umoleL'!H26</f>
         <v>0.13740828557026305</v>
       </c>
-      <c r="C37" s="51">
+      <c r="C37" s="48">
         <f>'Nutrient Final Data umoleL'!I26</f>
         <v>22.639686275872251</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="48">
         <f>'Nutrient Final Data umoleL'!J26</f>
         <v>1.1984715366583447</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="48">
         <f>'Nutrient Final Data umoleL'!K26</f>
         <v>2.610996345854396E-2</v>
       </c>
-      <c r="G37" s="65">
+      <c r="G37" s="61">
         <f>'Chlorophyll a'!A31</f>
         <v>3.4</v>
       </c>
-      <c r="H37" s="67" t="e">
+      <c r="H37" s="63">
         <f>'Chlorophyll a'!H31</f>
-        <v>#DIV/0!</v>
+        <v>5.8950000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="22">
+      <c r="A38" s="21">
         <v>3.5</v>
       </c>
-      <c r="B38" s="51">
+      <c r="B38" s="48">
         <f>'Nutrient Final Data umoleL'!H27</f>
         <v>7.1784627448051835E-2</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="48">
         <f>'Nutrient Final Data umoleL'!I27</f>
         <v>20.609503791267489</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="48">
         <f>'Nutrient Final Data umoleL'!J27</f>
         <v>1.1533990204112747</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="48">
         <f>'Nutrient Final Data umoleL'!K27</f>
         <v>0.22190438297070339</v>
       </c>
-      <c r="G38" s="65">
+      <c r="G38" s="61">
         <f>'Chlorophyll a'!A32</f>
         <v>3.5</v>
       </c>
-      <c r="H38" s="67" t="e">
+      <c r="H38" s="63">
         <f>'Chlorophyll a'!H32</f>
-        <v>#DIV/0!</v>
+        <v>1.4654999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="22">
+      <c r="A39" s="21">
         <v>3.6</v>
       </c>
-      <c r="B39" s="51">
+      <c r="B39" s="48">
         <f>'Nutrient Final Data umoleL'!H28</f>
         <v>6.2076433358848458E-2</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="48">
         <f>'Nutrient Final Data umoleL'!I28</f>
         <v>19.427218955468891</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="48">
         <f>'Nutrient Final Data umoleL'!J28</f>
         <v>0.92489184501915334</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="48">
         <f>'Nutrient Final Data umoleL'!K28</f>
         <v>7.4393231838837351E-2</v>
       </c>
-      <c r="G39" s="65">
+      <c r="G39" s="61">
         <f>'Chlorophyll a'!A33</f>
         <v>3.6</v>
       </c>
-      <c r="H39" s="67" t="e">
+      <c r="H39" s="63">
         <f>'Chlorophyll a'!H33</f>
-        <v>#DIV/0!</v>
+        <v>2.4599999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="22">
+      <c r="A40" s="21">
         <v>3.7</v>
       </c>
-      <c r="B40" s="51">
+      <c r="B40" s="48">
         <f>'Nutrient Final Data umoleL'!H29</f>
         <v>6.0442843007299817E-2</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="48">
         <f>'Nutrient Final Data umoleL'!I29</f>
         <v>16.942284140950033</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="48">
         <f>'Nutrient Final Data umoleL'!J29</f>
         <v>0.897162242000343</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="48">
         <f>'Nutrient Final Data umoleL'!K29</f>
         <v>0.15194438045777228</v>
       </c>
-      <c r="G40" s="65">
+      <c r="G40" s="61">
         <f>'Chlorophyll a'!A34</f>
         <v>3.7</v>
       </c>
-      <c r="H40" s="67" t="e">
+      <c r="H40" s="63">
         <f>'Chlorophyll a'!H34</f>
-        <v>#DIV/0!</v>
+        <v>3.0600000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="22">
+      <c r="A41" s="21">
         <v>3.8</v>
       </c>
-      <c r="B41" s="51">
+      <c r="B41" s="48">
         <f>'Nutrient Final Data umoleL'!H30</f>
         <v>6.641711629296343E-2</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="48">
         <f>'Nutrient Final Data umoleL'!I30</f>
         <v>22.266483110837033</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="48">
         <f>'Nutrient Final Data umoleL'!J30</f>
         <v>1.3468392064187837</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="48">
         <f>'Nutrient Final Data umoleL'!K30</f>
         <v>0.18091219399828282</v>
       </c>
-      <c r="G41" s="65">
+      <c r="G41" s="61">
         <f>'Chlorophyll a'!A35</f>
         <v>3.8</v>
       </c>
-      <c r="H41" s="67" t="e">
+      <c r="H41" s="63">
         <f>'Chlorophyll a'!H35</f>
-        <v>#DIV/0!</v>
+        <v>3.8222222222222224</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="22">
+      <c r="A42" s="21">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B42" s="51">
+      <c r="B42" s="48">
         <f>'Nutrient Final Data umoleL'!H31</f>
         <v>8.1268111636240647E-2</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="48">
         <f>'Nutrient Final Data umoleL'!I31</f>
         <v>8.1647033884675349</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="48">
         <f>'Nutrient Final Data umoleL'!J31</f>
         <v>1.3841096989875561</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="48">
         <f>'Nutrient Final Data umoleL'!K31</f>
         <v>1.199121934243226</v>
       </c>
-      <c r="G42" s="65">
+      <c r="G42" s="61">
         <f>'Chlorophyll a'!A36</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="H42" s="67" t="e">
+      <c r="H42" s="63">
         <f>'Chlorophyll a'!H36</f>
-        <v>#DIV/0!</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="22">
+      <c r="A43" s="21">
         <v>4.2</v>
       </c>
-      <c r="B43" s="51">
+      <c r="B43" s="48">
         <f>'Nutrient Final Data umoleL'!H32</f>
         <v>2.6812054645304E-2</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="48">
         <f>'Nutrient Final Data umoleL'!I32</f>
         <v>0.92567666260810588</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="48">
         <f>'Nutrient Final Data umoleL'!J32</f>
         <v>0.79253956256790592</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="48">
         <f>'Nutrient Final Data umoleL'!K32</f>
         <v>1.0305939882835331</v>
       </c>
-      <c r="G43" s="65">
+      <c r="G43" s="61">
         <f>'Chlorophyll a'!A37</f>
         <v>4.2</v>
       </c>
-      <c r="H43" s="67" t="e">
+      <c r="H43" s="63">
         <f>'Chlorophyll a'!H37</f>
-        <v>#DIV/0!</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="22">
+      <c r="A44" s="21">
         <v>4.3</v>
       </c>
-      <c r="B44" s="51">
+      <c r="B44" s="48">
         <f>'Nutrient Final Data umoleL'!H33</f>
         <v>0.20800208777742474</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="48">
         <f>'Nutrient Final Data umoleL'!I33</f>
         <v>20.200229592549682</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="48">
         <f>'Nutrient Final Data umoleL'!J33</f>
         <v>1.362429495961075</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="48">
         <f>'Nutrient Final Data umoleL'!K33</f>
         <v>12.454265177643233</v>
       </c>
-      <c r="G44" s="65">
+      <c r="G44" s="61">
         <f>'Chlorophyll a'!A38</f>
         <v>4.3</v>
       </c>
-      <c r="H44" s="67" t="e">
+      <c r="H44" s="63">
         <f>'Chlorophyll a'!H38</f>
-        <v>#DIV/0!</v>
+        <v>5.6142857142857148</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="22">
+      <c r="A45" s="21">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B45" s="51">
+      <c r="B45" s="48">
         <f>'Nutrient Final Data umoleL'!H34</f>
         <v>3.8083783415785E-2</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="48">
         <f>'Nutrient Final Data umoleL'!I34</f>
         <v>4.1769602769031682</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="48">
         <f>'Nutrient Final Data umoleL'!J34</f>
         <v>1.4485932259435967</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="48">
         <f>'Nutrient Final Data umoleL'!K34</f>
         <v>1.3698361211623664</v>
       </c>
-      <c r="G45" s="65">
+      <c r="G45" s="61">
         <f>'Chlorophyll a'!A39</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="H45" s="67" t="e">
+      <c r="H45" s="63">
         <f>'Chlorophyll a'!H39</f>
-        <v>#DIV/0!</v>
+        <v>5.1150000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="22">
+      <c r="A46" s="21">
         <v>4.5</v>
       </c>
-      <c r="B46" s="51">
+      <c r="B46" s="48">
         <f>'Nutrient Final Data umoleL'!H35</f>
         <v>3.934598102845728E-2</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="48">
         <f>'Nutrient Final Data umoleL'!I35</f>
         <v>1.7472319965745675</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="48">
         <f>'Nutrient Final Data umoleL'!J35</f>
         <v>1.3419278189805848</v>
       </c>
-      <c r="E46" s="51">
+      <c r="E46" s="48">
         <f>'Nutrient Final Data umoleL'!K35</f>
         <v>2.661654672086164</v>
       </c>
-      <c r="G46" s="65">
+      <c r="G46" s="61">
         <f>'Chlorophyll a'!A40</f>
         <v>4.5</v>
       </c>
-      <c r="H46" s="67" t="e">
+      <c r="H46" s="63">
         <f>'Chlorophyll a'!H40</f>
-        <v>#DIV/0!</v>
+        <v>0.87450000000000017</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="22">
+      <c r="A47" s="21">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B47" s="51">
+      <c r="B47" s="48">
         <f>'Nutrient Final Data umoleL'!H36</f>
         <v>7.2160395769981359E-2</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="48">
         <f>'Nutrient Final Data umoleL'!I36</f>
         <v>5.8934055683312039</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="48">
         <f>'Nutrient Final Data umoleL'!J36</f>
         <v>1.349769474231187</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="48">
         <f>'Nutrient Final Data umoleL'!K36</f>
         <v>0.4611094503611759</v>
       </c>
-      <c r="G47" s="65">
+      <c r="G47" s="61">
         <f>'Chlorophyll a'!A41</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="H47" s="67" t="e">
+      <c r="H47" s="63">
         <f>'Chlorophyll a'!H41</f>
-        <v>#DIV/0!</v>
+        <v>0.42250000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="22">
+      <c r="A48" s="21">
         <v>4.7</v>
       </c>
-      <c r="B48" s="51">
+      <c r="B48" s="48">
         <f>'Nutrient Final Data umoleL'!H37</f>
         <v>4.4565424590387107E-2</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="48">
         <f>'Nutrient Final Data umoleL'!I37</f>
         <v>2.3131539024142018</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="48">
         <f>'Nutrient Final Data umoleL'!J37</f>
         <v>1.1483428598422221</v>
       </c>
-      <c r="E48" s="51">
+      <c r="E48" s="48">
         <f>'Nutrient Final Data umoleL'!K37</f>
         <v>1.0131040606079535</v>
       </c>
-      <c r="G48" s="65">
+      <c r="G48" s="61">
         <f>'Chlorophyll a'!A42</f>
         <v>4.7</v>
       </c>
-      <c r="H48" s="67" t="e">
+      <c r="H48" s="63">
         <f>'Chlorophyll a'!H42</f>
-        <v>#DIV/0!</v>
+        <v>0.11299999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="22">
+      <c r="A49" s="21">
         <v>4.8</v>
       </c>
-      <c r="B49" s="51">
+      <c r="B49" s="48">
         <f>'Nutrient Final Data umoleL'!H38</f>
         <v>7.1570371715154499E-2</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="48">
         <f>'Nutrient Final Data umoleL'!I38</f>
         <v>2.7627432747750293</v>
       </c>
-      <c r="D49" s="51">
+      <c r="D49" s="48">
         <f>'Nutrient Final Data umoleL'!J38</f>
         <v>1.2424427228494495</v>
       </c>
-      <c r="E49" s="51">
+      <c r="E49" s="48">
         <f>'Nutrient Final Data umoleL'!K38</f>
         <v>1.835942693716565</v>
       </c>
-      <c r="G49" s="65">
+      <c r="G49" s="61">
         <f>'Chlorophyll a'!A43</f>
         <v>4.8</v>
       </c>
-      <c r="H49" s="67" t="e">
+      <c r="H49" s="63">
         <f>'Chlorophyll a'!H43</f>
-        <v>#DIV/0!</v>
+        <v>0.40250000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3910,7 +5025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3919,7 +5034,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
@@ -3929,1543 +5044,1543 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="11" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="39">
+      <c r="A4" s="36">
         <f>'Nutrient Channels DATA'!A23</f>
         <v>396</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="54">
         <f>'Nutrient Channels DATA'!B23</f>
         <v>0.13600806526893566</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="54">
         <f>'Nutrient Channels DATA'!C23</f>
         <v>19.532627482997924</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="54">
         <f>'Nutrient Channels DATA'!D23</f>
         <v>0.35286158068266282</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="54">
         <f>'Nutrient Channels DATA'!E23</f>
         <v>0.55166376981550902</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="49">
         <f t="shared" ref="G4:G30" si="0">A4</f>
         <v>396</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <f t="shared" ref="H4:H10" si="1">IF(B4&gt;0.008,B4,IF(B4&lt;0.008,"&lt;0.008"))</f>
         <v>0.13600806526893566</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <f t="shared" ref="I4:I10" si="2">IF(C4&gt;0.065,C4,IF(C4&lt;0.065,"&lt;0.065"))</f>
         <v>19.532627482997924</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="18">
         <f t="shared" ref="J4:J10" si="3">IF(D4&gt;0.009,D4,IF(D4&lt;0.009,"&lt;0.009"))</f>
         <v>0.35286158068266282</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <f t="shared" ref="K4:K10" si="4">IF(E4&gt;0.02,E4,IF(E4&lt;0.02,"&lt;0.02"))</f>
         <v>0.55166376981550902</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="str">
+      <c r="A5" s="36" t="str">
         <f>'Nutrient Channels DATA'!A24</f>
         <v>367</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="54">
         <f>'Nutrient Channels DATA'!B24</f>
         <v>0.17255381513358103</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="54">
         <f>'Nutrient Channels DATA'!C24</f>
         <v>27.425803201514771</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="54">
         <f>'Nutrient Channels DATA'!D24</f>
         <v>1.0698290484267501</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="54">
         <f>'Nutrient Channels DATA'!E24</f>
         <v>7.5972190228886141E-2</v>
       </c>
-      <c r="G5" s="16" t="str">
+      <c r="G5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <f t="shared" si="1"/>
         <v>0.17255381513358103</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <f t="shared" si="2"/>
         <v>27.425803201514771</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="18">
         <f t="shared" si="3"/>
         <v>1.0698290484267501</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <f t="shared" si="4"/>
         <v>7.5972190228886141E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="str">
+      <c r="A6" s="36" t="str">
         <f>'Nutrient Channels DATA'!A25</f>
         <v>398</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="54">
         <f>'Nutrient Channels DATA'!B25</f>
         <v>6.973097100610498E-2</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="54">
         <f>'Nutrient Channels DATA'!C25</f>
         <v>26.235327838239254</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="54">
         <f>'Nutrient Channels DATA'!D25</f>
         <v>0.9459510967963255</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="54">
         <f>'Nutrient Channels DATA'!E25</f>
         <v>3.2685653257386971</v>
       </c>
-      <c r="G6" s="16" t="str">
+      <c r="G6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <f t="shared" si="1"/>
         <v>6.973097100610498E-2</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <f t="shared" si="2"/>
         <v>26.235327838239254</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="18">
         <f t="shared" si="3"/>
         <v>0.9459510967963255</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="18">
         <f t="shared" si="4"/>
         <v>3.2685653257386971</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="39" t="str">
+      <c r="A7" s="36" t="str">
         <f>'Nutrient Channels DATA'!A26</f>
         <v>399</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="54">
         <f>'Nutrient Channels DATA'!B26</f>
         <v>0.13656815338946662</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="54">
         <f>'Nutrient Channels DATA'!C26</f>
         <v>19.984887043679919</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="54">
         <f>'Nutrient Channels DATA'!D26</f>
         <v>0.99998094185359532</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="54">
         <f>'Nutrient Channels DATA'!E26</f>
         <v>1.0934286851087889</v>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <f t="shared" si="1"/>
         <v>0.13656815338946662</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <f t="shared" si="2"/>
         <v>19.984887043679919</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="18">
         <f t="shared" si="3"/>
         <v>0.99998094185359532</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <f t="shared" si="4"/>
         <v>1.0934286851087889</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="str">
+      <c r="A8" s="36" t="str">
         <f>'Nutrient Channels DATA'!A27</f>
         <v>400</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="54">
         <f>'Nutrient Channels DATA'!B27</f>
         <v>5.7455706364468014E-2</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="54">
         <f>'Nutrient Channels DATA'!C27</f>
         <v>25.027759200229301</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="54">
         <f>'Nutrient Channels DATA'!D27</f>
         <v>1.163595128737779</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="54">
         <f>'Nutrient Channels DATA'!E27</f>
         <v>0.11344208740812095</v>
       </c>
-      <c r="G8" s="16" t="str">
+      <c r="G8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <f t="shared" si="1"/>
         <v>5.7455706364468014E-2</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <f t="shared" si="2"/>
         <v>25.027759200229301</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="18">
         <f t="shared" si="3"/>
         <v>1.163595128737779</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="18">
         <f t="shared" si="4"/>
         <v>0.11344208740812095</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="39" t="str">
+      <c r="A9" s="36" t="str">
         <f>'Nutrient Channels DATA'!A28</f>
         <v>401</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="54">
         <f>'Nutrient Channels DATA'!B28</f>
         <v>6.1236301178052018E-2</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="54">
         <f>'Nutrient Channels DATA'!C28</f>
         <v>23.857938210591229</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="54">
         <f>'Nutrient Channels DATA'!D28</f>
         <v>1.1957081054296659</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="54">
         <f>'Nutrient Channels DATA'!E28</f>
         <v>0.32313990744037024</v>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>401</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <f t="shared" si="1"/>
         <v>6.1236301178052018E-2</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <f t="shared" si="2"/>
         <v>23.857938210591229</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="18">
         <f t="shared" si="3"/>
         <v>1.1957081054296659</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="18">
         <f t="shared" si="4"/>
         <v>0.32313990744037024</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="39" t="str">
+      <c r="A10" s="36" t="str">
         <f>'Nutrient Channels DATA'!A29</f>
         <v>402</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="54">
         <f>'Nutrient Channels DATA'!B29</f>
         <v>8.293971584862686E-2</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="54">
         <f>'Nutrient Channels DATA'!C29</f>
         <v>24.282421199829763</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="54">
         <f>'Nutrient Channels DATA'!D29</f>
         <v>1.60907930094719</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="54">
         <f>'Nutrient Channels DATA'!E29</f>
         <v>0.47799928800284797</v>
       </c>
-      <c r="G10" s="16" t="str">
+      <c r="G10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>402</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <f t="shared" si="1"/>
         <v>8.293971584862686E-2</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <f t="shared" si="2"/>
         <v>24.282421199829763</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="18">
         <f t="shared" si="3"/>
         <v>1.60907930094719</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="18">
         <f t="shared" si="4"/>
         <v>0.47799928800284797</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="39" t="str">
+      <c r="A11" s="36" t="str">
         <f>'Nutrient Channels DATA'!A30</f>
         <v>403</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="54">
         <f>'Nutrient Channels DATA'!B30</f>
         <v>6.7691871283983103</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="54">
         <f>'Nutrient Channels DATA'!C30</f>
         <v>791.89286243483036</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="54">
         <f>'Nutrient Channels DATA'!D30</f>
         <v>388.34916623364353</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="54">
         <f>'Nutrient Channels DATA'!E30</f>
         <v>10.237966201076372</v>
       </c>
-      <c r="G11" s="16" t="str">
+      <c r="G11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>403</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <f t="shared" ref="H11:H30" si="5">IF(B11&gt;0.008,B11,IF(B11&lt;0.008,"&lt;0.008"))</f>
         <v>6.7691871283983103</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="18">
         <f t="shared" ref="I11:I30" si="6">IF(C11&gt;0.065,C11,IF(C11&lt;0.065,"&lt;0.065"))</f>
         <v>791.89286243483036</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="18">
         <f t="shared" ref="J11:J30" si="7">IF(D11&gt;0.009,D11,IF(D11&lt;0.009,"&lt;0.009"))</f>
         <v>388.34916623364353</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="18">
         <f t="shared" ref="K11:K30" si="8">IF(E11&gt;0.02,E11,IF(E11&lt;0.02,"&lt;0.02"))</f>
         <v>10.237966201076372</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="39" t="str">
+      <c r="A12" s="36" t="str">
         <f>'Nutrient Channels DATA'!A31</f>
         <v>404</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="54">
         <f>'Nutrient Channels DATA'!B31</f>
         <v>4.9376389960513731E-2</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="54">
         <f>'Nutrient Channels DATA'!C31</f>
         <v>22.802570972520076</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="54">
         <f>'Nutrient Channels DATA'!D31</f>
         <v>1.6268727856771694</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="54">
         <f>'Nutrient Channels DATA'!E31</f>
         <v>0.29314368064819812</v>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>404</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <f t="shared" si="5"/>
         <v>4.9376389960513731E-2</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <f t="shared" si="6"/>
         <v>22.802570972520076</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="18">
         <f t="shared" si="7"/>
         <v>1.6268727856771694</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="18">
         <f t="shared" si="8"/>
         <v>0.29314368064819812</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="39" t="str">
+      <c r="A13" s="36" t="str">
         <f>'Nutrient Channels DATA'!A32</f>
         <v>405</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="54">
         <f>'Nutrient Channels DATA'!B32</f>
         <v>0.1962642122360585</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="54">
         <f>'Nutrient Channels DATA'!C32</f>
         <v>12.546107545186871</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="54">
         <f>'Nutrient Channels DATA'!D32</f>
         <v>1.5739170208305542</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="54">
         <f>'Nutrient Channels DATA'!E32</f>
         <v>1.1989759805666658</v>
       </c>
-      <c r="G13" s="16" t="str">
+      <c r="G13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>405</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <f t="shared" si="5"/>
         <v>0.1962642122360585</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <f t="shared" si="6"/>
         <v>12.546107545186871</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="18">
         <f t="shared" si="7"/>
         <v>1.5739170208305542</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="18">
         <f t="shared" si="8"/>
         <v>1.1989759805666658</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="39" t="str">
+      <c r="A14" s="36" t="str">
         <f>'Nutrient Channels DATA'!A33</f>
         <v>406</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="54">
         <f>'Nutrient Channels DATA'!B33</f>
         <v>4.8774340496238071E-2</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="54">
         <f>'Nutrient Channels DATA'!C33</f>
         <v>19.549364647842062</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="54">
         <f>'Nutrient Channels DATA'!D33</f>
         <v>0.74593585027920173</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="54">
         <f>'Nutrient Channels DATA'!E33</f>
         <v>0.17575021464620025</v>
       </c>
-      <c r="G14" s="16" t="str">
+      <c r="G14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>406</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <f t="shared" si="5"/>
         <v>4.8774340496238071E-2</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <f t="shared" si="6"/>
         <v>19.549364647842062</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="18">
         <f t="shared" si="7"/>
         <v>0.74593585027920173</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="18">
         <f t="shared" si="8"/>
         <v>0.17575021464620025</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="39" t="str">
+      <c r="A15" s="36" t="str">
         <f>'Nutrient Channels DATA'!A34</f>
         <v>407</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="54">
         <f>'Nutrient Channels DATA'!B34</f>
         <v>0.18384892556428878</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="54">
         <f>'Nutrient Channels DATA'!C34</f>
         <v>23.090877506883345</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="54">
         <f>'Nutrient Channels DATA'!D34</f>
         <v>1.1846543805149512</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="54">
         <f>'Nutrient Channels DATA'!E34</f>
         <v>0.50490230980252548</v>
       </c>
-      <c r="G15" s="16" t="str">
+      <c r="G15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>407</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <f t="shared" si="5"/>
         <v>0.18384892556428878</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <f t="shared" si="6"/>
         <v>23.090877506883345</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="18">
         <f t="shared" si="7"/>
         <v>1.1846543805149512</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="18">
         <f t="shared" si="8"/>
         <v>0.50490230980252548</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="39" t="str">
+      <c r="A16" s="36" t="str">
         <f>'Nutrient Channels DATA'!A35</f>
         <v>408</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="54">
         <f>'Nutrient Channels DATA'!B35</f>
         <v>0.51486100479808816</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="54">
         <f>'Nutrient Channels DATA'!C35</f>
         <v>28.899742037469711</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="54">
         <f>'Nutrient Channels DATA'!D35</f>
         <v>0.92212841379047472</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="54">
         <f>'Nutrient Channels DATA'!E35</f>
         <v>5.717590517873222</v>
       </c>
-      <c r="G16" s="16" t="str">
+      <c r="G16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>408</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <f t="shared" si="5"/>
         <v>0.51486100479808816</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <f t="shared" si="6"/>
         <v>28.899742037469711</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="18">
         <f t="shared" si="7"/>
         <v>0.92212841379047472</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="18">
         <f t="shared" si="8"/>
         <v>5.717590517873222</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="str">
+      <c r="A17" s="36" t="str">
         <f>'Nutrient Channels DATA'!A36</f>
         <v>409</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="54">
         <f>'Nutrient Channels DATA'!B36</f>
         <v>0.13932191998207719</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="54">
         <f>'Nutrient Channels DATA'!C36</f>
         <v>19.270174493846248</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="54">
         <f>'Nutrient Channels DATA'!D36</f>
         <v>0.87181490728211763</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="54">
         <f>'Nutrient Channels DATA'!E36</f>
         <v>0.1225544217838834</v>
       </c>
-      <c r="G17" s="16" t="str">
+      <c r="G17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="18">
         <f t="shared" si="5"/>
         <v>0.13932191998207719</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="18">
         <f t="shared" si="6"/>
         <v>19.270174493846248</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="18">
         <f t="shared" si="7"/>
         <v>0.87181490728211763</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="18">
         <f t="shared" si="8"/>
         <v>0.1225544217838834</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="39" t="str">
+      <c r="A18" s="36" t="str">
         <f>'Nutrient Channels DATA'!A40</f>
         <v>410</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="54">
         <f>'Nutrient Channels DATA'!B40</f>
         <v>5.7922446464910481E-2</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="54">
         <f>'Nutrient Channels DATA'!C40</f>
         <v>18.968905526651785</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="54">
         <f>'Nutrient Channels DATA'!D40</f>
         <v>0.7087724647900745</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="54">
         <f>'Nutrient Channels DATA'!E40</f>
         <v>0.40063032689045719</v>
       </c>
-      <c r="G18" s="16" t="str">
+      <c r="G18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <f t="shared" si="5"/>
         <v>5.7922446464910481E-2</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="18">
         <f t="shared" si="6"/>
         <v>18.968905526651785</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="18">
         <f t="shared" si="7"/>
         <v>0.7087724647900745</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="18">
         <f t="shared" si="8"/>
         <v>0.40063032689045719</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="39" t="str">
+      <c r="A19" s="36" t="str">
         <f>'Nutrient Channels DATA'!A41</f>
         <v>411</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="54">
         <f>'Nutrient Channels DATA'!B41</f>
         <v>5.1154715008494674E-2</v>
       </c>
-      <c r="C19" s="58">
+      <c r="C19" s="54">
         <f>'Nutrient Channels DATA'!C41</f>
         <v>17.84252994363041</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="54">
         <f>'Nutrient Channels DATA'!D41</f>
         <v>0.74803224638371668</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="54">
         <f>'Nutrient Channels DATA'!E41</f>
         <v>0.22172219546415931</v>
       </c>
-      <c r="G19" s="16" t="str">
+      <c r="G19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>411</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="18">
         <f t="shared" si="5"/>
         <v>5.1154715008494674E-2</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="18">
         <f t="shared" si="6"/>
         <v>17.84252994363041</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="18">
         <f t="shared" si="7"/>
         <v>0.74803224638371668</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="18">
         <f t="shared" si="8"/>
         <v>0.22172219546415931</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="39" t="str">
+      <c r="A20" s="36" t="str">
         <f>'Nutrient Channels DATA'!A42</f>
         <v>412</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="54">
         <f>'Nutrient Channels DATA'!B42</f>
         <v>0.10123592778597165</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="54">
         <f>'Nutrient Channels DATA'!C42</f>
         <v>24.286694518513372</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="54">
         <f>'Nutrient Channels DATA'!D42</f>
         <v>1.1875131024756531</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="54">
         <f>'Nutrient Channels DATA'!E42</f>
         <v>0.46476032919397736</v>
       </c>
-      <c r="G20" s="16" t="str">
+      <c r="G20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>412</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <f t="shared" si="5"/>
         <v>0.10123592778597165</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="18">
         <f t="shared" si="6"/>
         <v>24.286694518513372</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="18">
         <f t="shared" si="7"/>
         <v>1.1875131024756531</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="18">
         <f t="shared" si="8"/>
         <v>0.46476032919397736</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="39" t="str">
+      <c r="A21" s="36" t="str">
         <f>'Nutrient Channels DATA'!A43</f>
         <v>413</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="54">
         <f>'Nutrient Channels DATA'!B43</f>
         <v>0.16909993839030674</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="54">
         <f>'Nutrient Channels DATA'!C43</f>
         <v>23.226555375087941</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="54">
         <f>'Nutrient Channels DATA'!D43</f>
         <v>1.1661679785024108</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="54">
         <f>'Nutrient Channels DATA'!E43</f>
         <v>0.54212929030636825</v>
       </c>
-      <c r="G21" s="16" t="str">
+      <c r="G21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>413</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="18">
         <f t="shared" si="5"/>
         <v>0.16909993839030674</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="18">
         <f t="shared" si="6"/>
         <v>23.226555375087941</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="18">
         <f t="shared" si="7"/>
         <v>1.1661679785024108</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="18">
         <f t="shared" si="8"/>
         <v>0.54212929030636825</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="39" t="str">
+      <c r="A22" s="36" t="str">
         <f>'Nutrient Channels DATA'!A44</f>
         <v>414</v>
       </c>
-      <c r="B22" s="58">
+      <c r="B22" s="54">
         <f>'Nutrient Channels DATA'!B44</f>
         <v>8.1492821537255206E-2</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22" s="54">
         <f>'Nutrient Channels DATA'!C44</f>
         <v>19.503426471993258</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="54">
         <f>'Nutrient Channels DATA'!D44</f>
         <v>0.75289207371691025</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="54">
         <f>'Nutrient Channels DATA'!E44</f>
         <v>0.12759198374971206</v>
       </c>
-      <c r="G22" s="16" t="str">
+      <c r="G22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>414</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="18">
         <f t="shared" si="5"/>
         <v>8.1492821537255206E-2</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="18">
         <f t="shared" si="6"/>
         <v>19.503426471993258</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="18">
         <f t="shared" si="7"/>
         <v>0.75289207371691025</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="18">
         <f t="shared" si="8"/>
         <v>0.12759198374971206</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="39" t="str">
+      <c r="A23" s="36" t="str">
         <f>'Nutrient Channels DATA'!A45</f>
         <v>415</v>
       </c>
-      <c r="B23" s="58">
+      <c r="B23" s="54">
         <f>'Nutrient Channels DATA'!B45</f>
         <v>5.1528107088848647E-2</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="54">
         <f>'Nutrient Channels DATA'!C45</f>
         <v>19.540461900584543</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="54">
         <f>'Nutrient Channels DATA'!D45</f>
         <v>1.0370490366106992</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="54">
         <f>'Nutrient Channels DATA'!E45</f>
         <v>6.0729168848028259E-5</v>
       </c>
-      <c r="G23" s="16" t="str">
+      <c r="G23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>415</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <f t="shared" si="5"/>
         <v>5.1528107088848647E-2</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <f t="shared" si="6"/>
         <v>19.540461900584543</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="18">
         <f t="shared" si="7"/>
         <v>1.0370490366106992</v>
       </c>
-      <c r="K23" s="19" t="str">
+      <c r="K23" s="18" t="str">
         <f t="shared" si="8"/>
         <v>&lt;0.02</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="39" t="str">
+      <c r="A24" s="36" t="str">
         <f>'Nutrient Channels DATA'!A46</f>
         <v>416</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="54">
         <f>'Nutrient Channels DATA'!B46</f>
         <v>5.6848944233892799E-2</v>
       </c>
-      <c r="C24" s="58">
+      <c r="C24" s="54">
         <f>'Nutrient Channels DATA'!C46</f>
         <v>17.418759174172479</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="54">
         <f>'Nutrient Channels DATA'!D46</f>
         <v>0.79177069238245879</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="54">
         <f>'Nutrient Channels DATA'!E46</f>
         <v>2.7328125981613688E-3</v>
       </c>
-      <c r="G24" s="16" t="str">
+      <c r="G24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>416</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="18">
         <f t="shared" si="5"/>
         <v>5.6848944233892799E-2</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="18">
         <f t="shared" si="6"/>
         <v>17.418759174172479</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="18">
         <f t="shared" si="7"/>
         <v>0.79177069238245879</v>
       </c>
-      <c r="K24" s="19" t="str">
+      <c r="K24" s="18" t="str">
         <f t="shared" si="8"/>
         <v>&lt;0.02</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="39" t="str">
+      <c r="A25" s="36" t="str">
         <f>'Nutrient Channels DATA'!A47</f>
         <v>417</v>
       </c>
-      <c r="B25" s="58">
+      <c r="B25" s="54">
         <f>'Nutrient Channels DATA'!B47</f>
         <v>0.19509736198495231</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="54">
         <f>'Nutrient Channels DATA'!C47</f>
         <v>25.409152892741439</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="54">
         <f>'Nutrient Channels DATA'!D47</f>
         <v>5.6672257056278701</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="54">
         <f>'Nutrient Channels DATA'!E47</f>
         <v>4.6726237095051619</v>
       </c>
-      <c r="G25" s="16" t="str">
+      <c r="G25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>417</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="18">
         <f t="shared" si="5"/>
         <v>0.19509736198495231</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="18">
         <f t="shared" si="6"/>
         <v>25.409152892741439</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="18">
         <f t="shared" si="7"/>
         <v>5.6672257056278701</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="18">
         <f t="shared" si="8"/>
         <v>4.6726237095051619</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="39" t="str">
+      <c r="A26" s="36" t="str">
         <f>'Nutrient Channels DATA'!A48</f>
         <v>418</v>
       </c>
-      <c r="B26" s="58">
+      <c r="B26" s="54">
         <f>'Nutrient Channels DATA'!B48</f>
         <v>0.13740828557026305</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="54">
         <f>'Nutrient Channels DATA'!C48</f>
         <v>22.639686275872251</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="54">
         <f>'Nutrient Channels DATA'!D48</f>
         <v>1.1984715366583447</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="54">
         <f>'Nutrient Channels DATA'!E48</f>
         <v>2.610996345854396E-2</v>
       </c>
-      <c r="G26" s="16" t="str">
+      <c r="G26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>418</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="18">
         <f t="shared" si="5"/>
         <v>0.13740828557026305</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="18">
         <f t="shared" si="6"/>
         <v>22.639686275872251</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="18">
         <f t="shared" si="7"/>
         <v>1.1984715366583447</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="18">
         <f t="shared" si="8"/>
         <v>2.610996345854396E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="39" t="str">
+      <c r="A27" s="36" t="str">
         <f>'Nutrient Channels DATA'!A49</f>
         <v>419</v>
       </c>
-      <c r="B27" s="58">
+      <c r="B27" s="54">
         <f>'Nutrient Channels DATA'!B49</f>
         <v>7.1784627448051835E-2</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="54">
         <f>'Nutrient Channels DATA'!C49</f>
         <v>20.609503791267489</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="54">
         <f>'Nutrient Channels DATA'!D49</f>
         <v>1.1533990204112747</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="54">
         <f>'Nutrient Channels DATA'!E49</f>
         <v>0.22190438297070339</v>
       </c>
-      <c r="G27" s="16" t="str">
+      <c r="G27" s="15" t="str">
         <f t="shared" si="0"/>
         <v>419</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="18">
         <f t="shared" si="5"/>
         <v>7.1784627448051835E-2</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="18">
         <f t="shared" si="6"/>
         <v>20.609503791267489</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="18">
         <f t="shared" si="7"/>
         <v>1.1533990204112747</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="18">
         <f t="shared" si="8"/>
         <v>0.22190438297070339</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="39" t="str">
+      <c r="A28" s="36" t="str">
         <f>'Nutrient Channels DATA'!A50</f>
         <v>420</v>
       </c>
-      <c r="B28" s="58">
+      <c r="B28" s="54">
         <f>'Nutrient Channels DATA'!B50</f>
         <v>6.2076433358848458E-2</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="54">
         <f>'Nutrient Channels DATA'!C50</f>
         <v>19.427218955468891</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="54">
         <f>'Nutrient Channels DATA'!D50</f>
         <v>0.92489184501915334</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="54">
         <f>'Nutrient Channels DATA'!E50</f>
         <v>7.4393231838837351E-2</v>
       </c>
-      <c r="G28" s="16" t="str">
+      <c r="G28" s="15" t="str">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="18">
         <f t="shared" si="5"/>
         <v>6.2076433358848458E-2</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="18">
         <f t="shared" si="6"/>
         <v>19.427218955468891</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="18">
         <f t="shared" si="7"/>
         <v>0.92489184501915334</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="18">
         <f t="shared" si="8"/>
         <v>7.4393231838837351E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="39" t="str">
+      <c r="A29" s="36" t="str">
         <f>'Nutrient Channels DATA'!A51</f>
         <v>421</v>
       </c>
-      <c r="B29" s="58">
+      <c r="B29" s="54">
         <f>'Nutrient Channels DATA'!B51</f>
         <v>6.0442843007299817E-2</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="54">
         <f>'Nutrient Channels DATA'!C51</f>
         <v>16.942284140950033</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="54">
         <f>'Nutrient Channels DATA'!D51</f>
         <v>0.897162242000343</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="54">
         <f>'Nutrient Channels DATA'!E51</f>
         <v>0.15194438045777228</v>
       </c>
-      <c r="G29" s="16" t="str">
+      <c r="G29" s="15" t="str">
         <f t="shared" si="0"/>
         <v>421</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="18">
         <f t="shared" si="5"/>
         <v>6.0442843007299817E-2</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="18">
         <f t="shared" si="6"/>
         <v>16.942284140950033</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="18">
         <f t="shared" si="7"/>
         <v>0.897162242000343</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="18">
         <f t="shared" si="8"/>
         <v>0.15194438045777228</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="39">
+      <c r="A30" s="36">
         <f>'Nutrient Channels DATA'!A52</f>
         <v>422</v>
       </c>
-      <c r="B30" s="58">
+      <c r="B30" s="54">
         <f>'Nutrient Channels DATA'!B52</f>
         <v>6.641711629296343E-2</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="54">
         <f>'Nutrient Channels DATA'!C52</f>
         <v>22.266483110837033</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="54">
         <f>'Nutrient Channels DATA'!D52</f>
         <v>1.3468392064187837</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="54">
         <f>'Nutrient Channels DATA'!E52</f>
         <v>0.18091219399828282</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="49">
         <f t="shared" si="0"/>
         <v>422</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="18">
         <f t="shared" si="5"/>
         <v>6.641711629296343E-2</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="18">
         <f t="shared" si="6"/>
         <v>22.266483110837033</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="18">
         <f t="shared" si="7"/>
         <v>1.3468392064187837</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="18">
         <f t="shared" si="8"/>
         <v>0.18091219399828282</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="39">
+      <c r="A31" s="36">
         <f>'Nutrient Channels DATA'!G23</f>
         <v>1</v>
       </c>
-      <c r="B31" s="58">
+      <c r="B31" s="54">
         <f>'Nutrient Channels DATA'!H23</f>
         <v>8.1268111636240647E-2</v>
       </c>
-      <c r="C31" s="58">
+      <c r="C31" s="54">
         <f>'Nutrient Channels DATA'!I23</f>
         <v>8.1647033884675349</v>
       </c>
-      <c r="D31" s="58">
+      <c r="D31" s="54">
         <f>'Nutrient Channels DATA'!J23</f>
         <v>1.3841096989875561</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="54">
         <f>'Nutrient Channels DATA'!K23</f>
         <v>1.199121934243226</v>
       </c>
-      <c r="G31" s="52">
+      <c r="G31" s="49">
         <f t="shared" ref="G31:G36" si="9">A31</f>
         <v>1</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="18">
         <f t="shared" ref="H31:H36" si="10">IF(B31&gt;0.008,B31,IF(B31&lt;0.008,"&lt;0.008"))</f>
         <v>8.1268111636240647E-2</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="18">
         <f t="shared" ref="I31:I36" si="11">IF(C31&gt;0.065,C31,IF(C31&lt;0.065,"&lt;0.065"))</f>
         <v>8.1647033884675349</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="18">
         <f t="shared" ref="J31:J36" si="12">IF(D31&gt;0.009,D31,IF(D31&lt;0.009,"&lt;0.009"))</f>
         <v>1.3841096989875561</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="18">
         <f t="shared" ref="K31:K36" si="13">IF(E31&gt;0.02,E31,IF(E31&lt;0.02,"&lt;0.02"))</f>
         <v>1.199121934243226</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="39" t="str">
+      <c r="A32" s="36" t="str">
         <f>'Nutrient Channels DATA'!G24</f>
         <v>2</v>
       </c>
-      <c r="B32" s="58">
+      <c r="B32" s="54">
         <f>'Nutrient Channels DATA'!H24</f>
         <v>2.6812054645304E-2</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="54">
         <f>'Nutrient Channels DATA'!I24</f>
         <v>0.92567666260810588</v>
       </c>
-      <c r="D32" s="58">
+      <c r="D32" s="54">
         <f>'Nutrient Channels DATA'!J24</f>
         <v>0.79253956256790592</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="54">
         <f>'Nutrient Channels DATA'!K24</f>
         <v>1.0305939882835331</v>
       </c>
-      <c r="G32" s="52" t="str">
+      <c r="G32" s="49" t="str">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="18">
         <f t="shared" si="10"/>
         <v>2.6812054645304E-2</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="18">
         <f t="shared" si="11"/>
         <v>0.92567666260810588</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="18">
         <f t="shared" si="12"/>
         <v>0.79253956256790592</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="18">
         <f t="shared" si="13"/>
         <v>1.0305939882835331</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="39" t="str">
+      <c r="A33" s="36" t="str">
         <f>'Nutrient Channels DATA'!G25</f>
         <v>3</v>
       </c>
-      <c r="B33" s="58">
+      <c r="B33" s="54">
         <f>'Nutrient Channels DATA'!H25</f>
         <v>0.20800208777742474</v>
       </c>
-      <c r="C33" s="58">
+      <c r="C33" s="54">
         <f>'Nutrient Channels DATA'!I25</f>
         <v>20.200229592549682</v>
       </c>
-      <c r="D33" s="58">
+      <c r="D33" s="54">
         <f>'Nutrient Channels DATA'!J25</f>
         <v>1.362429495961075</v>
       </c>
-      <c r="E33" s="58">
+      <c r="E33" s="54">
         <f>'Nutrient Channels DATA'!K25</f>
         <v>12.454265177643233</v>
       </c>
-      <c r="G33" s="52" t="str">
+      <c r="G33" s="49" t="str">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="18">
         <f t="shared" si="10"/>
         <v>0.20800208777742474</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="18">
         <f t="shared" si="11"/>
         <v>20.200229592549682</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="18">
         <f t="shared" si="12"/>
         <v>1.362429495961075</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="18">
         <f t="shared" si="13"/>
         <v>12.454265177643233</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="39" t="str">
+      <c r="A34" s="36" t="str">
         <f>'Nutrient Channels DATA'!G26</f>
         <v>4</v>
       </c>
-      <c r="B34" s="58">
+      <c r="B34" s="54">
         <f>'Nutrient Channels DATA'!H26</f>
         <v>3.8083783415785E-2</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="54">
         <f>'Nutrient Channels DATA'!I26</f>
         <v>4.1769602769031682</v>
       </c>
-      <c r="D34" s="58">
+      <c r="D34" s="54">
         <f>'Nutrient Channels DATA'!J26</f>
         <v>1.4485932259435967</v>
       </c>
-      <c r="E34" s="58">
+      <c r="E34" s="54">
         <f>'Nutrient Channels DATA'!K26</f>
         <v>1.3698361211623664</v>
       </c>
-      <c r="G34" s="52" t="str">
+      <c r="G34" s="49" t="str">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="18">
         <f t="shared" si="10"/>
         <v>3.8083783415785E-2</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="18">
         <f t="shared" si="11"/>
         <v>4.1769602769031682</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="18">
         <f t="shared" si="12"/>
         <v>1.4485932259435967</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="18">
         <f t="shared" si="13"/>
         <v>1.3698361211623664</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="39" t="str">
+      <c r="A35" s="36" t="str">
         <f>'Nutrient Channels DATA'!G27</f>
         <v>5</v>
       </c>
-      <c r="B35" s="58">
+      <c r="B35" s="54">
         <f>'Nutrient Channels DATA'!H27</f>
         <v>3.934598102845728E-2</v>
       </c>
-      <c r="C35" s="58">
+      <c r="C35" s="54">
         <f>'Nutrient Channels DATA'!I27</f>
         <v>1.7472319965745675</v>
       </c>
-      <c r="D35" s="58">
+      <c r="D35" s="54">
         <f>'Nutrient Channels DATA'!J27</f>
         <v>1.3419278189805848</v>
       </c>
-      <c r="E35" s="58">
+      <c r="E35" s="54">
         <f>'Nutrient Channels DATA'!K27</f>
         <v>2.661654672086164</v>
       </c>
-      <c r="G35" s="52" t="str">
+      <c r="G35" s="49" t="str">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="18">
         <f t="shared" si="10"/>
         <v>3.934598102845728E-2</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="18">
         <f t="shared" si="11"/>
         <v>1.7472319965745675</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="18">
         <f t="shared" si="12"/>
         <v>1.3419278189805848</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="18">
         <f t="shared" si="13"/>
         <v>2.661654672086164</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="39" t="str">
+      <c r="A36" s="36" t="str">
         <f>'Nutrient Channels DATA'!G28</f>
         <v>6</v>
       </c>
-      <c r="B36" s="58">
+      <c r="B36" s="54">
         <f>'Nutrient Channels DATA'!H28</f>
         <v>7.2160395769981359E-2</v>
       </c>
-      <c r="C36" s="58">
+      <c r="C36" s="54">
         <f>'Nutrient Channels DATA'!I28</f>
         <v>5.8934055683312039</v>
       </c>
-      <c r="D36" s="58">
+      <c r="D36" s="54">
         <f>'Nutrient Channels DATA'!J28</f>
         <v>1.349769474231187</v>
       </c>
-      <c r="E36" s="58">
+      <c r="E36" s="54">
         <f>'Nutrient Channels DATA'!K28</f>
         <v>0.4611094503611759</v>
       </c>
-      <c r="G36" s="52" t="str">
+      <c r="G36" s="49" t="str">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="18">
         <f t="shared" si="10"/>
         <v>7.2160395769981359E-2</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="18">
         <f t="shared" si="11"/>
         <v>5.8934055683312039</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="18">
         <f t="shared" si="12"/>
         <v>1.349769474231187</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="18">
         <f t="shared" si="13"/>
         <v>0.4611094503611759</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="39" t="str">
+      <c r="A37" s="36" t="str">
         <f>'Nutrient Channels DATA'!G29</f>
         <v>7</v>
       </c>
-      <c r="B37" s="58">
+      <c r="B37" s="54">
         <f>'Nutrient Channels DATA'!H29</f>
         <v>4.4565424590387107E-2</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="54">
         <f>'Nutrient Channels DATA'!I29</f>
         <v>2.3131539024142018</v>
       </c>
-      <c r="D37" s="58">
+      <c r="D37" s="54">
         <f>'Nutrient Channels DATA'!J29</f>
         <v>1.1483428598422221</v>
       </c>
-      <c r="E37" s="58">
+      <c r="E37" s="54">
         <f>'Nutrient Channels DATA'!K29</f>
         <v>1.0131040606079535</v>
       </c>
-      <c r="G37" s="52" t="str">
+      <c r="G37" s="49" t="str">
         <f>A37</f>
         <v>7</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="18">
         <f>IF(B37&gt;0.008,B37,IF(B37&lt;0.008,"&lt;0.008"))</f>
         <v>4.4565424590387107E-2</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="18">
         <f>IF(C37&gt;0.065,C37,IF(C37&lt;0.065,"&lt;0.065"))</f>
         <v>2.3131539024142018</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="18">
         <f>IF(D37&gt;0.009,D37,IF(D37&lt;0.009,"&lt;0.009"))</f>
         <v>1.1483428598422221</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="18">
         <f>IF(E37&gt;0.02,E37,IF(E37&lt;0.02,"&lt;0.02"))</f>
         <v>1.0131040606079535</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="39">
+      <c r="A38" s="36">
         <f>'Nutrient Channels DATA'!G30</f>
         <v>8</v>
       </c>
-      <c r="B38" s="58">
+      <c r="B38" s="54">
         <f>'Nutrient Channels DATA'!H30</f>
         <v>7.1570371715154499E-2</v>
       </c>
-      <c r="C38" s="58">
+      <c r="C38" s="54">
         <f>'Nutrient Channels DATA'!I30</f>
         <v>2.7627432747750293</v>
       </c>
-      <c r="D38" s="58">
+      <c r="D38" s="54">
         <f>'Nutrient Channels DATA'!J30</f>
         <v>1.2424427228494495</v>
       </c>
-      <c r="E38" s="58">
+      <c r="E38" s="54">
         <f>'Nutrient Channels DATA'!K30</f>
         <v>1.835942693716565</v>
       </c>
-      <c r="G38" s="52">
+      <c r="G38" s="49">
         <f>A38</f>
         <v>8</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="18">
         <f>IF(B38&gt;0.008,B38,IF(B38&lt;0.008,"&lt;0.008"))</f>
         <v>7.1570371715154499E-2</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="18">
         <f>IF(C38&gt;0.065,C38,IF(C38&lt;0.065,"&lt;0.065"))</f>
         <v>2.7627432747750293</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="18">
         <f>IF(D38&gt;0.009,D38,IF(D38&lt;0.009,"&lt;0.009"))</f>
         <v>1.2424427228494495</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="18">
         <f>IF(E38&gt;0.02,E38,IF(E38&lt;0.02,"&lt;0.02"))</f>
         <v>1.835942693716565</v>
       </c>
@@ -5479,7 +6594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
@@ -5585,31 +6700,31 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5617,31 +6732,31 @@
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5649,31 +6764,31 @@
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>-7995</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>-5455</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>-5803</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>-11</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9">
         <v>-7995</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9">
         <v>-5455</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <v>-5803</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>-11</v>
       </c>
     </row>
@@ -5681,31 +6796,31 @@
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>273</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>69</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>79</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
         <v>273</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <v>69</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10">
         <v>79</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>7</v>
       </c>
     </row>
@@ -5713,1206 +6828,1206 @@
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>276</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>245</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>299</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>300</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <v>276</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <v>245</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <v>299</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="37">
         <v>0.99934550104575759</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="37">
         <v>0.99981550765816396</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="37">
         <v>0.99854753857950063</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="38">
         <v>0.99874879070103861</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="37">
         <v>0.99934550104575759</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="37">
         <v>0.99981550765816396</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="37">
         <v>0.99854753857950063</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="38">
         <v>0.99874879070103861</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="G14" s="8" t="s">
+      <c r="B14" s="19"/>
+      <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="35">
         <v>2</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="39">
         <v>15</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="35">
         <v>4</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="35">
         <v>3</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="35">
         <v>2</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="39">
         <v>15</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="35">
         <v>4</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="35">
         <v>1</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="39">
         <v>10</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="35">
         <v>2</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="35">
         <v>2</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="35">
         <v>1</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="39">
         <v>10</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="35">
         <v>2</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="35">
         <v>0.5</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="39">
         <v>8</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="35">
         <v>1</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="35">
         <v>1</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="35">
         <v>0.5</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="39">
         <v>8</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="35">
         <v>1</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="35">
         <v>0.25</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="39">
         <v>4</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="35">
         <v>0.5</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="35">
         <v>0.5</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="35">
         <v>0.25</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="39">
         <v>4</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="35">
         <v>0.5</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="35">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="35">
         <v>0</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="39">
         <v>0</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="35">
         <v>0</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="35">
         <v>0</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="35">
         <v>0</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="39">
         <v>0</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="35">
         <v>0</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>2.5110617403804873E-2</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="31">
         <v>4.8430945080906423E-2</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <v>2.5347334718225312E-2</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="31">
         <v>6.0729168848028259E-5</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="31">
         <v>1.3467926977539299E-2</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="31">
         <v>6.053752554593328E-2</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="31">
         <v>2.424831911196057E-2</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="31">
         <v>5.9431352758321232E-5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="40">
         <v>97.845343548000969</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="40">
         <v>101.41111789859498</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="40">
         <v>99.005817028027494</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="40">
         <v>102.0741814229428</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="40">
         <v>100.61712299000433</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="40">
         <v>99.747916604881524</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="40">
         <v>99.005652082897214</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="40">
         <v>99.067928947882095</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="40">
         <v>98.616231745271719</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="40">
         <v>98.417837507635923</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="40">
         <v>99.576943416181919</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="40">
         <v>101.1910692450523</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="40">
         <v>99.5045632333768</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="40">
         <v>99.602597941813215</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="40">
         <v>98.817249319656682</v>
       </c>
-      <c r="K22" s="43">
+      <c r="K22" s="40">
         <v>97.667382393129017</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="45">
+      <c r="A23" s="42">
         <v>396</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="35">
         <v>0.13600806526893566</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="35">
         <v>19.532627482997924</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="35">
         <v>0.35286158068266282</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="35">
         <v>0.55166376981550902</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="42">
         <v>1</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="35">
         <v>8.1268111636240647E-2</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="35">
         <v>8.1647033884675349</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="35">
         <v>1.3841096989875561</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="35">
         <v>1.199121934243226</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="35">
         <v>0.17255381513358103</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="35">
         <v>27.425803201514771</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="35">
         <v>1.0698290484267501</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="35">
         <v>7.5972190228886141E-2</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="35">
         <v>2.6812054645304E-2</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="35">
         <v>0.92567666260810588</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="35">
         <v>0.79253956256790592</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="35">
         <v>1.0305939882835331</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="35">
         <v>6.973097100610498E-2</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="35">
         <v>26.235327838239254</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="35">
         <v>0.9459510967963255</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="35">
         <v>3.2685653257386971</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="35">
         <v>0.20800208777742474</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="35">
         <v>20.200229592549682</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="35">
         <v>1.362429495961075</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="35">
         <v>12.454265177643233</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="35">
         <v>0.13656815338946662</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="35">
         <v>19.984887043679919</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="35">
         <v>0.99998094185359532</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="35">
         <v>1.0934286851087889</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="35">
         <v>3.8083783415785E-2</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="35">
         <v>4.1769602769031682</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="35">
         <v>1.4485932259435967</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="35">
         <v>1.3698361211623664</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="35">
         <v>5.7455706364468014E-2</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="35">
         <v>25.027759200229301</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="35">
         <v>1.163595128737779</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="35">
         <v>0.11344208740812095</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="35">
         <v>3.934598102845728E-2</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="35">
         <v>1.7472319965745675</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="35">
         <v>1.3419278189805848</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="35">
         <v>2.661654672086164</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="35">
         <v>6.1236301178052018E-2</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="35">
         <v>23.857938210591229</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="35">
         <v>1.1957081054296659</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="35">
         <v>0.32313990744037024</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="35">
         <v>7.2160395769981359E-2</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="35">
         <v>5.8934055683312039</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="35">
         <v>1.349769474231187</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="35">
         <v>0.4611094503611759</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29" s="35">
         <v>8.293971584862686E-2</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="35">
         <v>24.282421199829763</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="35">
         <v>1.60907930094719</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="35">
         <v>0.47799928800284797</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="35">
         <v>4.4565424590387107E-2</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="35">
         <v>2.3131539024142018</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="35">
         <v>1.1483428598422221</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="35">
         <v>1.0131040606079535</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="55">
+      <c r="B30" s="52">
         <v>6.7691871283983103</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="52">
         <v>791.89286243483036</v>
       </c>
-      <c r="D30" s="55">
+      <c r="D30" s="52">
         <v>388.34916623364353</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="35">
         <v>10.237966201076372</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="21">
         <v>8</v>
       </c>
-      <c r="H30" s="57">
+      <c r="H30" s="53">
         <v>7.1570371715154499E-2</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="35">
         <v>2.7627432747750293</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J30" s="35">
         <v>1.2424427228494495</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="35">
         <v>1.835942693716565</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="53">
         <v>4.9376389960513731E-2</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="53">
         <v>22.802570972520076</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="53">
         <v>1.6268727856771694</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="53">
         <v>0.29314368064819812</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="31">
         <v>1.6706758044751101E-2</v>
       </c>
-      <c r="I31" s="32">
+      <c r="I31" s="31">
         <v>5.8806066010230973E-2</v>
       </c>
-      <c r="J31" s="32">
+      <c r="J31" s="31">
         <v>1.3097926212858352E-2</v>
       </c>
-      <c r="K31" s="32">
+      <c r="K31" s="31">
         <v>7.4956832895341496E-3</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="35">
         <v>0.1962642122360585</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="35">
         <v>12.546107545186871</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="35">
         <v>1.5739170208305542</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="35">
         <v>1.1989759805666658</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="40">
         <v>101.96844897389362</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="40">
         <v>100.49824858074648</v>
       </c>
-      <c r="J32" s="43">
+      <c r="J32" s="40">
         <v>100.09656925031767</v>
       </c>
-      <c r="K32" s="43">
+      <c r="K32" s="40">
         <v>102.833333333333</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="35">
         <v>4.8774340496238071E-2</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="35">
         <v>19.549364647842062</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="35">
         <v>0.74593585027920173</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="35">
         <v>0.17575021464620025</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="40">
         <v>102.18716552654847</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="40">
         <v>99.217900712646454</v>
       </c>
-      <c r="J33" s="43">
+      <c r="J33" s="40">
         <v>100.27445997458703</v>
       </c>
-      <c r="K33" s="43">
+      <c r="K33" s="40">
         <v>103.372549019608</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="35">
         <v>0.18384892556428878</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="43">
         <v>23.090877506883345</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="35">
         <v>1.1846543805149512</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="35">
         <v>0.50490230980252548</v>
       </c>
-      <c r="G34" s="76" t="s">
+      <c r="G34" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="38">
+      <c r="B35" s="35">
         <v>0.51486100479808816</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="35">
         <v>28.899742037469711</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="35">
         <v>0.92212841379047472</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="35">
         <v>5.717590517873222</v>
       </c>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36" s="35">
         <v>0.13932191998207719</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="43">
         <v>19.270174493846248</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="35">
         <v>0.87181490728211763</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="35">
         <v>0.1225544217838834</v>
       </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
     </row>
     <row r="37" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="31">
         <v>1.3208744842521887E-2</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="31">
         <v>0.3632320881067983</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="31">
         <v>1.8581692744563671E-2</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="31">
         <v>8.9879169895085084E-3</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="40">
         <v>99.186018673689247</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="40">
         <v>101.80818570555894</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="40">
         <v>99.62453728186145</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="40">
         <v>101.0733209546669</v>
       </c>
-      <c r="G38" s="73" t="s">
+      <c r="G38" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="75"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="77"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="40">
         <v>99.166866171893702</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="40">
         <v>102.01282834453269</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="40">
         <v>100.23268112109996</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="40">
         <v>102.21910239572483</v>
       </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="22" t="s">
+      <c r="G39" s="23"/>
+      <c r="H39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="25" t="s">
+      <c r="J39" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40" s="35">
         <v>5.7922446464910481E-2</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="21">
         <v>18.968905526651785</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="35">
         <v>0.7087724647900745</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="35">
         <v>0.40063032689045719</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="22" t="s">
+      <c r="G40" s="23"/>
+      <c r="H40" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J40" s="25" t="s">
+      <c r="J40" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="38">
+      <c r="B41" s="35">
         <v>5.1154715008494674E-2</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="21">
         <v>17.84252994363041</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="35">
         <v>0.74803224638371668</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="35">
         <v>0.22172219546415931</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="I41" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J41" s="26" t="s">
+      <c r="J41" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="38">
+      <c r="B42" s="35">
         <v>0.10123592778597165</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="21">
         <v>24.286694518513372</v>
       </c>
-      <c r="D42" s="38">
+      <c r="D42" s="35">
         <v>1.1875131024756531</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42" s="35">
         <v>0.46476032919397736</v>
       </c>
-      <c r="G42" s="50" t="s">
+      <c r="G42" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H42" s="26">
         <v>0.08</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="26">
         <v>1.35</v>
       </c>
-      <c r="J42" s="28">
+      <c r="J42" s="27">
         <v>0.08</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="38">
+      <c r="B43" s="35">
         <v>0.16909993839030674</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="21">
         <v>23.226555375087941</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="35">
         <v>1.1661679785024108</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="35">
         <v>0.54212929030636825</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="38">
+      <c r="B44" s="35">
         <v>8.1492821537255206E-2</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="21">
         <v>19.503426471993258</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="35">
         <v>0.75289207371691025</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="35">
         <v>0.12759198374971206</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="35">
         <v>5.1528107088848647E-2</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="21">
         <v>19.540461900584543</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="35">
         <v>1.0370490366106992</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="35">
         <v>6.0729168848028259E-5</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="38">
+      <c r="B46" s="35">
         <v>5.6848944233892799E-2</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="21">
         <v>17.418759174172479</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="35">
         <v>0.79177069238245879</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="35">
         <v>2.7328125981613688E-3</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="38">
+      <c r="B47" s="35">
         <v>0.19509736198495231</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="21">
         <v>25.409152892741439</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="35">
         <v>5.6672257056278701</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="35">
         <v>4.6726237095051619</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="38">
+      <c r="B48" s="35">
         <v>0.13740828557026305</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="21">
         <v>22.639686275872251</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="35">
         <v>1.1984715366583447</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="35">
         <v>2.610996345854396E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="38">
+      <c r="B49" s="35">
         <v>7.1784627448051835E-2</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="21">
         <v>20.609503791267489</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="35">
         <v>1.1533990204112747</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="35">
         <v>0.22190438297070339</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="38">
+      <c r="B50" s="35">
         <v>6.2076433358848458E-2</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="21">
         <v>19.427218955468891</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D50" s="35">
         <v>0.92489184501915334</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="43">
         <v>7.4393231838837351E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B51" s="35">
         <v>6.0442843007299817E-2</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="21">
         <v>16.942284140950033</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="43">
         <v>0.897162242000343</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E51" s="35">
         <v>0.15194438045777228</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="22">
+      <c r="A52" s="21">
         <v>422</v>
       </c>
-      <c r="B52" s="38">
+      <c r="B52" s="35">
         <v>6.641711629296343E-2</v>
       </c>
-      <c r="C52" s="47">
+      <c r="C52" s="44">
         <v>22.266483110837033</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D52" s="43">
         <v>1.3468392064187837</v>
       </c>
-      <c r="E52" s="38">
+      <c r="E52" s="35">
         <v>0.18091219399828282</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="32">
+      <c r="B53" s="31">
         <v>1.3628810932920114E-2</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="31">
         <v>6.9797538498953399E-2</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="31">
         <v>1.7533494692306223E-2</v>
       </c>
-      <c r="E53" s="32">
+      <c r="E53" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="40">
         <v>98.956188652142686</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="40">
         <v>99.196701282834454</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="40">
         <v>100.03172924378636</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="40">
         <v>102.49082921969112</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="43">
+      <c r="B55" s="40">
         <v>98.41991860186738</v>
       </c>
-      <c r="C55" s="43">
+      <c r="C55" s="40">
         <v>99.712889431887604</v>
       </c>
-      <c r="D55" s="43">
+      <c r="D55" s="40">
         <v>100.17979904812269</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="40">
         <v>103.2878945699923</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="77"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
+      <c r="A57" s="79"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
     </row>
     <row r="59" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="24"/>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="23"/>
+      <c r="B61" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="24"/>
-      <c r="B62" s="22" t="s">
+      <c r="A62" s="23"/>
+      <c r="B62" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="27">
+      <c r="B64" s="26">
         <v>0.08</v>
       </c>
-      <c r="C64" s="27">
+      <c r="C64" s="26">
         <v>1.44</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="27">
         <v>0.08</v>
       </c>
     </row>
@@ -6931,11 +8046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6948,1060 +8063,1110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="41">
         <v>43862</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:12" ht="42" x14ac:dyDescent="0.15">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="56" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="53">
+      <c r="A10" s="50">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="57">
         <v>5</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="57">
         <v>6</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="57">
         <v>13.6</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="57">
         <f t="shared" ref="E10:E22" si="0">D10*C10</f>
         <v>81.599999999999994</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="58">
         <f t="shared" ref="F10:F22" si="1">E10*B10/1000</f>
         <v>0.40799999999999997</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="60">
         <v>200</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="59">
         <f t="shared" ref="H10:H22" si="2">F10/G10*1000</f>
         <v>2.0399999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="53">
+      <c r="A11" s="50">
         <v>1.2</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="57">
         <v>5</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="57">
         <v>1</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="57">
         <v>10.7</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="57">
         <f t="shared" si="0"/>
         <v>10.7</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="58">
         <f t="shared" si="1"/>
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="60">
         <v>200</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="59">
         <f t="shared" si="2"/>
         <v>0.26750000000000002</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="53">
+      <c r="A12" s="50">
         <v>1.3</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="57">
         <v>5</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="57">
         <v>6</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="57">
         <v>37.299999999999997</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="57">
         <f t="shared" si="0"/>
         <v>223.79999999999998</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="58">
         <f t="shared" si="1"/>
         <v>1.119</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="60">
         <v>200</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="59">
         <f t="shared" si="2"/>
         <v>5.5949999999999998</v>
       </c>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="53">
+      <c r="A13" s="50">
         <v>1.4</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="57">
         <v>5</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="57">
         <v>6</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="57">
         <v>23</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="57">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="58">
         <f t="shared" si="1"/>
         <v>0.69</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="60">
         <v>200</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="59">
         <f t="shared" si="2"/>
         <v>3.4499999999999997</v>
       </c>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="53">
+      <c r="A14" s="50">
         <v>1.5</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="57">
         <v>5</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="57">
         <v>6</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="57">
         <v>17.2</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="57">
         <f t="shared" si="0"/>
         <v>103.19999999999999</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="58">
         <f>E14*B14/1000</f>
         <v>0.51600000000000001</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="60">
         <v>200</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="59">
         <f>F14/G14*1000</f>
         <v>2.58</v>
       </c>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="53">
+      <c r="A15" s="50">
         <v>1.6</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="57">
         <v>5</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="57">
         <v>6</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="57">
         <v>16.100000000000001</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="57">
         <f t="shared" si="0"/>
         <v>96.600000000000009</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="58">
         <f t="shared" si="1"/>
         <v>0.48300000000000004</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="60">
         <v>200</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="59">
         <f t="shared" si="2"/>
         <v>2.415</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="53">
+      <c r="A16" s="50">
         <v>1.7</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="57">
         <v>5</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="57">
         <v>6</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="57">
         <v>18.399999999999999</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="57">
         <f t="shared" si="0"/>
         <v>110.39999999999999</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="58">
         <f t="shared" si="1"/>
         <v>0.55200000000000005</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="60">
         <v>200</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="59">
         <f t="shared" si="2"/>
         <v>2.7600000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="53">
+      <c r="A17" s="50">
         <v>1.8</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="63"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="53">
+      <c r="A18" s="50">
         <v>1.9</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="57">
         <v>5</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="57">
         <v>6</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="57">
         <v>11.6</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="57">
         <f t="shared" si="0"/>
         <v>69.599999999999994</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="58">
         <f t="shared" si="1"/>
         <v>0.34799999999999998</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="60">
         <v>200</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="59">
         <f t="shared" si="2"/>
         <v>1.7399999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="53">
+      <c r="A19" s="50">
         <v>2.1</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="57">
         <v>5</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="57">
         <v>6</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="57">
         <v>25</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="57">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="58">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="63" t="e">
+      <c r="G19" s="60">
+        <v>130</v>
+      </c>
+      <c r="H19" s="59">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.7692307692307692</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="53">
+      <c r="A20" s="50">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="57">
         <v>5</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="57">
         <v>6</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="57">
         <v>20.100000000000001</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="57">
         <f t="shared" si="0"/>
         <v>120.60000000000001</v>
       </c>
-      <c r="F20" s="62">
+      <c r="F20" s="58">
         <f t="shared" si="1"/>
         <v>0.60299999999999998</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="63" t="e">
+      <c r="G20" s="60">
+        <v>125</v>
+      </c>
+      <c r="H20" s="59">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.8239999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="53">
+      <c r="A21" s="50">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="57">
         <v>5</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="57">
         <v>6</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="57">
         <v>12.3</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="57">
         <f t="shared" si="0"/>
         <v>73.800000000000011</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="58">
         <f t="shared" si="1"/>
         <v>0.36900000000000005</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="63" t="e">
+      <c r="G21" s="60">
+        <v>70</v>
+      </c>
+      <c r="H21" s="59">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.2714285714285722</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="53">
+      <c r="A22" s="50">
         <v>2.4</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="57">
         <v>5</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="57">
         <v>6</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="57">
         <v>17.899999999999999</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="57">
         <f t="shared" si="0"/>
         <v>107.39999999999999</v>
       </c>
-      <c r="F22" s="62">
+      <c r="F22" s="58">
         <f t="shared" si="1"/>
         <v>0.53700000000000003</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="63" t="e">
+      <c r="G22" s="60">
+        <v>130</v>
+      </c>
+      <c r="H22" s="59">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.1307692307692312</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="53">
+      <c r="A23" s="50">
         <v>2.5</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="57">
         <v>5</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="57">
         <v>6</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="57">
         <v>14.7</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="57">
         <f>D23*C23</f>
         <v>88.199999999999989</v>
       </c>
-      <c r="F23" s="62">
+      <c r="F23" s="58">
         <f>E23*B23/1000</f>
         <v>0.44099999999999995</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="63" t="e">
+      <c r="G23" s="60">
+        <v>120</v>
+      </c>
+      <c r="H23" s="59">
         <f>F23/G23*1000</f>
-        <v>#DIV/0!</v>
+        <v>3.6749999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="53">
+      <c r="A24" s="50">
         <v>2.6</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="57">
         <v>5</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="57">
         <v>6</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="57">
         <v>28.4</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="57">
         <f t="shared" ref="E24:E32" si="3">D24*C24</f>
         <v>170.39999999999998</v>
       </c>
-      <c r="F24" s="62">
+      <c r="F24" s="58">
         <f t="shared" ref="F24:F32" si="4">E24*B24/1000</f>
         <v>0.85199999999999987</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="63" t="e">
+      <c r="G24" s="60">
+        <v>200</v>
+      </c>
+      <c r="H24" s="59">
         <f t="shared" ref="H24:H32" si="5">F24/G24*1000</f>
-        <v>#DIV/0!</v>
+        <v>4.2599999999999989</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="53">
+      <c r="A25" s="50">
         <v>2.7</v>
       </c>
-      <c r="B25" s="61">
+      <c r="B25" s="57">
         <v>5</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="57">
         <v>6</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="57">
         <v>16</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="57">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="F25" s="62">
+      <c r="F25" s="58">
         <f t="shared" si="4"/>
         <v>0.48</v>
       </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="63" t="e">
+      <c r="G25" s="60">
+        <v>200</v>
+      </c>
+      <c r="H25" s="59">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="53">
+      <c r="A26" s="50">
         <v>2.8</v>
       </c>
-      <c r="B26" s="61">
+      <c r="B26" s="57">
         <v>5</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="57">
         <v>6</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="57">
         <v>10.1</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="57">
         <f t="shared" si="3"/>
         <v>60.599999999999994</v>
       </c>
-      <c r="F26" s="62">
+      <c r="F26" s="58">
         <f t="shared" si="4"/>
         <v>0.30299999999999999</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="63" t="e">
+      <c r="G26" s="60">
+        <v>130</v>
+      </c>
+      <c r="H26" s="59">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.3307692307692309</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="53">
+      <c r="A27" s="50">
         <v>2.9</v>
       </c>
-      <c r="B27" s="61">
+      <c r="B27" s="57">
         <v>5</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="57">
         <v>6</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="57">
         <v>9.9</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="57">
         <f t="shared" si="3"/>
         <v>59.400000000000006</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="58">
         <f t="shared" si="4"/>
         <v>0.29699999999999999</v>
       </c>
-      <c r="G27" s="64"/>
-      <c r="H27" s="63" t="e">
+      <c r="G27" s="60">
+        <v>200</v>
+      </c>
+      <c r="H27" s="59">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.4850000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="53">
+      <c r="A28" s="50">
         <v>3.1</v>
       </c>
-      <c r="B28" s="61">
+      <c r="B28" s="57">
         <v>5</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="57">
         <v>6</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="57">
         <v>17</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="57">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="F28" s="62">
+      <c r="F28" s="58">
         <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="63" t="e">
+      <c r="G28" s="60">
+        <v>200</v>
+      </c>
+      <c r="H28" s="59">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.5500000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="53">
+      <c r="A29" s="50">
         <v>3.2</v>
       </c>
-      <c r="B29" s="61">
+      <c r="B29" s="57">
         <v>5</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="57">
         <v>6</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="57">
         <v>21.8</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="57">
         <f t="shared" si="3"/>
         <v>130.80000000000001</v>
       </c>
-      <c r="F29" s="62">
+      <c r="F29" s="58">
         <f t="shared" si="4"/>
         <v>0.65400000000000003</v>
       </c>
-      <c r="G29" s="64"/>
-      <c r="H29" s="63" t="e">
+      <c r="G29" s="60">
+        <v>200</v>
+      </c>
+      <c r="H29" s="59">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.2700000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="53">
+      <c r="A30" s="50">
         <v>3.3</v>
       </c>
-      <c r="B30" s="61">
+      <c r="B30" s="57">
         <v>5</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="57">
         <v>6</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="57">
         <v>10.5</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="57">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="F30" s="62">
+      <c r="F30" s="58">
         <f t="shared" si="4"/>
         <v>0.315</v>
       </c>
-      <c r="G30" s="64"/>
-      <c r="H30" s="63" t="e">
+      <c r="G30" s="60">
+        <v>200</v>
+      </c>
+      <c r="H30" s="59">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.575</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="53">
+      <c r="A31" s="50">
         <v>3.4</v>
       </c>
-      <c r="B31" s="61">
+      <c r="B31" s="57">
         <v>5</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="57">
         <v>6</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="57">
         <v>39.299999999999997</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="57">
         <f t="shared" si="3"/>
         <v>235.79999999999998</v>
       </c>
-      <c r="F31" s="62">
+      <c r="F31" s="58">
         <f t="shared" si="4"/>
         <v>1.179</v>
       </c>
-      <c r="G31" s="64"/>
-      <c r="H31" s="63" t="e">
+      <c r="G31" s="60">
+        <v>200</v>
+      </c>
+      <c r="H31" s="59">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.8950000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="53">
+      <c r="A32" s="50">
         <v>3.5</v>
       </c>
-      <c r="B32" s="61">
+      <c r="B32" s="57">
         <v>5</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="57">
         <v>6</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="57">
         <v>9.77</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="57">
         <f t="shared" si="3"/>
         <v>58.62</v>
       </c>
-      <c r="F32" s="62">
+      <c r="F32" s="58">
         <f t="shared" si="4"/>
         <v>0.29309999999999997</v>
       </c>
-      <c r="G32" s="64"/>
-      <c r="H32" s="63" t="e">
+      <c r="G32" s="60">
+        <v>200</v>
+      </c>
+      <c r="H32" s="59">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.4654999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="53">
+      <c r="A33" s="50">
         <v>3.6</v>
       </c>
-      <c r="B33" s="61">
+      <c r="B33" s="57">
         <v>5</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C33" s="57">
         <v>6</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="57">
         <v>16.399999999999999</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="57">
         <f t="shared" ref="E33:E40" si="6">D33*C33</f>
         <v>98.399999999999991</v>
       </c>
-      <c r="F33" s="62">
+      <c r="F33" s="58">
         <f t="shared" ref="F33:F40" si="7">E33*B33/1000</f>
         <v>0.49199999999999994</v>
       </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="63" t="e">
+      <c r="G33" s="60">
+        <v>200</v>
+      </c>
+      <c r="H33" s="59">
         <f t="shared" ref="H33:H40" si="8">F33/G33*1000</f>
-        <v>#DIV/0!</v>
+        <v>2.4599999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="53">
+      <c r="A34" s="50">
         <v>3.7</v>
       </c>
-      <c r="B34" s="61">
+      <c r="B34" s="57">
         <v>5</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="57">
         <v>6</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="57">
         <v>15.3</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="57">
         <f t="shared" si="6"/>
         <v>91.800000000000011</v>
       </c>
-      <c r="F34" s="62">
+      <c r="F34" s="58">
         <f t="shared" si="7"/>
         <v>0.45900000000000007</v>
       </c>
-      <c r="G34" s="64"/>
-      <c r="H34" s="63" t="e">
+      <c r="G34" s="60">
+        <v>150</v>
+      </c>
+      <c r="H34" s="59">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.0600000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="53">
+      <c r="A35" s="50">
         <v>3.8</v>
       </c>
-      <c r="B35" s="61">
+      <c r="B35" s="57">
         <v>5</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="57">
         <v>6</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="57">
         <v>17.2</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="57">
         <f t="shared" si="6"/>
         <v>103.19999999999999</v>
       </c>
-      <c r="F35" s="62">
+      <c r="F35" s="58">
         <f t="shared" si="7"/>
         <v>0.51600000000000001</v>
       </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="63" t="e">
+      <c r="G35" s="60">
+        <v>135</v>
+      </c>
+      <c r="H35" s="59">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.8222222222222224</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="53">
+      <c r="A36" s="50">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B36" s="61">
+      <c r="B36" s="57">
         <v>5</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="57">
         <v>6</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="57">
         <v>27.5</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="57">
         <f t="shared" si="6"/>
         <v>165</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F36" s="58">
         <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="63" t="e">
+      <c r="G36" s="60">
+        <v>100</v>
+      </c>
+      <c r="H36" s="59">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="53">
+      <c r="A37" s="50">
         <v>4.2</v>
       </c>
-      <c r="B37" s="61">
+      <c r="B37" s="57">
         <v>5</v>
       </c>
-      <c r="C37" s="61">
+      <c r="C37" s="57">
         <v>6</v>
       </c>
-      <c r="D37" s="61">
+      <c r="D37" s="57">
         <v>12.6</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="57">
         <f t="shared" si="6"/>
         <v>75.599999999999994</v>
       </c>
-      <c r="F37" s="62">
+      <c r="F37" s="58">
         <f t="shared" si="7"/>
         <v>0.378</v>
       </c>
-      <c r="G37" s="64"/>
-      <c r="H37" s="63" t="e">
+      <c r="G37" s="60">
+        <v>200</v>
+      </c>
+      <c r="H37" s="59">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="53">
+      <c r="A38" s="50">
         <v>4.3</v>
       </c>
-      <c r="B38" s="61">
+      <c r="B38" s="57">
         <v>5</v>
       </c>
-      <c r="C38" s="61">
+      <c r="C38" s="57">
         <v>6</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="57">
         <v>13.1</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="57">
         <f t="shared" si="6"/>
         <v>78.599999999999994</v>
       </c>
-      <c r="F38" s="62">
+      <c r="F38" s="58">
         <f t="shared" si="7"/>
         <v>0.39300000000000002</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="63" t="e">
+      <c r="G38" s="60">
+        <v>70</v>
+      </c>
+      <c r="H38" s="59">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.6142857142857148</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="53">
+      <c r="A39" s="50">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B39" s="61">
+      <c r="B39" s="57">
         <v>5</v>
       </c>
-      <c r="C39" s="61">
+      <c r="C39" s="57">
         <v>6</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="57">
         <v>34.1</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E39" s="57">
         <f t="shared" si="6"/>
         <v>204.60000000000002</v>
       </c>
-      <c r="F39" s="62">
+      <c r="F39" s="58">
         <f t="shared" si="7"/>
         <v>1.0230000000000001</v>
       </c>
-      <c r="G39" s="64"/>
-      <c r="H39" s="63" t="e">
+      <c r="G39" s="60">
+        <v>200</v>
+      </c>
+      <c r="H39" s="59">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.1150000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="53">
+      <c r="A40" s="50">
         <v>4.5</v>
       </c>
-      <c r="B40" s="61">
+      <c r="B40" s="57">
         <v>5</v>
       </c>
-      <c r="C40" s="61">
+      <c r="C40" s="57">
         <v>6</v>
       </c>
-      <c r="D40" s="61">
+      <c r="D40" s="57">
         <v>5.83</v>
       </c>
-      <c r="E40" s="61">
+      <c r="E40" s="57">
         <f t="shared" si="6"/>
         <v>34.980000000000004</v>
       </c>
-      <c r="F40" s="62">
+      <c r="F40" s="58">
         <f t="shared" si="7"/>
         <v>0.17490000000000003</v>
       </c>
-      <c r="G40" s="64"/>
-      <c r="H40" s="63" t="e">
+      <c r="G40" s="60">
+        <v>200</v>
+      </c>
+      <c r="H40" s="59">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.87450000000000017</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="53">
+      <c r="A41" s="50">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B41" s="61">
+      <c r="B41" s="57">
         <v>5</v>
       </c>
-      <c r="C41" s="61">
+      <c r="C41" s="57">
         <v>1</v>
       </c>
-      <c r="D41" s="61">
+      <c r="D41" s="57">
         <v>16.899999999999999</v>
       </c>
-      <c r="E41" s="61">
+      <c r="E41" s="57">
         <f>D41*C41</f>
         <v>16.899999999999999</v>
       </c>
-      <c r="F41" s="62">
+      <c r="F41" s="58">
         <f>E41*B41/1000</f>
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="G41" s="64"/>
-      <c r="H41" s="63" t="e">
+      <c r="G41" s="60">
+        <v>200</v>
+      </c>
+      <c r="H41" s="59">
         <f>F41/G41*1000</f>
-        <v>#DIV/0!</v>
+        <v>0.42250000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="53">
+      <c r="A42" s="50">
         <v>4.7</v>
       </c>
-      <c r="B42" s="61">
+      <c r="B42" s="57">
         <v>5</v>
       </c>
-      <c r="C42" s="61">
+      <c r="C42" s="57">
         <v>1</v>
       </c>
-      <c r="D42" s="61">
+      <c r="D42" s="57">
         <v>4.5199999999999996</v>
       </c>
-      <c r="E42" s="61">
+      <c r="E42" s="57">
         <f>D42*C42</f>
         <v>4.5199999999999996</v>
       </c>
-      <c r="F42" s="62">
+      <c r="F42" s="58">
         <f>E42*B42/1000</f>
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="G42" s="64"/>
-      <c r="H42" s="63" t="e">
+      <c r="G42" s="60">
+        <v>200</v>
+      </c>
+      <c r="H42" s="59">
         <f>F42/G42*1000</f>
-        <v>#DIV/0!</v>
+        <v>0.11299999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="53">
+      <c r="A43" s="50">
         <v>4.8</v>
       </c>
-      <c r="B43" s="61">
+      <c r="B43" s="57">
         <v>5</v>
       </c>
-      <c r="C43" s="61">
+      <c r="C43" s="57">
         <v>1</v>
       </c>
-      <c r="D43" s="61">
+      <c r="D43" s="57">
         <v>16.100000000000001</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="57">
         <f>D43*C43</f>
         <v>16.100000000000001</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="58">
         <f>E43*B43/1000</f>
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="G43" s="64"/>
-      <c r="H43" s="63" t="e">
+      <c r="G43" s="60">
+        <v>200</v>
+      </c>
+      <c r="H43" s="59">
         <f>F43/G43*1000</f>
-        <v>#DIV/0!</v>
+        <v>0.40250000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/2024-02-28_water-samples.xlsx
+++ b/data/raw/2024-02-28_water-samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lysbethkoster/Documents/Universiteit/University of Hawai'i/MSc Thesis/Thesis/RQ2/nomilo-fishpond-analysis/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7679F0AA-2D11-364C-8E0D-EAC35A1C1058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6285CBA7-10C2-2349-B276-B15624E1557C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="160">
   <si>
     <t>S-LAB Value</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -404,24 +404,6 @@
   </si>
   <si>
     <t>20/02/2024</t>
-  </si>
-  <si>
-    <t>Location ID</t>
-  </si>
-  <si>
-    <t>Back Buoy</t>
-  </si>
-  <si>
-    <t>Mid Buoy</t>
-  </si>
-  <si>
-    <t>Production Dock</t>
-  </si>
-  <si>
-    <t>Auwei</t>
-  </si>
-  <si>
-    <t>Well</t>
   </si>
   <si>
     <t>Depth (m)</t>
@@ -690,12 +672,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,12 +717,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,7 +1034,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1196,6 +1172,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1232,22 +1218,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1709,7 +1684,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1731,22 +1706,22 @@
   <sheetData>
     <row r="1" spans="1:18" s="55" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D1" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="55" t="s">
         <v>99</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G1" s="55" t="s">
         <v>101</v>
@@ -1758,31 +1733,31 @@
         <v>103</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K1" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="71" t="s">
         <v>120</v>
-      </c>
-      <c r="M1" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q1" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="R1" s="83" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -1796,7 +1771,7 @@
         <v>105</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -1816,26 +1791,26 @@
       <c r="K2" s="65">
         <v>0.55166376981550902</v>
       </c>
-      <c r="L2" s="86">
+      <c r="L2" s="73">
         <v>6759866.666666667</v>
       </c>
-      <c r="M2" s="86">
+      <c r="M2" s="73">
         <v>45316.666666666672</v>
       </c>
-      <c r="N2" s="86">
+      <c r="N2" s="73">
         <v>1832883.3333333335</v>
       </c>
-      <c r="O2" s="86">
+      <c r="O2" s="73">
         <v>82200</v>
       </c>
-      <c r="P2" s="86">
+      <c r="P2" s="73">
         <v>73166.666666666672</v>
       </c>
-      <c r="Q2" s="86">
+      <c r="Q2" s="73">
         <v>16700</v>
       </c>
-      <c r="R2" s="88" t="s">
-        <v>127</v>
+      <c r="R2" s="74" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1849,7 +1824,7 @@
         <v>105</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F3">
         <v>0.5</v>
@@ -1869,26 +1844,26 @@
       <c r="K3" s="65">
         <v>7.5972190228886141E-2</v>
       </c>
-      <c r="L3" s="86">
+      <c r="L3" s="73">
         <v>6491183.333333334</v>
       </c>
-      <c r="M3" s="86">
+      <c r="M3" s="73">
         <v>34983.333333333336</v>
       </c>
-      <c r="N3" s="86">
+      <c r="N3" s="73">
         <v>1684616.6666666667</v>
       </c>
-      <c r="O3" s="86">
+      <c r="O3" s="73">
         <v>72350</v>
       </c>
-      <c r="P3" s="86">
+      <c r="P3" s="73">
         <v>54250</v>
       </c>
-      <c r="Q3" s="86">
+      <c r="Q3" s="73">
         <v>13266.666666666668</v>
       </c>
-      <c r="R3" s="88" t="s">
-        <v>128</v>
+      <c r="R3" s="74" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1902,7 +1877,7 @@
         <v>105</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F4">
         <v>7.5</v>
@@ -1922,26 +1897,26 @@
       <c r="K4" s="65">
         <v>3.2685653257386971</v>
       </c>
-      <c r="L4" s="86">
+      <c r="L4" s="73">
         <v>7585816.666666667</v>
       </c>
-      <c r="M4" s="86">
+      <c r="M4" s="73">
         <v>78016.666666666672</v>
       </c>
-      <c r="N4" s="86">
+      <c r="N4" s="73">
         <v>1846716.6666666667</v>
       </c>
-      <c r="O4" s="86">
+      <c r="O4" s="73">
         <v>235600</v>
       </c>
-      <c r="P4" s="86">
+      <c r="P4" s="73">
         <v>197316.66666666669</v>
       </c>
-      <c r="Q4" s="86">
+      <c r="Q4" s="73">
         <v>17050</v>
       </c>
-      <c r="R4" s="88" t="s">
-        <v>129</v>
+      <c r="R4" s="74" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -1955,7 +1930,7 @@
         <v>105</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1975,26 +1950,26 @@
       <c r="K5" s="65">
         <v>1.0934286851087889</v>
       </c>
-      <c r="L5" s="86">
+      <c r="L5" s="73">
         <v>6778516.666666667</v>
       </c>
-      <c r="M5" s="86">
+      <c r="M5" s="73">
         <v>32400</v>
       </c>
-      <c r="N5" s="86">
+      <c r="N5" s="73">
         <v>1813683.3333333335</v>
       </c>
-      <c r="O5" s="86">
+      <c r="O5" s="73">
         <v>78166.666666666672</v>
       </c>
-      <c r="P5" s="86">
+      <c r="P5" s="73">
         <v>63916.666666666672</v>
       </c>
-      <c r="Q5" s="86">
+      <c r="Q5" s="73">
         <v>17400</v>
       </c>
-      <c r="R5" s="88" t="s">
-        <v>130</v>
+      <c r="R5" s="74" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -2008,7 +1983,7 @@
         <v>105</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F6">
         <v>0.5</v>
@@ -2028,26 +2003,26 @@
       <c r="K6" s="65">
         <v>0.11344208740812095</v>
       </c>
-      <c r="L6" s="86">
+      <c r="L6" s="73">
         <v>6064683.333333334</v>
       </c>
-      <c r="M6" s="86">
+      <c r="M6" s="73">
         <v>29983.333333333336</v>
       </c>
-      <c r="N6" s="86">
+      <c r="N6" s="73">
         <v>1564583.3333333335</v>
       </c>
-      <c r="O6" s="86">
+      <c r="O6" s="73">
         <v>66050</v>
       </c>
-      <c r="P6" s="86">
+      <c r="P6" s="73">
         <v>46066.666666666672</v>
       </c>
-      <c r="Q6" s="86">
+      <c r="Q6" s="73">
         <v>13716.666666666668</v>
       </c>
-      <c r="R6" s="88" t="s">
-        <v>131</v>
+      <c r="R6" s="74" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -2061,7 +2036,7 @@
         <v>105</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F7">
         <v>2.75</v>
@@ -2081,26 +2056,26 @@
       <c r="K7" s="65">
         <v>0.32313990744037024</v>
       </c>
-      <c r="L7" s="86">
+      <c r="L7" s="73">
         <v>5856783.333333334</v>
       </c>
-      <c r="M7" s="86">
+      <c r="M7" s="73">
         <v>28450</v>
       </c>
-      <c r="N7" s="86">
+      <c r="N7" s="73">
         <v>1384566.6666666667</v>
       </c>
-      <c r="O7" s="86">
+      <c r="O7" s="73">
         <v>60383.333333333336</v>
       </c>
-      <c r="P7" s="86">
+      <c r="P7" s="73">
         <v>45783.333333333336</v>
       </c>
-      <c r="Q7" s="86">
+      <c r="Q7" s="73">
         <v>11733.333333333334</v>
       </c>
-      <c r="R7" s="88" t="s">
-        <v>132</v>
+      <c r="R7" s="74" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -2114,7 +2089,7 @@
         <v>105</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F8">
         <v>0.5</v>
@@ -2134,26 +2109,26 @@
       <c r="K8" s="65">
         <v>0.47799928800284797</v>
       </c>
-      <c r="L8" s="86">
+      <c r="L8" s="73">
         <v>5806383.333333334</v>
       </c>
-      <c r="M8" s="86">
+      <c r="M8" s="73">
         <v>20600</v>
       </c>
-      <c r="N8" s="86">
+      <c r="N8" s="73">
         <v>1467483.3333333335</v>
       </c>
-      <c r="O8" s="86">
+      <c r="O8" s="73">
         <v>63850</v>
       </c>
-      <c r="P8" s="86">
+      <c r="P8" s="73">
         <v>38333.333333333336</v>
       </c>
-      <c r="Q8" s="86">
+      <c r="Q8" s="73">
         <v>8516.6666666666679</v>
       </c>
-      <c r="R8" s="88" t="s">
-        <v>133</v>
+      <c r="R8" s="74" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -2167,7 +2142,7 @@
         <v>105</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F9">
         <v>0.5</v>
@@ -2184,26 +2159,26 @@
       <c r="K9" s="65">
         <v>10.237966201076372</v>
       </c>
-      <c r="L9" s="87">
+      <c r="L9" s="88">
         <v>1522316.6666666667</v>
       </c>
-      <c r="M9" s="87">
+      <c r="M9" s="88">
         <v>403766.66666666669</v>
       </c>
-      <c r="N9" s="87">
+      <c r="N9" s="88">
         <v>65216.666666666672</v>
       </c>
-      <c r="O9" s="87">
+      <c r="O9" s="88">
         <v>6916.666666666667</v>
       </c>
-      <c r="P9" s="87">
+      <c r="P9" s="88">
         <v>93783.333333333343</v>
       </c>
-      <c r="Q9" s="87">
+      <c r="Q9" s="88">
         <v>616.66666666666674</v>
       </c>
       <c r="R9" s="89" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -2217,7 +2192,7 @@
         <v>105</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F10">
         <v>0.75</v>
@@ -2237,26 +2212,26 @@
       <c r="K10" s="65">
         <v>0.29314368064819812</v>
       </c>
-      <c r="L10" s="86">
+      <c r="L10" s="73">
         <v>5276316.666666667</v>
       </c>
-      <c r="M10" s="86">
+      <c r="M10" s="73">
         <v>28016.666666666668</v>
       </c>
-      <c r="N10" s="86">
+      <c r="N10" s="73">
         <v>1310716.6666666667</v>
       </c>
-      <c r="O10" s="86">
+      <c r="O10" s="73">
         <v>54166.666666666672</v>
       </c>
-      <c r="P10" s="86">
+      <c r="P10" s="73">
         <v>40900</v>
       </c>
-      <c r="Q10" s="86">
+      <c r="Q10" s="73">
         <v>11283.333333333334</v>
       </c>
-      <c r="R10" s="88" t="s">
-        <v>135</v>
+      <c r="R10" s="74" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -2270,7 +2245,7 @@
         <v>105</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F11">
         <v>0.5</v>
@@ -2287,26 +2262,26 @@
       <c r="K11" s="65">
         <v>1.1989759805666658</v>
       </c>
-      <c r="L11" s="86">
+      <c r="L11" s="73">
         <v>1542116.6666666667</v>
       </c>
-      <c r="M11" s="86">
+      <c r="M11" s="73">
         <v>11400</v>
       </c>
-      <c r="N11" s="86">
+      <c r="N11" s="73">
         <v>330783.33333333337</v>
       </c>
-      <c r="O11" s="86">
+      <c r="O11" s="73">
         <v>16583.333333333336</v>
       </c>
-      <c r="P11" s="86">
+      <c r="P11" s="73">
         <v>24150</v>
       </c>
-      <c r="Q11" s="86">
+      <c r="Q11" s="73">
         <v>2133.3333333333335</v>
       </c>
-      <c r="R11" s="88" t="s">
-        <v>136</v>
+      <c r="R11" s="74" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -2320,7 +2295,7 @@
         <v>106</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -2340,13 +2315,13 @@
       <c r="K12" s="65">
         <v>0.17575021464620025</v>
       </c>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B13" s="68">
@@ -2359,7 +2334,7 @@
         <v>106</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F13">
         <v>0.5</v>
@@ -2379,13 +2354,13 @@
       <c r="K13" s="65">
         <v>0.50490230980252548</v>
       </c>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B14" s="68">
@@ -2398,7 +2373,7 @@
         <v>106</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F14">
         <v>7.5</v>
@@ -2418,13 +2393,13 @@
       <c r="K14" s="65">
         <v>5.717590517873222</v>
       </c>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B15" s="68">
@@ -2437,7 +2412,7 @@
         <v>106</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -2457,13 +2432,13 @@
       <c r="K15" s="65">
         <v>0.1225544217838834</v>
       </c>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B16" s="68">
@@ -2476,7 +2451,7 @@
         <v>106</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F16">
         <v>0.5</v>
@@ -2496,13 +2471,13 @@
       <c r="K16" s="65">
         <v>0.40063032689045719</v>
       </c>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B17" s="68">
@@ -2515,7 +2490,7 @@
         <v>106</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F17">
         <v>2.75</v>
@@ -2535,13 +2510,13 @@
       <c r="K17" s="65">
         <v>0.22172219546415931</v>
       </c>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B18" s="68">
@@ -2554,7 +2529,7 @@
         <v>106</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F18">
         <v>0.5</v>
@@ -2574,13 +2549,13 @@
       <c r="K18" s="65">
         <v>0.46476032919397736</v>
       </c>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B19" s="68">
@@ -2593,7 +2568,7 @@
         <v>106</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F19">
         <v>0.75</v>
@@ -2613,13 +2588,13 @@
       <c r="K19" s="65">
         <v>0.54212929030636825</v>
       </c>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B20" s="68">
@@ -2632,7 +2607,7 @@
         <v>106</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -2652,13 +2627,13 @@
       <c r="K20" s="65">
         <v>0.12759198374971206</v>
       </c>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B21" s="68">
@@ -2671,7 +2646,7 @@
         <v>44074</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -2691,26 +2666,26 @@
       <c r="K21" s="65">
         <v>0.02</v>
       </c>
-      <c r="L21" s="86">
+      <c r="L21" s="73">
         <v>6318600</v>
       </c>
-      <c r="M21" s="86">
+      <c r="M21" s="73">
         <v>67933.333333333343</v>
       </c>
-      <c r="N21" s="86">
+      <c r="N21" s="73">
         <v>1518700</v>
       </c>
-      <c r="O21" s="86">
+      <c r="O21" s="73">
         <v>366416.66666666669</v>
       </c>
-      <c r="P21" s="86">
+      <c r="P21" s="73">
         <v>349666.66666666669</v>
       </c>
-      <c r="Q21" s="86">
+      <c r="Q21" s="73">
         <v>12333.333333333334</v>
       </c>
-      <c r="R21" s="88" t="s">
-        <v>137</v>
+      <c r="R21" s="74" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.15">
@@ -2724,7 +2699,7 @@
         <v>44074</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F22">
         <v>0.5</v>
@@ -2744,26 +2719,26 @@
       <c r="K22" s="65">
         <v>0.02</v>
       </c>
-      <c r="L22" s="86">
+      <c r="L22" s="73">
         <v>6339433.333333334</v>
       </c>
-      <c r="M22" s="86">
+      <c r="M22" s="73">
         <v>50033.333333333336</v>
       </c>
-      <c r="N22" s="86">
+      <c r="N22" s="73">
         <v>1804333.3333333335</v>
       </c>
-      <c r="O22" s="86">
+      <c r="O22" s="73">
         <v>286566.66666666669</v>
       </c>
-      <c r="P22" s="86">
+      <c r="P22" s="73">
         <v>246900</v>
       </c>
-      <c r="Q22" s="86">
+      <c r="Q22" s="73">
         <v>19933.333333333336</v>
       </c>
-      <c r="R22" s="88" t="s">
-        <v>138</v>
+      <c r="R22" s="74" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
@@ -2777,7 +2752,7 @@
         <v>44074</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F23">
         <v>7.5</v>
@@ -2797,26 +2772,26 @@
       <c r="K23" s="65">
         <v>4.6726237095051619</v>
       </c>
-      <c r="L23" s="86">
+      <c r="L23" s="73">
         <v>7871466.666666667</v>
       </c>
-      <c r="M23" s="86">
+      <c r="M23" s="73">
         <v>61950</v>
       </c>
-      <c r="N23" s="86">
+      <c r="N23" s="73">
         <v>946383.33333333337</v>
       </c>
-      <c r="O23" s="86">
+      <c r="O23" s="73">
         <v>328833.33333333337</v>
       </c>
-      <c r="P23" s="86">
+      <c r="P23" s="73">
         <v>192883.33333333334</v>
       </c>
-      <c r="Q23" s="86">
+      <c r="Q23" s="73">
         <v>11566.666666666668</v>
       </c>
-      <c r="R23" s="88" t="s">
-        <v>139</v>
+      <c r="R23" s="74" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
@@ -2830,7 +2805,7 @@
         <v>44074</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -2850,26 +2825,26 @@
       <c r="K24" s="65">
         <v>2.610996345854396E-2</v>
       </c>
-      <c r="L24" s="86">
+      <c r="L24" s="73">
         <v>7039000</v>
       </c>
-      <c r="M24" s="86">
+      <c r="M24" s="73">
         <v>53650</v>
       </c>
-      <c r="N24" s="86">
+      <c r="N24" s="73">
         <v>1760550</v>
       </c>
-      <c r="O24" s="86">
+      <c r="O24" s="73">
         <v>384266.66666666669</v>
       </c>
-      <c r="P24" s="86">
+      <c r="P24" s="73">
         <v>182800</v>
       </c>
-      <c r="Q24" s="86">
+      <c r="Q24" s="73">
         <v>15850</v>
       </c>
-      <c r="R24" s="88" t="s">
-        <v>140</v>
+      <c r="R24" s="74" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
@@ -2883,7 +2858,7 @@
         <v>44074</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F25">
         <v>0.5</v>
@@ -2903,26 +2878,26 @@
       <c r="K25" s="65">
         <v>0.22190438297070339</v>
       </c>
-      <c r="L25" s="86">
+      <c r="L25" s="73">
         <v>6885800</v>
       </c>
-      <c r="M25" s="86">
+      <c r="M25" s="73">
         <v>51916.666666666672</v>
       </c>
-      <c r="N25" s="86">
+      <c r="N25" s="73">
         <v>1897200</v>
       </c>
-      <c r="O25" s="86">
+      <c r="O25" s="73">
         <v>354833.33333333337</v>
       </c>
-      <c r="P25" s="86">
+      <c r="P25" s="73">
         <v>147883.33333333334</v>
       </c>
-      <c r="Q25" s="86">
+      <c r="Q25" s="73">
         <v>22000</v>
       </c>
-      <c r="R25" s="88" t="s">
-        <v>141</v>
+      <c r="R25" s="74" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.15">
@@ -2936,7 +2911,7 @@
         <v>44074</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F26">
         <v>2.75</v>
@@ -2956,26 +2931,26 @@
       <c r="K26" s="65">
         <v>7.4393231838837351E-2</v>
       </c>
-      <c r="L26" s="86">
+      <c r="L26" s="73">
         <v>7084033.333333334</v>
       </c>
-      <c r="M26" s="86">
+      <c r="M26" s="73">
         <v>55450</v>
       </c>
-      <c r="N26" s="86">
+      <c r="N26" s="73">
         <v>1810100</v>
       </c>
-      <c r="O26" s="86">
+      <c r="O26" s="73">
         <v>408900</v>
       </c>
-      <c r="P26" s="86">
+      <c r="P26" s="73">
         <v>92633.333333333343</v>
       </c>
-      <c r="Q26" s="86">
+      <c r="Q26" s="73">
         <v>16633.333333333336</v>
       </c>
-      <c r="R26" s="88" t="s">
-        <v>142</v>
+      <c r="R26" s="74" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.15">
@@ -2989,7 +2964,7 @@
         <v>44074</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F27">
         <v>0.5</v>
@@ -3009,26 +2984,26 @@
       <c r="K27" s="65">
         <v>0.15194438045777228</v>
       </c>
-      <c r="L27" s="86">
+      <c r="L27" s="73">
         <v>6566066.666666667</v>
       </c>
-      <c r="M27" s="86">
+      <c r="M27" s="73">
         <v>52566.666666666672</v>
       </c>
-      <c r="N27" s="86">
+      <c r="N27" s="73">
         <v>1846866.6666666667</v>
       </c>
-      <c r="O27" s="86">
+      <c r="O27" s="73">
         <v>372216.66666666669</v>
       </c>
-      <c r="P27" s="86">
+      <c r="P27" s="73">
         <v>110083.33333333334</v>
       </c>
-      <c r="Q27" s="86">
+      <c r="Q27" s="73">
         <v>21483.333333333336</v>
       </c>
-      <c r="R27" s="88" t="s">
-        <v>143</v>
+      <c r="R27" s="74" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.15">
@@ -3042,7 +3017,7 @@
         <v>44074</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F28">
         <v>0.5</v>
@@ -3062,26 +3037,26 @@
       <c r="K28" s="65">
         <v>0.18091219399828282</v>
       </c>
-      <c r="L28" s="86">
+      <c r="L28" s="73">
         <v>6450033.333333334</v>
       </c>
-      <c r="M28" s="86">
+      <c r="M28" s="73">
         <v>50633.333333333336</v>
       </c>
-      <c r="N28" s="86">
+      <c r="N28" s="73">
         <v>1819600</v>
       </c>
-      <c r="O28" s="86">
+      <c r="O28" s="73">
         <v>367633.33333333337</v>
       </c>
-      <c r="P28" s="86">
+      <c r="P28" s="73">
         <v>109983.33333333334</v>
       </c>
-      <c r="Q28" s="86">
+      <c r="Q28" s="73">
         <v>21400</v>
       </c>
-      <c r="R28" s="88" t="s">
-        <v>144</v>
+      <c r="R28" s="74" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.15">
@@ -3095,7 +3070,7 @@
         <v>107</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -3115,26 +3090,26 @@
       <c r="K29" s="65">
         <v>1.199121934243226</v>
       </c>
-      <c r="L29" s="86">
+      <c r="L29" s="73">
         <v>5190583.333333334</v>
       </c>
-      <c r="M29" s="86">
+      <c r="M29" s="73">
         <v>74183.333333333343</v>
       </c>
-      <c r="N29" s="86">
+      <c r="N29" s="73">
         <v>331850</v>
       </c>
-      <c r="O29" s="86">
+      <c r="O29" s="73">
         <v>73533.333333333343</v>
       </c>
-      <c r="P29" s="86">
+      <c r="P29" s="73">
         <v>92866.666666666672</v>
       </c>
-      <c r="Q29" s="86">
+      <c r="Q29" s="73">
         <v>8766.6666666666679</v>
       </c>
-      <c r="R29" s="88" t="s">
-        <v>145</v>
+      <c r="R29" s="74" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.15">
@@ -3148,7 +3123,7 @@
         <v>107</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F30">
         <v>0.5</v>
@@ -3168,26 +3143,26 @@
       <c r="K30" s="65">
         <v>1.0305939882835331</v>
       </c>
-      <c r="L30" s="86">
+      <c r="L30" s="73">
         <v>5011566.666666667</v>
       </c>
-      <c r="M30" s="86">
+      <c r="M30" s="73">
         <v>42950</v>
       </c>
-      <c r="N30" s="86">
+      <c r="N30" s="73">
         <v>492283.33333333337</v>
       </c>
-      <c r="O30" s="86">
+      <c r="O30" s="73">
         <v>111100</v>
       </c>
-      <c r="P30" s="86">
+      <c r="P30" s="73">
         <v>76083.333333333343</v>
       </c>
-      <c r="Q30" s="86">
+      <c r="Q30" s="73">
         <v>12883.333333333334</v>
       </c>
-      <c r="R30" s="88" t="s">
-        <v>146</v>
+      <c r="R30" s="74" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.15">
@@ -3201,7 +3176,7 @@
         <v>107</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F31">
         <v>7.5</v>
@@ -3221,26 +3196,26 @@
       <c r="K31" s="65">
         <v>12.454265177643233</v>
       </c>
-      <c r="L31" s="86">
+      <c r="L31" s="73">
         <v>5380016.666666667</v>
       </c>
-      <c r="M31" s="86">
+      <c r="M31" s="73">
         <v>52266.666666666672</v>
       </c>
-      <c r="N31" s="86">
+      <c r="N31" s="73">
         <v>202683.33333333334</v>
       </c>
-      <c r="O31" s="86">
+      <c r="O31" s="73">
         <v>59800</v>
       </c>
-      <c r="P31" s="86">
+      <c r="P31" s="73">
         <v>146466.66666666669</v>
       </c>
-      <c r="Q31" s="86">
+      <c r="Q31" s="73">
         <v>5783.3333333333339</v>
       </c>
-      <c r="R31" s="88" t="s">
-        <v>147</v>
+      <c r="R31" s="74" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.15">
@@ -3254,7 +3229,7 @@
         <v>107</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -3274,26 +3249,26 @@
       <c r="K32" s="65">
         <v>1.3698361211623664</v>
       </c>
-      <c r="L32" s="86">
+      <c r="L32" s="73">
         <v>5294200</v>
       </c>
-      <c r="M32" s="86">
+      <c r="M32" s="73">
         <v>43966.666666666672</v>
       </c>
-      <c r="N32" s="86">
+      <c r="N32" s="73">
         <v>408700</v>
       </c>
-      <c r="O32" s="86">
+      <c r="O32" s="73">
         <v>42733.333333333336</v>
       </c>
-      <c r="P32" s="86">
+      <c r="P32" s="73">
         <v>82000</v>
       </c>
-      <c r="Q32" s="86">
+      <c r="Q32" s="73">
         <v>10166.666666666668</v>
       </c>
-      <c r="R32" s="88" t="s">
-        <v>148</v>
+      <c r="R32" s="74" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.15">
@@ -3307,7 +3282,7 @@
         <v>107</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F33">
         <v>0.5</v>
@@ -3327,26 +3302,26 @@
       <c r="K33" s="65">
         <v>2.661654672086164</v>
       </c>
-      <c r="L33" s="86">
+      <c r="L33" s="73">
         <v>4841383.333333334</v>
       </c>
-      <c r="M33" s="86">
+      <c r="M33" s="73">
         <v>34216.666666666672</v>
       </c>
-      <c r="N33" s="86">
+      <c r="N33" s="73">
         <v>294966.66666666669</v>
       </c>
-      <c r="O33" s="86">
+      <c r="O33" s="73">
         <v>132900</v>
       </c>
-      <c r="P33" s="86">
+      <c r="P33" s="73">
         <v>64583.333333333336</v>
       </c>
-      <c r="Q33" s="86">
+      <c r="Q33" s="73">
         <v>10700</v>
       </c>
-      <c r="R33" s="88" t="s">
-        <v>149</v>
+      <c r="R33" s="74" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.15">
@@ -3360,7 +3335,7 @@
         <v>107</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F34">
         <v>2.75</v>
@@ -3380,26 +3355,26 @@
       <c r="K34" s="65">
         <v>0.4611094503611759</v>
       </c>
-      <c r="L34" s="86">
+      <c r="L34" s="73">
         <v>4522966.666666667</v>
       </c>
-      <c r="M34" s="86">
+      <c r="M34" s="73">
         <v>33083.333333333336</v>
       </c>
-      <c r="N34" s="86">
+      <c r="N34" s="73">
         <v>322566.66666666669</v>
       </c>
-      <c r="O34" s="86">
+      <c r="O34" s="73">
         <v>30566.666666666668</v>
       </c>
-      <c r="P34" s="86">
+      <c r="P34" s="73">
         <v>41483.333333333336</v>
       </c>
-      <c r="Q34" s="86">
+      <c r="Q34" s="73">
         <v>7983.3333333333339</v>
       </c>
-      <c r="R34" s="88" t="s">
-        <v>150</v>
+      <c r="R34" s="74" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.15">
@@ -3413,7 +3388,7 @@
         <v>107</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F35">
         <v>0.5</v>
@@ -3433,26 +3408,26 @@
       <c r="K35" s="65">
         <v>1.0131040606079535</v>
       </c>
-      <c r="L35" s="86">
+      <c r="L35" s="73">
         <v>4902783.333333334</v>
       </c>
-      <c r="M35" s="86">
+      <c r="M35" s="73">
         <v>35333.333333333336</v>
       </c>
-      <c r="N35" s="86">
+      <c r="N35" s="73">
         <v>292400</v>
       </c>
-      <c r="O35" s="86">
+      <c r="O35" s="73">
         <v>84133.333333333343</v>
       </c>
-      <c r="P35" s="86">
+      <c r="P35" s="73">
         <v>59033.333333333336</v>
       </c>
-      <c r="Q35" s="86">
+      <c r="Q35" s="73">
         <v>9233.3333333333339</v>
       </c>
-      <c r="R35" s="88" t="s">
-        <v>151</v>
+      <c r="R35" s="74" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.15">
@@ -3466,7 +3441,7 @@
         <v>107</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F36">
         <v>0.5</v>
@@ -3486,26 +3461,26 @@
       <c r="K36" s="65">
         <v>1.835942693716565</v>
       </c>
-      <c r="L36" s="86">
+      <c r="L36" s="73">
         <v>4843850</v>
       </c>
-      <c r="M36" s="86">
+      <c r="M36" s="73">
         <v>37633.333333333336</v>
       </c>
-      <c r="N36" s="86">
+      <c r="N36" s="73">
         <v>112050</v>
       </c>
-      <c r="O36" s="86">
+      <c r="O36" s="73">
         <v>222700</v>
       </c>
-      <c r="P36" s="86">
+      <c r="P36" s="73">
         <v>88600</v>
       </c>
-      <c r="Q36" s="86">
+      <c r="Q36" s="73">
         <v>9350</v>
       </c>
-      <c r="R36" s="88" t="s">
-        <v>152</v>
+      <c r="R36" s="74" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.15">
@@ -3519,31 +3494,31 @@
         <v>108</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
-      <c r="L37" s="86">
+      <c r="L37" s="73">
         <v>4884383.333333334</v>
       </c>
-      <c r="M37" s="86">
+      <c r="M37" s="73">
         <v>159716.66666666669</v>
       </c>
-      <c r="N37" s="86">
+      <c r="N37" s="73">
         <v>497833.33333333337</v>
       </c>
-      <c r="O37" s="86">
+      <c r="O37" s="73">
         <v>50833.333333333336</v>
       </c>
-      <c r="P37" s="86">
+      <c r="P37" s="73">
         <v>55983.333333333336</v>
       </c>
-      <c r="Q37" s="86">
+      <c r="Q37" s="73">
         <v>57900</v>
       </c>
-      <c r="R37" s="88" t="s">
-        <v>153</v>
+      <c r="R37" s="74" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.15">
@@ -3557,31 +3532,31 @@
         <v>108</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F38">
         <v>0.5</v>
       </c>
-      <c r="L38" s="86">
+      <c r="L38" s="73">
         <v>4640233.333333334</v>
       </c>
-      <c r="M38" s="86">
+      <c r="M38" s="73">
         <v>142633.33333333334</v>
       </c>
-      <c r="N38" s="86">
+      <c r="N38" s="73">
         <v>464333.33333333337</v>
       </c>
-      <c r="O38" s="86">
+      <c r="O38" s="73">
         <v>26983.333333333336</v>
       </c>
-      <c r="P38" s="86">
+      <c r="P38" s="73">
         <v>40183.333333333336</v>
       </c>
-      <c r="Q38" s="86">
+      <c r="Q38" s="73">
         <v>53950</v>
       </c>
-      <c r="R38" s="88" t="s">
-        <v>154</v>
+      <c r="R38" s="74" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.15">
@@ -3595,31 +3570,31 @@
         <v>108</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F39">
         <v>7.5</v>
       </c>
-      <c r="L39" s="86">
+      <c r="L39" s="73">
         <v>4806166.666666667</v>
       </c>
-      <c r="M39" s="86">
+      <c r="M39" s="73">
         <v>161933.33333333334</v>
       </c>
-      <c r="N39" s="86">
+      <c r="N39" s="73">
         <v>503583.33333333337</v>
       </c>
-      <c r="O39" s="86">
+      <c r="O39" s="73">
         <v>53450</v>
       </c>
-      <c r="P39" s="86">
+      <c r="P39" s="73">
         <v>57000</v>
       </c>
-      <c r="Q39" s="86">
+      <c r="Q39" s="73">
         <v>75033.333333333343</v>
       </c>
-      <c r="R39" s="88" t="s">
-        <v>155</v>
+      <c r="R39" s="74" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.15">
@@ -3633,31 +3608,31 @@
         <v>108</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
-      <c r="L40" s="86">
+      <c r="L40" s="73">
         <v>4779266.666666667</v>
       </c>
-      <c r="M40" s="86">
+      <c r="M40" s="73">
         <v>156000</v>
       </c>
-      <c r="N40" s="86">
+      <c r="N40" s="73">
         <v>465766.66666666669</v>
       </c>
-      <c r="O40" s="86">
+      <c r="O40" s="73">
         <v>32750</v>
       </c>
-      <c r="P40" s="86">
+      <c r="P40" s="73">
         <v>49750</v>
       </c>
-      <c r="Q40" s="86">
+      <c r="Q40" s="73">
         <v>64750</v>
       </c>
-      <c r="R40" s="88" t="s">
-        <v>156</v>
+      <c r="R40" s="74" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.15">
@@ -3671,31 +3646,31 @@
         <v>108</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F41">
         <v>0.5</v>
       </c>
-      <c r="L41" s="86">
+      <c r="L41" s="73">
         <v>4518700</v>
       </c>
-      <c r="M41" s="86">
+      <c r="M41" s="73">
         <v>150366.66666666669</v>
       </c>
-      <c r="N41" s="86">
+      <c r="N41" s="73">
         <v>426166.66666666669</v>
       </c>
-      <c r="O41" s="86">
+      <c r="O41" s="73">
         <v>28700</v>
       </c>
-      <c r="P41" s="86">
+      <c r="P41" s="73">
         <v>40833.333333333336</v>
       </c>
-      <c r="Q41" s="86">
+      <c r="Q41" s="73">
         <v>55950</v>
       </c>
-      <c r="R41" s="88" t="s">
-        <v>157</v>
+      <c r="R41" s="74" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.15">
@@ -3709,31 +3684,31 @@
         <v>108</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F42">
         <v>2.75</v>
       </c>
-      <c r="L42" s="86">
+      <c r="L42" s="73">
         <v>4391250</v>
       </c>
-      <c r="M42" s="86">
+      <c r="M42" s="73">
         <v>122633.33333333334</v>
       </c>
-      <c r="N42" s="86">
+      <c r="N42" s="73">
         <v>395633.33333333337</v>
       </c>
-      <c r="O42" s="86">
+      <c r="O42" s="73">
         <v>26750</v>
       </c>
-      <c r="P42" s="86">
+      <c r="P42" s="73">
         <v>39033.333333333336</v>
       </c>
-      <c r="Q42" s="86">
+      <c r="Q42" s="73">
         <v>48166.666666666672</v>
       </c>
-      <c r="R42" s="88" t="s">
-        <v>158</v>
+      <c r="R42" s="74" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.15">
@@ -3747,31 +3722,31 @@
         <v>108</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F43">
         <v>0.5</v>
       </c>
-      <c r="L43" s="86">
+      <c r="L43" s="73">
         <v>4476066.666666667</v>
       </c>
-      <c r="M43" s="86">
+      <c r="M43" s="73">
         <v>128250</v>
       </c>
-      <c r="N43" s="86">
+      <c r="N43" s="73">
         <v>403866.66666666669</v>
       </c>
-      <c r="O43" s="86">
+      <c r="O43" s="73">
         <v>27533.333333333336</v>
       </c>
-      <c r="P43" s="86">
+      <c r="P43" s="73">
         <v>36900</v>
       </c>
-      <c r="Q43" s="86">
+      <c r="Q43" s="73">
         <v>53116.666666666672</v>
       </c>
-      <c r="R43" s="88" t="s">
-        <v>159</v>
+      <c r="R43" s="74" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.15">
@@ -3785,86 +3760,57 @@
         <v>108</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F44">
         <v>0.5</v>
       </c>
-      <c r="L44" s="86">
+      <c r="L44" s="73">
         <v>4626883.333333334</v>
       </c>
-      <c r="M44" s="86">
+      <c r="M44" s="73">
         <v>134816.66666666669</v>
       </c>
-      <c r="N44" s="86">
+      <c r="N44" s="73">
         <v>443466.66666666669</v>
       </c>
-      <c r="O44" s="86">
+      <c r="O44" s="73">
         <v>25800</v>
       </c>
-      <c r="P44" s="86">
+      <c r="P44" s="73">
         <v>36550</v>
       </c>
-      <c r="Q44" s="86">
+      <c r="Q44" s="73">
         <v>52116.666666666672</v>
       </c>
-      <c r="R44" s="88" t="s">
-        <v>160</v>
+      <c r="R44" s="74" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B48" s="67" t="s">
-        <v>99</v>
-      </c>
+      <c r="B48" s="67"/>
       <c r="C48" s="67"/>
-      <c r="D48" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49" s="67" t="s">
-        <v>110</v>
-      </c>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50" s="67" t="s">
-        <v>111</v>
-      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B50" s="67"/>
       <c r="C50" s="67"/>
-      <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B51" s="67" t="s">
-        <v>112</v>
-      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B51" s="67"/>
       <c r="C51" s="67"/>
-      <c r="D51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B52" s="67" t="s">
-        <v>113</v>
-      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B52" s="67"/>
       <c r="C52" s="67"/>
-      <c r="D52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B53" s="67" t="s">
-        <v>114</v>
-      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B53" s="67"/>
       <c r="C53" s="67"/>
-      <c r="D53">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -3946,7 +3892,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="75" t="s">
         <v>93</v>
       </c>
       <c r="B13" s="33" t="s">
@@ -3961,15 +3907,15 @@
       <c r="E13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="77" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="34" t="s">
         <v>16</v>
       </c>
@@ -3982,8 +3928,8 @@
       <c r="E14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="21">
@@ -4104,11 +4050,11 @@
         <f>'Chlorophyll a'!H13</f>
         <v>3.4499999999999997</v>
       </c>
-      <c r="J18" s="74" t="s">
+      <c r="J18" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="21">
@@ -4138,9 +4084,9 @@
         <f>'Chlorophyll a'!H14</f>
         <v>2.58</v>
       </c>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="21">
@@ -4170,9 +4116,9 @@
         <f>'Chlorophyll a'!H15</f>
         <v>2.415</v>
       </c>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="21">
@@ -4202,9 +4148,9 @@
         <f>'Chlorophyll a'!H16</f>
         <v>2.7600000000000002</v>
       </c>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="21">
@@ -7522,13 +7468,13 @@
       <c r="E34" s="35">
         <v>0.50490230980252548</v>
       </c>
-      <c r="G34" s="78" t="s">
+      <c r="G34" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="s">
@@ -7546,11 +7492,11 @@
       <c r="E35" s="35">
         <v>5.717590517873222</v>
       </c>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="21" t="s">
@@ -7607,12 +7553,12 @@
       <c r="E38" s="40">
         <v>101.0733209546669</v>
       </c>
-      <c r="G38" s="75" t="s">
+      <c r="G38" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="77"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="81"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="32" t="s">
@@ -7948,20 +7894,20 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="78" t="s">
+      <c r="A56" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="79"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
+      <c r="A57" s="83"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="51"/>
@@ -7972,12 +7918,12 @@
     </row>
     <row r="59" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="23"/>
@@ -8241,11 +8187,11 @@
         <f t="shared" si="2"/>
         <v>0.26750000000000002</v>
       </c>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="50">
@@ -8275,9 +8221,9 @@
         <f t="shared" si="2"/>
         <v>5.5949999999999998</v>
       </c>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="50">
@@ -8307,9 +8253,9 @@
         <f t="shared" si="2"/>
         <v>3.4499999999999997</v>
       </c>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="50">
@@ -8339,9 +8285,9 @@
         <f>F14/G14*1000</f>
         <v>2.58</v>
       </c>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="50">
@@ -8405,13 +8351,13 @@
       <c r="A17" s="50">
         <v>1.8</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
       <c r="G17" s="60"/>
       <c r="H17" s="59"/>
     </row>

--- a/data/raw/2024-02-28_water-samples.xlsx
+++ b/data/raw/2024-02-28_water-samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lysbethkoster/Documents/Universiteit/University of Hawai'i/MSc Thesis/Thesis/RQ2/nomilo-fishpond-analysis/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hawaii0-my.sharepoint.com/personal/alemarie_hawaii_edu/Documents/Desktop/nomilo-fishpond-analysis/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6285CBA7-10C2-2349-B276-B15624E1557C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6285CBA7-10C2-2349-B276-B15624E1557C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA2C67D7-FA6C-4075-B7D0-0391861EDB75}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2295" yWindow="2070" windowWidth="12300" windowHeight="11235" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Overview" sheetId="14" r:id="rId1"/>
@@ -1034,7 +1034,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1182,6 +1182,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1217,11 +1221,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1683,28 +1682,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.83203125" style="68"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="2" max="3" width="10.875" style="68"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="7" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.875" customWidth="1"/>
+    <col min="11" max="11" width="28.25" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="18.875" customWidth="1"/>
+    <col min="14" max="14" width="17.625" customWidth="1"/>
+    <col min="15" max="15" width="18.375" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
     <col min="17" max="17" width="19.5" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="55" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="55" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>112</v>
       </c>
@@ -1760,7 +1759,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" s="68">
         <v>1.1000000000000001</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" s="68">
         <v>1.2</v>
       </c>
@@ -1866,7 +1865,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" s="68">
         <v>1.3</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="68">
         <v>1.4</v>
       </c>
@@ -1972,7 +1971,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="68">
         <v>1.5</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="68">
         <v>1.6</v>
       </c>
@@ -2078,7 +2077,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="68">
         <v>1.7</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="68">
         <v>1.8</v>
       </c>
@@ -2159,29 +2158,29 @@
       <c r="K9" s="65">
         <v>10.237966201076372</v>
       </c>
-      <c r="L9" s="88">
+      <c r="L9" s="75">
         <v>1522316.6666666667</v>
       </c>
-      <c r="M9" s="88">
+      <c r="M9" s="75">
         <v>403766.66666666669</v>
       </c>
-      <c r="N9" s="88">
+      <c r="N9" s="75">
         <v>65216.666666666672</v>
       </c>
-      <c r="O9" s="88">
+      <c r="O9" s="75">
         <v>6916.666666666667</v>
       </c>
-      <c r="P9" s="88">
+      <c r="P9" s="75">
         <v>93783.333333333343</v>
       </c>
-      <c r="Q9" s="88">
+      <c r="Q9" s="75">
         <v>616.66666666666674</v>
       </c>
-      <c r="R9" s="89" t="s">
+      <c r="R9" s="76" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" s="68">
         <v>1.9</v>
       </c>
@@ -2234,7 +2233,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="69">
         <v>1.1000000000000001</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="68">
         <v>2.1</v>
       </c>
@@ -2315,15 +2314,8 @@
       <c r="K12" s="65">
         <v>0.17575021464620025</v>
       </c>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="68">
         <v>2.2000000000000002</v>
       </c>
@@ -2354,15 +2346,8 @@
       <c r="K13" s="65">
         <v>0.50490230980252548</v>
       </c>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="68">
         <v>2.2999999999999998</v>
       </c>
@@ -2393,15 +2378,8 @@
       <c r="K14" s="65">
         <v>5.717590517873222</v>
       </c>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="68">
         <v>2.4</v>
       </c>
@@ -2432,15 +2410,8 @@
       <c r="K15" s="65">
         <v>0.1225544217838834</v>
       </c>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" s="68">
         <v>2.5</v>
       </c>
@@ -2471,15 +2442,8 @@
       <c r="K16" s="65">
         <v>0.40063032689045719</v>
       </c>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="68">
         <v>2.6</v>
       </c>
@@ -2510,15 +2474,8 @@
       <c r="K17" s="65">
         <v>0.22172219546415931</v>
       </c>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="68">
         <v>2.7</v>
       </c>
@@ -2549,15 +2506,8 @@
       <c r="K18" s="65">
         <v>0.46476032919397736</v>
       </c>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="68">
         <v>2.8</v>
       </c>
@@ -2588,15 +2538,8 @@
       <c r="K19" s="65">
         <v>0.54212929030636825</v>
       </c>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="68">
         <v>2.9</v>
       </c>
@@ -2627,15 +2570,8 @@
       <c r="K20" s="65">
         <v>0.12759198374971206</v>
       </c>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="68">
         <v>3.1</v>
       </c>
@@ -2688,7 +2624,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="68">
         <v>3.2</v>
       </c>
@@ -2741,7 +2677,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="68">
         <v>3.3</v>
       </c>
@@ -2794,7 +2730,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="68">
         <v>3.4</v>
       </c>
@@ -2847,7 +2783,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="68">
         <v>3.5</v>
       </c>
@@ -2900,7 +2836,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="68">
         <v>3.6</v>
       </c>
@@ -2953,7 +2889,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="68">
         <v>3.7</v>
       </c>
@@ -3006,7 +2942,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="68">
         <v>3.8</v>
       </c>
@@ -3059,7 +2995,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="68">
         <v>4.0999999999999996</v>
       </c>
@@ -3112,7 +3048,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B30" s="68">
         <v>4.2</v>
       </c>
@@ -3165,7 +3101,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="68">
         <v>4.3</v>
       </c>
@@ -3218,7 +3154,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="68">
         <v>4.4000000000000004</v>
       </c>
@@ -3271,7 +3207,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="68">
         <v>4.5</v>
       </c>
@@ -3324,7 +3260,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="68">
         <v>4.5999999999999996</v>
       </c>
@@ -3377,7 +3313,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B35" s="68">
         <v>4.7</v>
       </c>
@@ -3430,7 +3366,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="68">
         <v>4.8</v>
       </c>
@@ -3483,7 +3419,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="68">
         <v>5.0999999999999996</v>
       </c>
@@ -3521,7 +3457,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" s="68">
         <v>5.2</v>
       </c>
@@ -3559,7 +3495,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39" s="68">
         <v>5.3</v>
       </c>
@@ -3597,7 +3533,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="68">
         <v>5.4</v>
       </c>
@@ -3635,7 +3571,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41" s="68">
         <v>5.5</v>
       </c>
@@ -3673,7 +3609,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42" s="68">
         <v>5.6</v>
       </c>
@@ -3711,7 +3647,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B43" s="68">
         <v>5.7</v>
       </c>
@@ -3749,7 +3685,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B44" s="68">
         <v>5.8</v>
       </c>
@@ -3787,28 +3723,28 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B48" s="67"/>
       <c r="C48" s="67"/>
       <c r="D48" s="20"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="67"/>
       <c r="C50" s="67"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="67"/>
       <c r="C51" s="67"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="67"/>
       <c r="C52" s="67"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="67"/>
       <c r="C53" s="67"/>
     </row>
@@ -3826,53 +3762,53 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D9" s="64" t="s">
         <v>8</v>
       </c>
@@ -3880,10 +3816,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="64"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D11" s="64" t="s">
         <v>9</v>
       </c>
@@ -3891,8 +3827,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="75" t="s">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="s">
         <v>93</v>
       </c>
       <c r="B13" s="33" t="s">
@@ -3907,15 +3843,15 @@
       <c r="E13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="77" t="s">
+      <c r="G13" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="77" t="s">
+      <c r="H13" s="79" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="76"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="78"/>
       <c r="B14" s="34" t="s">
         <v>16</v>
       </c>
@@ -3928,10 +3864,10 @@
       <c r="E14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>1.1000000000000001</v>
       </c>
@@ -3961,7 +3897,7 @@
         <v>2.0399999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>1.2</v>
       </c>
@@ -3991,7 +3927,7 @@
         <v>0.26750000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>1.3</v>
       </c>
@@ -4021,7 +3957,7 @@
         <v>5.5949999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>1.4</v>
       </c>
@@ -4050,13 +3986,13 @@
         <f>'Chlorophyll a'!H13</f>
         <v>3.4499999999999997</v>
       </c>
-      <c r="J18" s="78" t="s">
+      <c r="J18" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>1.5</v>
       </c>
@@ -4084,11 +4020,11 @@
         <f>'Chlorophyll a'!H14</f>
         <v>2.58</v>
       </c>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>1.6</v>
       </c>
@@ -4116,11 +4052,11 @@
         <f>'Chlorophyll a'!H15</f>
         <v>2.415</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>1.7</v>
       </c>
@@ -4148,11 +4084,11 @@
         <f>'Chlorophyll a'!H16</f>
         <v>2.7600000000000002</v>
       </c>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>1.8</v>
       </c>
@@ -4180,7 +4116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>1.9</v>
       </c>
@@ -4209,7 +4145,7 @@
         <v>1.7399999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>1.1000000000000001</v>
       </c>
@@ -4230,7 +4166,7 @@
         <v>1.1989759805666658</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>2.1</v>
       </c>
@@ -4259,7 +4195,7 @@
         <v>5.7692307692307692</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>2.2000000000000002</v>
       </c>
@@ -4288,7 +4224,7 @@
         <v>4.8239999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>2.2999999999999998</v>
       </c>
@@ -4317,7 +4253,7 @@
         <v>5.2714285714285722</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>2.4</v>
       </c>
@@ -4346,7 +4282,7 @@
         <v>4.1307692307692312</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>2.5</v>
       </c>
@@ -4375,7 +4311,7 @@
         <v>3.6749999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>2.6</v>
       </c>
@@ -4404,7 +4340,7 @@
         <v>4.2599999999999989</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>2.7</v>
       </c>
@@ -4433,7 +4369,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>2.8</v>
       </c>
@@ -4462,7 +4398,7 @@
         <v>2.3307692307692309</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>2.9</v>
       </c>
@@ -4491,7 +4427,7 @@
         <v>1.4850000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>3.1</v>
       </c>
@@ -4520,7 +4456,7 @@
         <v>2.5500000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>3.2</v>
       </c>
@@ -4549,7 +4485,7 @@
         <v>3.2700000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <v>3.3</v>
       </c>
@@ -4578,7 +4514,7 @@
         <v>1.575</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>3.4</v>
       </c>
@@ -4607,7 +4543,7 @@
         <v>5.8950000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
         <v>3.5</v>
       </c>
@@ -4636,7 +4572,7 @@
         <v>1.4654999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
         <v>3.6</v>
       </c>
@@ -4665,7 +4601,7 @@
         <v>2.4599999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="21">
         <v>3.7</v>
       </c>
@@ -4694,7 +4630,7 @@
         <v>3.0600000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
         <v>3.8</v>
       </c>
@@ -4723,7 +4659,7 @@
         <v>3.8222222222222224</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
         <v>4.0999999999999996</v>
       </c>
@@ -4752,7 +4688,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
         <v>4.2</v>
       </c>
@@ -4781,7 +4717,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
         <v>4.3</v>
       </c>
@@ -4810,7 +4746,7 @@
         <v>5.6142857142857148</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>4.4000000000000004</v>
       </c>
@@ -4839,7 +4775,7 @@
         <v>5.1150000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
         <v>4.5</v>
       </c>
@@ -4868,7 +4804,7 @@
         <v>0.87450000000000017</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>4.5999999999999996</v>
       </c>
@@ -4897,7 +4833,7 @@
         <v>0.42250000000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <v>4.7</v>
       </c>
@@ -4926,7 +4862,7 @@
         <v>0.11299999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
         <v>4.8</v>
       </c>
@@ -4978,18 +4914,18 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -5005,7 +4941,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
         <v>23</v>
@@ -5033,7 +4969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="17" t="s">
         <v>16</v>
@@ -5061,7 +4997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="36">
         <f>'Nutrient Channels DATA'!A23</f>
         <v>396</v>
@@ -5103,7 +5039,7 @@
         <v>0.55166376981550902</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="str">
         <f>'Nutrient Channels DATA'!A24</f>
         <v>367</v>
@@ -5145,7 +5081,7 @@
         <v>7.5972190228886141E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="str">
         <f>'Nutrient Channels DATA'!A25</f>
         <v>398</v>
@@ -5187,7 +5123,7 @@
         <v>3.2685653257386971</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="str">
         <f>'Nutrient Channels DATA'!A26</f>
         <v>399</v>
@@ -5229,7 +5165,7 @@
         <v>1.0934286851087889</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="str">
         <f>'Nutrient Channels DATA'!A27</f>
         <v>400</v>
@@ -5271,7 +5207,7 @@
         <v>0.11344208740812095</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="str">
         <f>'Nutrient Channels DATA'!A28</f>
         <v>401</v>
@@ -5313,7 +5249,7 @@
         <v>0.32313990744037024</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="str">
         <f>'Nutrient Channels DATA'!A29</f>
         <v>402</v>
@@ -5355,7 +5291,7 @@
         <v>0.47799928800284797</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="str">
         <f>'Nutrient Channels DATA'!A30</f>
         <v>403</v>
@@ -5397,7 +5333,7 @@
         <v>10.237966201076372</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="str">
         <f>'Nutrient Channels DATA'!A31</f>
         <v>404</v>
@@ -5439,7 +5375,7 @@
         <v>0.29314368064819812</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="str">
         <f>'Nutrient Channels DATA'!A32</f>
         <v>405</v>
@@ -5481,7 +5417,7 @@
         <v>1.1989759805666658</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="str">
         <f>'Nutrient Channels DATA'!A33</f>
         <v>406</v>
@@ -5523,7 +5459,7 @@
         <v>0.17575021464620025</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="str">
         <f>'Nutrient Channels DATA'!A34</f>
         <v>407</v>
@@ -5565,7 +5501,7 @@
         <v>0.50490230980252548</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="str">
         <f>'Nutrient Channels DATA'!A35</f>
         <v>408</v>
@@ -5607,7 +5543,7 @@
         <v>5.717590517873222</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="str">
         <f>'Nutrient Channels DATA'!A36</f>
         <v>409</v>
@@ -5649,7 +5585,7 @@
         <v>0.1225544217838834</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="str">
         <f>'Nutrient Channels DATA'!A40</f>
         <v>410</v>
@@ -5691,7 +5627,7 @@
         <v>0.40063032689045719</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="str">
         <f>'Nutrient Channels DATA'!A41</f>
         <v>411</v>
@@ -5733,7 +5669,7 @@
         <v>0.22172219546415931</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="str">
         <f>'Nutrient Channels DATA'!A42</f>
         <v>412</v>
@@ -5775,7 +5711,7 @@
         <v>0.46476032919397736</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="str">
         <f>'Nutrient Channels DATA'!A43</f>
         <v>413</v>
@@ -5817,7 +5753,7 @@
         <v>0.54212929030636825</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="str">
         <f>'Nutrient Channels DATA'!A44</f>
         <v>414</v>
@@ -5859,7 +5795,7 @@
         <v>0.12759198374971206</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="str">
         <f>'Nutrient Channels DATA'!A45</f>
         <v>415</v>
@@ -5901,7 +5837,7 @@
         <v>&lt;0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="str">
         <f>'Nutrient Channels DATA'!A46</f>
         <v>416</v>
@@ -5943,7 +5879,7 @@
         <v>&lt;0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="str">
         <f>'Nutrient Channels DATA'!A47</f>
         <v>417</v>
@@ -5985,7 +5921,7 @@
         <v>4.6726237095051619</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="str">
         <f>'Nutrient Channels DATA'!A48</f>
         <v>418</v>
@@ -6027,7 +5963,7 @@
         <v>2.610996345854396E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="str">
         <f>'Nutrient Channels DATA'!A49</f>
         <v>419</v>
@@ -6069,7 +6005,7 @@
         <v>0.22190438297070339</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="str">
         <f>'Nutrient Channels DATA'!A50</f>
         <v>420</v>
@@ -6111,7 +6047,7 @@
         <v>7.4393231838837351E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="str">
         <f>'Nutrient Channels DATA'!A51</f>
         <v>421</v>
@@ -6153,7 +6089,7 @@
         <v>0.15194438045777228</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="36">
         <f>'Nutrient Channels DATA'!A52</f>
         <v>422</v>
@@ -6195,7 +6131,7 @@
         <v>0.18091219399828282</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="36">
         <f>'Nutrient Channels DATA'!G23</f>
         <v>1</v>
@@ -6237,7 +6173,7 @@
         <v>1.199121934243226</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="str">
         <f>'Nutrient Channels DATA'!G24</f>
         <v>2</v>
@@ -6279,7 +6215,7 @@
         <v>1.0305939882835331</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="str">
         <f>'Nutrient Channels DATA'!G25</f>
         <v>3</v>
@@ -6321,7 +6257,7 @@
         <v>12.454265177643233</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="str">
         <f>'Nutrient Channels DATA'!G26</f>
         <v>4</v>
@@ -6363,7 +6299,7 @@
         <v>1.3698361211623664</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="str">
         <f>'Nutrient Channels DATA'!G27</f>
         <v>5</v>
@@ -6405,7 +6341,7 @@
         <v>2.661654672086164</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="str">
         <f>'Nutrient Channels DATA'!G28</f>
         <v>6</v>
@@ -6447,7 +6383,7 @@
         <v>0.4611094503611759</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="str">
         <f>'Nutrient Channels DATA'!G29</f>
         <v>7</v>
@@ -6489,7 +6425,7 @@
         <v>1.0131040606079535</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="36">
         <f>'Nutrient Channels DATA'!G30</f>
         <v>8</v>
@@ -6547,17 +6483,17 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -6571,7 +6507,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -6585,7 +6521,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -6599,7 +6535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -6613,8 +6549,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>3</v>
@@ -6642,7 +6578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -6674,7 +6610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -6706,7 +6642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -6738,7 +6674,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -6770,7 +6706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -6802,7 +6738,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
@@ -6834,7 +6770,7 @@
         <v>0.99874879070103861</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
@@ -6844,7 +6780,7 @@
       </c>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>22</v>
       </c>
@@ -6876,7 +6812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>22</v>
       </c>
@@ -6908,7 +6844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>22</v>
       </c>
@@ -6940,7 +6876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
         <v>22</v>
       </c>
@@ -6972,7 +6908,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
         <v>22</v>
       </c>
@@ -7004,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
         <v>30</v>
       </c>
@@ -7036,7 +6972,7 @@
         <v>5.9431352758321232E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>28</v>
       </c>
@@ -7068,7 +7004,7 @@
         <v>99.067928947882095</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>28</v>
       </c>
@@ -7100,7 +7036,7 @@
         <v>97.667382393129017</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="42">
         <v>396</v>
       </c>
@@ -7132,7 +7068,7 @@
         <v>1.199121934243226</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>52</v>
       </c>
@@ -7164,7 +7100,7 @@
         <v>1.0305939882835331</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>53</v>
       </c>
@@ -7196,7 +7132,7 @@
         <v>12.454265177643233</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>54</v>
       </c>
@@ -7228,7 +7164,7 @@
         <v>1.3698361211623664</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>55</v>
       </c>
@@ -7260,7 +7196,7 @@
         <v>2.661654672086164</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>56</v>
       </c>
@@ -7292,7 +7228,7 @@
         <v>0.4611094503611759</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>57</v>
       </c>
@@ -7324,7 +7260,7 @@
         <v>1.0131040606079535</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>58</v>
       </c>
@@ -7356,7 +7292,7 @@
         <v>1.835942693716565</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>59</v>
       </c>
@@ -7388,7 +7324,7 @@
         <v>7.4956832895341496E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
         <v>60</v>
       </c>
@@ -7420,7 +7356,7 @@
         <v>102.833333333333</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
         <v>61</v>
       </c>
@@ -7452,7 +7388,7 @@
         <v>103.372549019608</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
         <v>62</v>
       </c>
@@ -7468,15 +7404,15 @@
       <c r="E34" s="35">
         <v>0.50490230980252548</v>
       </c>
-      <c r="G34" s="82" t="s">
+      <c r="G34" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>63</v>
       </c>
@@ -7492,13 +7428,13 @@
       <c r="E35" s="35">
         <v>5.717590517873222</v>
       </c>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
         <v>64</v>
       </c>
@@ -7520,7 +7456,7 @@
       <c r="J36" s="51"/>
       <c r="K36" s="51"/>
     </row>
-    <row r="37" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>30</v>
       </c>
@@ -7537,7 +7473,7 @@
         <v>8.9879169895085084E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
         <v>28</v>
       </c>
@@ -7553,14 +7489,14 @@
       <c r="E38" s="40">
         <v>101.0733209546669</v>
       </c>
-      <c r="G38" s="79" t="s">
+      <c r="G38" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="81"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="83"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
         <v>28</v>
       </c>
@@ -7587,7 +7523,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="42" t="s">
         <v>65</v>
       </c>
@@ -7614,7 +7550,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>66</v>
       </c>
@@ -7643,7 +7579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>67</v>
       </c>
@@ -7672,7 +7608,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>68</v>
       </c>
@@ -7689,7 +7625,7 @@
         <v>0.54212929030636825</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
         <v>69</v>
       </c>
@@ -7706,7 +7642,7 @@
         <v>0.12759198374971206</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>70</v>
       </c>
@@ -7723,7 +7659,7 @@
         <v>6.0729168848028259E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
         <v>71</v>
       </c>
@@ -7740,7 +7676,7 @@
         <v>2.7328125981613688E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
         <v>72</v>
       </c>
@@ -7757,7 +7693,7 @@
         <v>4.6726237095051619</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
         <v>73</v>
       </c>
@@ -7774,7 +7710,7 @@
         <v>2.610996345854396E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>74</v>
       </c>
@@ -7791,7 +7727,7 @@
         <v>0.22190438297070339</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
         <v>75</v>
       </c>
@@ -7808,7 +7744,7 @@
         <v>7.4393231838837351E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
         <v>76</v>
       </c>
@@ -7825,7 +7761,7 @@
         <v>0.15194438045777228</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
         <v>422</v>
       </c>
@@ -7842,7 +7778,7 @@
         <v>0.18091219399828282</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="30" t="s">
         <v>30</v>
       </c>
@@ -7859,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="32" t="s">
         <v>28</v>
       </c>
@@ -7876,7 +7812,7 @@
         <v>102.49082921969112</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="32" t="s">
         <v>28</v>
       </c>
@@ -7893,39 +7829,39 @@
         <v>103.2878945699923</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="82" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="83"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="51"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
       <c r="D58" s="51"/>
       <c r="E58" s="51"/>
     </row>
-    <row r="59" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="79" t="s">
+    <row r="59" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="81"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B60" s="82"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="83"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
       <c r="B61" s="21" t="s">
         <v>23</v>
@@ -7937,7 +7873,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="23"/>
       <c r="B62" s="21" t="s">
         <v>31</v>
@@ -7949,7 +7885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
         <v>32</v>
       </c>
@@ -7963,7 +7899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
         <v>0</v>
       </c>
@@ -7999,16 +7935,16 @@
       <selection activeCell="B17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="256" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>90</v>
       </c>
@@ -8022,7 +7958,7 @@
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>78</v>
       </c>
@@ -8036,7 +7972,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>79</v>
       </c>
@@ -8050,7 +7986,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -8060,7 +7996,7 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
         <v>80</v>
       </c>
@@ -8072,7 +8008,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>81</v>
       </c>
@@ -8084,7 +8020,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -8094,7 +8030,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -8104,7 +8040,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:12" ht="42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
         <v>82</v>
       </c>
@@ -8130,7 +8066,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="50">
         <v>1.1000000000000001</v>
       </c>
@@ -8159,7 +8095,7 @@
         <v>2.0399999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="50">
         <v>1.2</v>
       </c>
@@ -8187,13 +8123,13 @@
         <f t="shared" si="2"/>
         <v>0.26750000000000002</v>
       </c>
-      <c r="J11" s="78" t="s">
+      <c r="J11" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="50">
         <v>1.3</v>
       </c>
@@ -8221,11 +8157,11 @@
         <f t="shared" si="2"/>
         <v>5.5949999999999998</v>
       </c>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="50">
         <v>1.4</v>
       </c>
@@ -8253,11 +8189,11 @@
         <f t="shared" si="2"/>
         <v>3.4499999999999997</v>
       </c>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="50">
         <v>1.5</v>
       </c>
@@ -8285,11 +8221,11 @@
         <f>F14/G14*1000</f>
         <v>2.58</v>
       </c>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="50">
         <v>1.6</v>
       </c>
@@ -8318,7 +8254,7 @@
         <v>2.415</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="50">
         <v>1.7</v>
       </c>
@@ -8347,21 +8283,21 @@
         <v>2.7600000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="50">
         <v>1.8</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="60"/>
       <c r="H17" s="59"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="50">
         <v>1.9</v>
       </c>
@@ -8390,7 +8326,7 @@
         <v>1.7399999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="50">
         <v>2.1</v>
       </c>
@@ -8419,7 +8355,7 @@
         <v>5.7692307692307692</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="50">
         <v>2.2000000000000002</v>
       </c>
@@ -8448,7 +8384,7 @@
         <v>4.8239999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="50">
         <v>2.2999999999999998</v>
       </c>
@@ -8477,7 +8413,7 @@
         <v>5.2714285714285722</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="50">
         <v>2.4</v>
       </c>
@@ -8506,7 +8442,7 @@
         <v>4.1307692307692312</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="50">
         <v>2.5</v>
       </c>
@@ -8535,7 +8471,7 @@
         <v>3.6749999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="50">
         <v>2.6</v>
       </c>
@@ -8564,7 +8500,7 @@
         <v>4.2599999999999989</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="50">
         <v>2.7</v>
       </c>
@@ -8593,7 +8529,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="50">
         <v>2.8</v>
       </c>
@@ -8622,7 +8558,7 @@
         <v>2.3307692307692309</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="50">
         <v>2.9</v>
       </c>
@@ -8651,7 +8587,7 @@
         <v>1.4850000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="50">
         <v>3.1</v>
       </c>
@@ -8680,7 +8616,7 @@
         <v>2.5500000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="50">
         <v>3.2</v>
       </c>
@@ -8709,7 +8645,7 @@
         <v>3.2700000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="50">
         <v>3.3</v>
       </c>
@@ -8738,7 +8674,7 @@
         <v>1.575</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="50">
         <v>3.4</v>
       </c>
@@ -8767,7 +8703,7 @@
         <v>5.8950000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="50">
         <v>3.5</v>
       </c>
@@ -8796,7 +8732,7 @@
         <v>1.4654999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="50">
         <v>3.6</v>
       </c>
@@ -8825,7 +8761,7 @@
         <v>2.4599999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="50">
         <v>3.7</v>
       </c>
@@ -8854,7 +8790,7 @@
         <v>3.0600000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="50">
         <v>3.8</v>
       </c>
@@ -8883,7 +8819,7 @@
         <v>3.8222222222222224</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="50">
         <v>4.0999999999999996</v>
       </c>
@@ -8912,7 +8848,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="50">
         <v>4.2</v>
       </c>
@@ -8941,7 +8877,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="50">
         <v>4.3</v>
       </c>
@@ -8970,7 +8906,7 @@
         <v>5.6142857142857148</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="50">
         <v>4.4000000000000004</v>
       </c>
@@ -8999,7 +8935,7 @@
         <v>5.1150000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="50">
         <v>4.5</v>
       </c>
@@ -9028,7 +8964,7 @@
         <v>0.87450000000000017</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="50">
         <v>4.5999999999999996</v>
       </c>
@@ -9057,7 +8993,7 @@
         <v>0.42250000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="50">
         <v>4.7</v>
       </c>
@@ -9086,7 +9022,7 @@
         <v>0.11299999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="50">
         <v>4.8</v>
       </c>
